--- a/sampleData.export.xlsx
+++ b/sampleData.export.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,10 +397,193 @@
         <v>last_state</v>
       </c>
       <c r="F1" t="str">
-        <v>consumption_end</v>
+        <v>con_average</v>
       </c>
       <c r="G1" t="str">
-        <v>consumption_durations</v>
+        <v>con_end0</v>
+      </c>
+      <c r="H1" t="str">
+        <v>con_durations0</v>
+      </c>
+      <c r="I1" t="str">
+        <v>con_end1</v>
+      </c>
+      <c r="J1" t="str">
+        <v>con_durations1</v>
+      </c>
+      <c r="K1" t="str">
+        <v>con_end2</v>
+      </c>
+      <c r="L1" t="str">
+        <v>con_durations2</v>
+      </c>
+      <c r="M1" t="str">
+        <v>con_end3</v>
+      </c>
+      <c r="N1" t="str">
+        <v>con_durations3</v>
+      </c>
+      <c r="O1" t="str">
+        <v>con_end4</v>
+      </c>
+      <c r="P1" t="str">
+        <v>con_durations4</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>con_end5</v>
+      </c>
+      <c r="R1" t="str">
+        <v>con_durations5</v>
+      </c>
+      <c r="S1" t="str">
+        <v>con_end6</v>
+      </c>
+      <c r="T1" t="str">
+        <v>con_durations6</v>
+      </c>
+      <c r="U1" t="str">
+        <v>con_end7</v>
+      </c>
+      <c r="V1" t="str">
+        <v>con_durations7</v>
+      </c>
+      <c r="W1" t="str">
+        <v>con_end8</v>
+      </c>
+      <c r="X1" t="str">
+        <v>con_durations8</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>con_end9</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>con_durations9</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>con_end10</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>con_durations10</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>con_end11</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>con_durations11</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>con_end12</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>con_durations12</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>con_end13</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>con_durations13</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>con_end14</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>con_durations14</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>con_end15</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>con_durations15</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>con_end16</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>con_durations16</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>con_end17</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>con_durations17</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>con_end18</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>con_durations18</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>con_end19</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>con_durations19</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>con_end20</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>con_durations20</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>con_end21</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>con_durations21</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>con_end22</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>con_durations22</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>con_end23</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>con_durations23</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>con_end24</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>con_durations24</v>
+      </c>
+      <c r="BE1" t="str">
+        <v>con_end25</v>
+      </c>
+      <c r="BF1" t="str">
+        <v>con_durations25</v>
+      </c>
+      <c r="BG1" t="str">
+        <v>con_end26</v>
+      </c>
+      <c r="BH1" t="str">
+        <v>con_durations26</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>con_end27</v>
+      </c>
+      <c r="BJ1" t="str">
+        <v>con_durations27</v>
+      </c>
+      <c r="BK1" t="str">
+        <v>con_end28</v>
+      </c>
+      <c r="BL1" t="str">
+        <v>con_durations28</v>
+      </c>
+      <c r="BM1" t="str">
+        <v>con_end29</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>con_durations29</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>con_end30</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>con_durations30</v>
       </c>
     </row>
     <row r="2">
@@ -419,6 +602,93 @@
       <c r="E2" t="str">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>335.35714285714283</v>
+      </c>
+      <c r="G2" t="str">
+        <v>182033</v>
+      </c>
+      <c r="H2">
+        <v>181</v>
+      </c>
+      <c r="I2" t="str">
+        <v>222739</v>
+      </c>
+      <c r="J2">
+        <v>247</v>
+      </c>
+      <c r="K2" t="str">
+        <v>154906</v>
+      </c>
+      <c r="L2">
+        <v>1041</v>
+      </c>
+      <c r="M2" t="str">
+        <v>224413</v>
+      </c>
+      <c r="N2">
+        <v>415</v>
+      </c>
+      <c r="O2" t="str">
+        <v>024213</v>
+      </c>
+      <c r="P2">
+        <v>238</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>103304</v>
+      </c>
+      <c r="R2">
+        <v>470</v>
+      </c>
+      <c r="S2" t="str">
+        <v>131241</v>
+      </c>
+      <c r="T2">
+        <v>159</v>
+      </c>
+      <c r="U2" t="str">
+        <v>175700</v>
+      </c>
+      <c r="V2">
+        <v>284</v>
+      </c>
+      <c r="W2" t="str">
+        <v>200849</v>
+      </c>
+      <c r="X2">
+        <v>131</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>043935</v>
+      </c>
+      <c r="Z2">
+        <v>510</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>055741</v>
+      </c>
+      <c r="AB2">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>075415</v>
+      </c>
+      <c r="AD2">
+        <v>116</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>123845</v>
+      </c>
+      <c r="AF2">
+        <v>284</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>213947</v>
+      </c>
+      <c r="AH2">
+        <v>541</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -436,6 +706,15 @@
       <c r="E3" t="str">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1501</v>
+      </c>
+      <c r="G3" t="str">
+        <v>074857</v>
+      </c>
+      <c r="H3">
+        <v>1501</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -453,6 +732,15 @@
       <c r="E4" t="str">
         <v>1</v>
       </c>
+      <c r="F4">
+        <v>2024</v>
+      </c>
+      <c r="G4" t="str">
+        <v>215537</v>
+      </c>
+      <c r="H4">
+        <v>2024</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -470,6 +758,15 @@
       <c r="E5" t="str">
         <v>1,1</v>
       </c>
+      <c r="F5">
+        <v>441</v>
+      </c>
+      <c r="G5" t="str">
+        <v>151010</v>
+      </c>
+      <c r="H5">
+        <v>441</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -487,6 +784,15 @@
       <c r="E6" t="str">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>3682</v>
+      </c>
+      <c r="G6" t="str">
+        <v>122525</v>
+      </c>
+      <c r="H6">
+        <v>3682</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -504,6 +810,39 @@
       <c r="E7" t="str">
         <v>1,1,1</v>
       </c>
+      <c r="F7">
+        <v>555.6</v>
+      </c>
+      <c r="G7" t="str">
+        <v>230831</v>
+      </c>
+      <c r="H7">
+        <v>176</v>
+      </c>
+      <c r="I7" t="str">
+        <v>145633</v>
+      </c>
+      <c r="J7">
+        <v>948</v>
+      </c>
+      <c r="K7" t="str">
+        <v>201311</v>
+      </c>
+      <c r="L7">
+        <v>316</v>
+      </c>
+      <c r="M7" t="str">
+        <v>111917</v>
+      </c>
+      <c r="N7">
+        <v>906</v>
+      </c>
+      <c r="O7" t="str">
+        <v>183119</v>
+      </c>
+      <c r="P7">
+        <v>432</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -521,6 +860,27 @@
       <c r="E8" t="str">
         <v>0,0</v>
       </c>
+      <c r="F8">
+        <v>349</v>
+      </c>
+      <c r="G8" t="str">
+        <v>193225</v>
+      </c>
+      <c r="H8">
+        <v>70</v>
+      </c>
+      <c r="I8" t="str">
+        <v>095539</v>
+      </c>
+      <c r="J8">
+        <v>863</v>
+      </c>
+      <c r="K8" t="str">
+        <v>115019</v>
+      </c>
+      <c r="L8">
+        <v>114</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -538,6 +898,111 @@
       <c r="E9" t="str">
         <v>1,1</v>
       </c>
+      <c r="F9">
+        <v>276.3529411764706</v>
+      </c>
+      <c r="G9" t="str">
+        <v>124242</v>
+      </c>
+      <c r="H9">
+        <v>73</v>
+      </c>
+      <c r="I9" t="str">
+        <v>145214</v>
+      </c>
+      <c r="J9">
+        <v>129</v>
+      </c>
+      <c r="K9" t="str">
+        <v>163549</v>
+      </c>
+      <c r="L9">
+        <v>103</v>
+      </c>
+      <c r="M9" t="str">
+        <v>071743</v>
+      </c>
+      <c r="N9">
+        <v>881</v>
+      </c>
+      <c r="O9" t="str">
+        <v>111937</v>
+      </c>
+      <c r="P9">
+        <v>241</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>135710</v>
+      </c>
+      <c r="R9">
+        <v>157</v>
+      </c>
+      <c r="S9" t="str">
+        <v>180513</v>
+      </c>
+      <c r="T9">
+        <v>248</v>
+      </c>
+      <c r="U9" t="str">
+        <v>205552</v>
+      </c>
+      <c r="V9">
+        <v>170</v>
+      </c>
+      <c r="W9" t="str">
+        <v>042800</v>
+      </c>
+      <c r="X9">
+        <v>452</v>
+      </c>
+      <c r="Y9" t="str">
+        <v>105601</v>
+      </c>
+      <c r="Z9">
+        <v>388</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>135242</v>
+      </c>
+      <c r="AB9">
+        <v>176</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>030811</v>
+      </c>
+      <c r="AD9">
+        <v>795</v>
+      </c>
+      <c r="AE9" t="str">
+        <v>052021</v>
+      </c>
+      <c r="AF9">
+        <v>132</v>
+      </c>
+      <c r="AG9" t="str">
+        <v>063833</v>
+      </c>
+      <c r="AH9">
+        <v>78</v>
+      </c>
+      <c r="AI9" t="str">
+        <v>082152</v>
+      </c>
+      <c r="AJ9">
+        <v>103</v>
+      </c>
+      <c r="AK9" t="str">
+        <v>163011</v>
+      </c>
+      <c r="AL9">
+        <v>488</v>
+      </c>
+      <c r="AM9" t="str">
+        <v>175424</v>
+      </c>
+      <c r="AN9">
+        <v>84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -555,6 +1020,51 @@
       <c r="E10" t="str">
         <v>0,1</v>
       </c>
+      <c r="F10">
+        <v>660.2857142857143</v>
+      </c>
+      <c r="G10" t="str">
+        <v>144513</v>
+      </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
+      <c r="I10" t="str">
+        <v>213542</v>
+      </c>
+      <c r="J10">
+        <v>410</v>
+      </c>
+      <c r="K10" t="str">
+        <v>111951</v>
+      </c>
+      <c r="L10">
+        <v>824</v>
+      </c>
+      <c r="M10" t="str">
+        <v>205658</v>
+      </c>
+      <c r="N10">
+        <v>577</v>
+      </c>
+      <c r="O10" t="str">
+        <v>051941</v>
+      </c>
+      <c r="P10">
+        <v>1942</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>072238</v>
+      </c>
+      <c r="R10">
+        <v>122</v>
+      </c>
+      <c r="S10" t="str">
+        <v>163003</v>
+      </c>
+      <c r="T10">
+        <v>547</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -572,6 +1082,39 @@
       <c r="E11" t="str">
         <v>1,1</v>
       </c>
+      <c r="F11">
+        <v>251.6</v>
+      </c>
+      <c r="G11" t="str">
+        <v>142542</v>
+      </c>
+      <c r="H11">
+        <v>275</v>
+      </c>
+      <c r="I11" t="str">
+        <v>181323</v>
+      </c>
+      <c r="J11">
+        <v>227</v>
+      </c>
+      <c r="K11" t="str">
+        <v>183952</v>
+      </c>
+      <c r="L11">
+        <v>26</v>
+      </c>
+      <c r="M11" t="str">
+        <v>065036</v>
+      </c>
+      <c r="N11">
+        <v>730</v>
+      </c>
+      <c r="O11" t="str">
+        <v>065112</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -589,6 +1132,33 @@
       <c r="E12" t="str">
         <v>1,1</v>
       </c>
+      <c r="F12">
+        <v>365.25</v>
+      </c>
+      <c r="G12" t="str">
+        <v>153706</v>
+      </c>
+      <c r="H12">
+        <v>304</v>
+      </c>
+      <c r="I12" t="str">
+        <v>175630</v>
+      </c>
+      <c r="J12">
+        <v>139</v>
+      </c>
+      <c r="K12" t="str">
+        <v>085612</v>
+      </c>
+      <c r="L12">
+        <v>899</v>
+      </c>
+      <c r="M12" t="str">
+        <v>105539</v>
+      </c>
+      <c r="N12">
+        <v>119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -606,6 +1176,15 @@
       <c r="E13" t="str">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>123</v>
+      </c>
+      <c r="G13" t="str">
+        <v>113712</v>
+      </c>
+      <c r="H13">
+        <v>123</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -623,6 +1202,15 @@
       <c r="E14" t="str">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>770</v>
+      </c>
+      <c r="G14" t="str">
+        <v>152415</v>
+      </c>
+      <c r="H14">
+        <v>770</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -640,6 +1228,27 @@
       <c r="E15" t="str">
         <v>1,1</v>
       </c>
+      <c r="F15">
+        <v>855.6666666666666</v>
+      </c>
+      <c r="G15" t="str">
+        <v>041515</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+      <c r="I15" t="str">
+        <v>044433</v>
+      </c>
+      <c r="J15">
+        <v>1469</v>
+      </c>
+      <c r="K15" t="str">
+        <v>214820</v>
+      </c>
+      <c r="L15">
+        <v>1023</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -657,6 +1266,15 @@
       <c r="E16" t="str">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>1631</v>
+      </c>
+      <c r="G16" t="str">
+        <v>093149</v>
+      </c>
+      <c r="H16">
+        <v>1631</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -674,6 +1292,117 @@
       <c r="E17" t="str">
         <v>1,1</v>
       </c>
+      <c r="F17">
+        <v>272.3333333333333</v>
+      </c>
+      <c r="G17" t="str">
+        <v>142103</v>
+      </c>
+      <c r="H17">
+        <v>225</v>
+      </c>
+      <c r="I17" t="str">
+        <v>173213</v>
+      </c>
+      <c r="J17">
+        <v>191</v>
+      </c>
+      <c r="K17" t="str">
+        <v>202503</v>
+      </c>
+      <c r="L17">
+        <v>172</v>
+      </c>
+      <c r="M17" t="str">
+        <v>003754</v>
+      </c>
+      <c r="N17">
+        <v>252</v>
+      </c>
+      <c r="O17" t="str">
+        <v>032811</v>
+      </c>
+      <c r="P17">
+        <v>170</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>063038</v>
+      </c>
+      <c r="R17">
+        <v>182</v>
+      </c>
+      <c r="S17" t="str">
+        <v>100103</v>
+      </c>
+      <c r="T17">
+        <v>210</v>
+      </c>
+      <c r="U17" t="str">
+        <v>003130</v>
+      </c>
+      <c r="V17">
+        <v>870</v>
+      </c>
+      <c r="W17" t="str">
+        <v>032048</v>
+      </c>
+      <c r="X17">
+        <v>169</v>
+      </c>
+      <c r="Y17" t="str">
+        <v>070113</v>
+      </c>
+      <c r="Z17">
+        <v>220</v>
+      </c>
+      <c r="AA17" t="str">
+        <v>092903</v>
+      </c>
+      <c r="AB17">
+        <v>147</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>125214</v>
+      </c>
+      <c r="AD17">
+        <v>203</v>
+      </c>
+      <c r="AE17" t="str">
+        <v>192534</v>
+      </c>
+      <c r="AF17">
+        <v>393</v>
+      </c>
+      <c r="AG17" t="str">
+        <v>000701</v>
+      </c>
+      <c r="AH17">
+        <v>281</v>
+      </c>
+      <c r="AI17" t="str">
+        <v>042137</v>
+      </c>
+      <c r="AJ17">
+        <v>254</v>
+      </c>
+      <c r="AK17" t="str">
+        <v>143808</v>
+      </c>
+      <c r="AL17">
+        <v>616</v>
+      </c>
+      <c r="AM17" t="str">
+        <v>171745</v>
+      </c>
+      <c r="AN17">
+        <v>159</v>
+      </c>
+      <c r="AO17" t="str">
+        <v>202551</v>
+      </c>
+      <c r="AP17">
+        <v>188</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -691,6 +1420,15 @@
       <c r="E18" t="str">
         <v>1</v>
       </c>
+      <c r="F18">
+        <v>578</v>
+      </c>
+      <c r="G18" t="str">
+        <v>194352</v>
+      </c>
+      <c r="H18">
+        <v>578</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -708,6 +1446,27 @@
       <c r="E19" t="str">
         <v>1,1,1</v>
       </c>
+      <c r="F19">
+        <v>315</v>
+      </c>
+      <c r="G19" t="str">
+        <v>062026</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="str">
+        <v>145551</v>
+      </c>
+      <c r="J19">
+        <v>515</v>
+      </c>
+      <c r="K19" t="str">
+        <v>220608</v>
+      </c>
+      <c r="L19">
+        <v>430</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -725,6 +1484,39 @@
       <c r="E20" t="str">
         <v>0</v>
       </c>
+      <c r="F20">
+        <v>1078</v>
+      </c>
+      <c r="G20" t="str">
+        <v>050249</v>
+      </c>
+      <c r="H20">
+        <v>1521</v>
+      </c>
+      <c r="I20" t="str">
+        <v>200344</v>
+      </c>
+      <c r="J20">
+        <v>2340</v>
+      </c>
+      <c r="K20" t="str">
+        <v>135158</v>
+      </c>
+      <c r="L20">
+        <v>1068</v>
+      </c>
+      <c r="M20" t="str">
+        <v>194233</v>
+      </c>
+      <c r="N20">
+        <v>350</v>
+      </c>
+      <c r="O20" t="str">
+        <v>213425</v>
+      </c>
+      <c r="P20">
+        <v>111</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -742,6 +1534,69 @@
       <c r="E21" t="str">
         <v>0,1</v>
       </c>
+      <c r="F21">
+        <v>530</v>
+      </c>
+      <c r="G21" t="str">
+        <v>125617</v>
+      </c>
+      <c r="H21">
+        <v>482</v>
+      </c>
+      <c r="I21" t="str">
+        <v>192123</v>
+      </c>
+      <c r="J21">
+        <v>385</v>
+      </c>
+      <c r="K21" t="str">
+        <v>023045</v>
+      </c>
+      <c r="L21">
+        <v>429</v>
+      </c>
+      <c r="M21" t="str">
+        <v>100153</v>
+      </c>
+      <c r="N21">
+        <v>451</v>
+      </c>
+      <c r="O21" t="str">
+        <v>003047</v>
+      </c>
+      <c r="P21">
+        <v>868</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>045721</v>
+      </c>
+      <c r="R21">
+        <v>266</v>
+      </c>
+      <c r="S21" t="str">
+        <v>125254</v>
+      </c>
+      <c r="T21">
+        <v>475</v>
+      </c>
+      <c r="U21" t="str">
+        <v>000639</v>
+      </c>
+      <c r="V21">
+        <v>673</v>
+      </c>
+      <c r="W21" t="str">
+        <v>144212</v>
+      </c>
+      <c r="X21">
+        <v>875</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>211905</v>
+      </c>
+      <c r="Z21">
+        <v>396</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -759,6 +1614,147 @@
       <c r="E22" t="str">
         <v>1,1</v>
       </c>
+      <c r="F22">
+        <v>212.47826086956522</v>
+      </c>
+      <c r="G22" t="str">
+        <v>160750</v>
+      </c>
+      <c r="H22">
+        <v>163</v>
+      </c>
+      <c r="I22" t="str">
+        <v>184617</v>
+      </c>
+      <c r="J22">
+        <v>158</v>
+      </c>
+      <c r="K22" t="str">
+        <v>212839</v>
+      </c>
+      <c r="L22">
+        <v>162</v>
+      </c>
+      <c r="M22" t="str">
+        <v>232013</v>
+      </c>
+      <c r="N22">
+        <v>111</v>
+      </c>
+      <c r="O22" t="str">
+        <v>015655</v>
+      </c>
+      <c r="P22">
+        <v>156</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>040844</v>
+      </c>
+      <c r="R22">
+        <v>131</v>
+      </c>
+      <c r="S22" t="str">
+        <v>073905</v>
+      </c>
+      <c r="T22">
+        <v>210</v>
+      </c>
+      <c r="U22" t="str">
+        <v>103117</v>
+      </c>
+      <c r="V22">
+        <v>172</v>
+      </c>
+      <c r="W22" t="str">
+        <v>125355</v>
+      </c>
+      <c r="X22">
+        <v>142</v>
+      </c>
+      <c r="Y22" t="str">
+        <v>143653</v>
+      </c>
+      <c r="Z22">
+        <v>102</v>
+      </c>
+      <c r="AA22" t="str">
+        <v>172031</v>
+      </c>
+      <c r="AB22">
+        <v>163</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>065619</v>
+      </c>
+      <c r="AD22">
+        <v>815</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>085612</v>
+      </c>
+      <c r="AF22">
+        <v>119</v>
+      </c>
+      <c r="AG22" t="str">
+        <v>113051</v>
+      </c>
+      <c r="AH22">
+        <v>154</v>
+      </c>
+      <c r="AI22" t="str">
+        <v>162114</v>
+      </c>
+      <c r="AJ22">
+        <v>290</v>
+      </c>
+      <c r="AK22" t="str">
+        <v>200058</v>
+      </c>
+      <c r="AL22">
+        <v>219</v>
+      </c>
+      <c r="AM22" t="str">
+        <v>231332</v>
+      </c>
+      <c r="AN22">
+        <v>192</v>
+      </c>
+      <c r="AO22" t="str">
+        <v>020518</v>
+      </c>
+      <c r="AP22">
+        <v>171</v>
+      </c>
+      <c r="AQ22" t="str">
+        <v>140656</v>
+      </c>
+      <c r="AR22">
+        <v>721</v>
+      </c>
+      <c r="AS22" t="str">
+        <v>160841</v>
+      </c>
+      <c r="AT22">
+        <v>121</v>
+      </c>
+      <c r="AU22" t="str">
+        <v>180050</v>
+      </c>
+      <c r="AV22">
+        <v>112</v>
+      </c>
+      <c r="AW22" t="str">
+        <v>202919</v>
+      </c>
+      <c r="AX22">
+        <v>148</v>
+      </c>
+      <c r="AY22" t="str">
+        <v>230443</v>
+      </c>
+      <c r="AZ22">
+        <v>155</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -776,6 +1772,45 @@
       <c r="E23" t="str">
         <v>0,0</v>
       </c>
+      <c r="F23">
+        <v>567.1666666666666</v>
+      </c>
+      <c r="G23" t="str">
+        <v>042635</v>
+      </c>
+      <c r="H23">
+        <v>890</v>
+      </c>
+      <c r="I23" t="str">
+        <v>052847</v>
+      </c>
+      <c r="J23">
+        <v>62</v>
+      </c>
+      <c r="K23" t="str">
+        <v>190304</v>
+      </c>
+      <c r="L23">
+        <v>814</v>
+      </c>
+      <c r="M23" t="str">
+        <v>052405</v>
+      </c>
+      <c r="N23">
+        <v>621</v>
+      </c>
+      <c r="O23" t="str">
+        <v>065705</v>
+      </c>
+      <c r="P23">
+        <v>93</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>222040</v>
+      </c>
+      <c r="R23">
+        <v>923</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -793,6 +1828,39 @@
       <c r="E24" t="str">
         <v>1,1</v>
       </c>
+      <c r="F24">
+        <v>631.8</v>
+      </c>
+      <c r="G24" t="str">
+        <v>080421</v>
+      </c>
+      <c r="H24">
+        <v>347</v>
+      </c>
+      <c r="I24" t="str">
+        <v>041959</v>
+      </c>
+      <c r="J24">
+        <v>1215</v>
+      </c>
+      <c r="K24" t="str">
+        <v>071510</v>
+      </c>
+      <c r="L24">
+        <v>175</v>
+      </c>
+      <c r="M24" t="str">
+        <v>180511</v>
+      </c>
+      <c r="N24">
+        <v>650</v>
+      </c>
+      <c r="O24" t="str">
+        <v>065735</v>
+      </c>
+      <c r="P24">
+        <v>772</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -810,6 +1878,33 @@
       <c r="E25" t="str">
         <v>1,1</v>
       </c>
+      <c r="F25">
+        <v>872.5</v>
+      </c>
+      <c r="G25" t="str">
+        <v>145642</v>
+      </c>
+      <c r="H25">
+        <v>414</v>
+      </c>
+      <c r="I25" t="str">
+        <v>071519</v>
+      </c>
+      <c r="J25">
+        <v>978</v>
+      </c>
+      <c r="K25" t="str">
+        <v>065708</v>
+      </c>
+      <c r="L25">
+        <v>1421</v>
+      </c>
+      <c r="M25" t="str">
+        <v>181438</v>
+      </c>
+      <c r="N25">
+        <v>677</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -827,6 +1922,21 @@
       <c r="E26" t="str">
         <v>1</v>
       </c>
+      <c r="F26">
+        <v>2041</v>
+      </c>
+      <c r="G26" t="str">
+        <v>201643</v>
+      </c>
+      <c r="H26">
+        <v>3010</v>
+      </c>
+      <c r="I26" t="str">
+        <v>140935</v>
+      </c>
+      <c r="J26">
+        <v>1072</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -844,6 +1954,21 @@
       <c r="E27" t="str">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>2071</v>
+      </c>
+      <c r="G27" t="str">
+        <v>022520</v>
+      </c>
+      <c r="H27">
+        <v>3311</v>
+      </c>
+      <c r="I27" t="str">
+        <v>161629</v>
+      </c>
+      <c r="J27">
+        <v>831</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -861,6 +1986,15 @@
       <c r="E28" t="str">
         <v>1</v>
       </c>
+      <c r="F28">
+        <v>468</v>
+      </c>
+      <c r="G28" t="str">
+        <v>082105</v>
+      </c>
+      <c r="H28">
+        <v>468</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -878,6 +2012,15 @@
       <c r="E29" t="str">
         <v>1</v>
       </c>
+      <c r="F29">
+        <v>426</v>
+      </c>
+      <c r="G29" t="str">
+        <v>045058</v>
+      </c>
+      <c r="H29">
+        <v>426</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -895,6 +2038,33 @@
       <c r="E30" t="str">
         <v>1</v>
       </c>
+      <c r="F30">
+        <v>1056</v>
+      </c>
+      <c r="G30" t="str">
+        <v>043125</v>
+      </c>
+      <c r="H30">
+        <v>2023</v>
+      </c>
+      <c r="I30" t="str">
+        <v>180631</v>
+      </c>
+      <c r="J30">
+        <v>815</v>
+      </c>
+      <c r="K30" t="str">
+        <v>035922</v>
+      </c>
+      <c r="L30">
+        <v>592</v>
+      </c>
+      <c r="M30" t="str">
+        <v>171416</v>
+      </c>
+      <c r="N30">
+        <v>794</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -912,6 +2082,57 @@
       <c r="E31" t="str">
         <v>1,1</v>
       </c>
+      <c r="F31">
+        <v>481</v>
+      </c>
+      <c r="G31" t="str">
+        <v>015606</v>
+      </c>
+      <c r="H31">
+        <v>251</v>
+      </c>
+      <c r="I31" t="str">
+        <v>043633</v>
+      </c>
+      <c r="J31">
+        <v>1600</v>
+      </c>
+      <c r="K31" t="str">
+        <v>130721</v>
+      </c>
+      <c r="L31">
+        <v>510</v>
+      </c>
+      <c r="M31" t="str">
+        <v>131500</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31" t="str">
+        <v>214506</v>
+      </c>
+      <c r="P31">
+        <v>510</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>004128</v>
+      </c>
+      <c r="R31">
+        <v>176</v>
+      </c>
+      <c r="S31" t="str">
+        <v>032641</v>
+      </c>
+      <c r="T31">
+        <v>165</v>
+      </c>
+      <c r="U31" t="str">
+        <v>135547</v>
+      </c>
+      <c r="V31">
+        <v>629</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -929,6 +2150,21 @@
       <c r="E32" t="str">
         <v>0</v>
       </c>
+      <c r="F32">
+        <v>1855.5</v>
+      </c>
+      <c r="G32" t="str">
+        <v>153204</v>
+      </c>
+      <c r="H32">
+        <v>2130</v>
+      </c>
+      <c r="I32" t="str">
+        <v>175403</v>
+      </c>
+      <c r="J32">
+        <v>1581</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -946,6 +2182,21 @@
       <c r="E33" t="str">
         <v>1</v>
       </c>
+      <c r="F33">
+        <v>1403</v>
+      </c>
+      <c r="G33" t="str">
+        <v>045033</v>
+      </c>
+      <c r="H33">
+        <v>1275</v>
+      </c>
+      <c r="I33" t="str">
+        <v>062153</v>
+      </c>
+      <c r="J33">
+        <v>1531</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -963,6 +2214,63 @@
       <c r="E34" t="str">
         <v>1,1</v>
       </c>
+      <c r="F34">
+        <v>486.77777777777777</v>
+      </c>
+      <c r="G34" t="str">
+        <v>101603</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="str">
+        <v>225428</v>
+      </c>
+      <c r="J34">
+        <v>758</v>
+      </c>
+      <c r="K34" t="str">
+        <v>225430</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <v>115634</v>
+      </c>
+      <c r="N34">
+        <v>782</v>
+      </c>
+      <c r="O34" t="str">
+        <v>115636</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>132119</v>
+      </c>
+      <c r="R34">
+        <v>84</v>
+      </c>
+      <c r="S34" t="str">
+        <v>132120</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34" t="str">
+        <v>111913</v>
+      </c>
+      <c r="V34">
+        <v>2757</v>
+      </c>
+      <c r="W34" t="str">
+        <v>111915</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -980,6 +2288,195 @@
       <c r="E35" t="str">
         <v>1</v>
       </c>
+      <c r="F35">
+        <v>171.67741935483872</v>
+      </c>
+      <c r="G35" t="str">
+        <v>085303</v>
+      </c>
+      <c r="H35">
+        <v>152</v>
+      </c>
+      <c r="I35" t="str">
+        <v>110537</v>
+      </c>
+      <c r="J35">
+        <v>132</v>
+      </c>
+      <c r="K35" t="str">
+        <v>135739</v>
+      </c>
+      <c r="L35">
+        <v>172</v>
+      </c>
+      <c r="M35" t="str">
+        <v>162626</v>
+      </c>
+      <c r="N35">
+        <v>148</v>
+      </c>
+      <c r="O35" t="str">
+        <v>185742</v>
+      </c>
+      <c r="P35">
+        <v>151</v>
+      </c>
+      <c r="Q35" t="str">
+        <v>203021</v>
+      </c>
+      <c r="R35">
+        <v>92</v>
+      </c>
+      <c r="S35" t="str">
+        <v>230310</v>
+      </c>
+      <c r="T35">
+        <v>152</v>
+      </c>
+      <c r="U35" t="str">
+        <v>010103</v>
+      </c>
+      <c r="V35">
+        <v>117</v>
+      </c>
+      <c r="W35" t="str">
+        <v>031905</v>
+      </c>
+      <c r="X35">
+        <v>138</v>
+      </c>
+      <c r="Y35" t="str">
+        <v>043102</v>
+      </c>
+      <c r="Z35">
+        <v>71</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>071218</v>
+      </c>
+      <c r="AB35">
+        <v>161</v>
+      </c>
+      <c r="AC35" t="str">
+        <v>112710</v>
+      </c>
+      <c r="AD35">
+        <v>254</v>
+      </c>
+      <c r="AE35" t="str">
+        <v>134455</v>
+      </c>
+      <c r="AF35">
+        <v>137</v>
+      </c>
+      <c r="AG35" t="str">
+        <v>155743</v>
+      </c>
+      <c r="AH35">
+        <v>132</v>
+      </c>
+      <c r="AI35" t="str">
+        <v>181358</v>
+      </c>
+      <c r="AJ35">
+        <v>136</v>
+      </c>
+      <c r="AK35" t="str">
+        <v>195109</v>
+      </c>
+      <c r="AL35">
+        <v>97</v>
+      </c>
+      <c r="AM35" t="str">
+        <v>224053</v>
+      </c>
+      <c r="AN35">
+        <v>169</v>
+      </c>
+      <c r="AO35" t="str">
+        <v>003106</v>
+      </c>
+      <c r="AP35">
+        <v>110</v>
+      </c>
+      <c r="AQ35" t="str">
+        <v>014927</v>
+      </c>
+      <c r="AR35">
+        <v>78</v>
+      </c>
+      <c r="AS35" t="str">
+        <v>103858</v>
+      </c>
+      <c r="AT35">
+        <v>529</v>
+      </c>
+      <c r="AU35" t="str">
+        <v>183136</v>
+      </c>
+      <c r="AV35">
+        <v>472</v>
+      </c>
+      <c r="AW35" t="str">
+        <v>201148</v>
+      </c>
+      <c r="AX35">
+        <v>100</v>
+      </c>
+      <c r="AY35" t="str">
+        <v>222751</v>
+      </c>
+      <c r="AZ35">
+        <v>136</v>
+      </c>
+      <c r="BA35" t="str">
+        <v>235843</v>
+      </c>
+      <c r="BB35">
+        <v>90</v>
+      </c>
+      <c r="BC35" t="str">
+        <v>030144</v>
+      </c>
+      <c r="BD35">
+        <v>183</v>
+      </c>
+      <c r="BE35" t="str">
+        <v>100724</v>
+      </c>
+      <c r="BF35">
+        <v>425</v>
+      </c>
+      <c r="BG35" t="str">
+        <v>114805</v>
+      </c>
+      <c r="BH35">
+        <v>100</v>
+      </c>
+      <c r="BI35" t="str">
+        <v>152700</v>
+      </c>
+      <c r="BJ35">
+        <v>218</v>
+      </c>
+      <c r="BK35" t="str">
+        <v>183513</v>
+      </c>
+      <c r="BL35">
+        <v>188</v>
+      </c>
+      <c r="BM35" t="str">
+        <v>210126</v>
+      </c>
+      <c r="BN35">
+        <v>146</v>
+      </c>
+      <c r="BO35" t="str">
+        <v>231726</v>
+      </c>
+      <c r="BP35">
+        <v>136</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -997,6 +2494,15 @@
       <c r="E36" t="str">
         <v>0,1</v>
       </c>
+      <c r="F36">
+        <v>959</v>
+      </c>
+      <c r="G36" t="str">
+        <v>190725</v>
+      </c>
+      <c r="H36">
+        <v>959</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1014,6 +2520,153 @@
       <c r="E37" t="str">
         <v>0,1</v>
       </c>
+      <c r="F37">
+        <v>157.75</v>
+      </c>
+      <c r="G37" t="str">
+        <v>010427</v>
+      </c>
+      <c r="H37">
+        <v>83</v>
+      </c>
+      <c r="I37" t="str">
+        <v>134628</v>
+      </c>
+      <c r="J37">
+        <v>762</v>
+      </c>
+      <c r="K37" t="str">
+        <v>160456</v>
+      </c>
+      <c r="L37">
+        <v>138</v>
+      </c>
+      <c r="M37" t="str">
+        <v>164922</v>
+      </c>
+      <c r="N37">
+        <v>44</v>
+      </c>
+      <c r="O37" t="str">
+        <v>170519</v>
+      </c>
+      <c r="P37">
+        <v>15</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>175805</v>
+      </c>
+      <c r="R37">
+        <v>52</v>
+      </c>
+      <c r="S37" t="str">
+        <v>182136</v>
+      </c>
+      <c r="T37">
+        <v>23</v>
+      </c>
+      <c r="U37" t="str">
+        <v>185139</v>
+      </c>
+      <c r="V37">
+        <v>30</v>
+      </c>
+      <c r="W37" t="str">
+        <v>201735</v>
+      </c>
+      <c r="X37">
+        <v>85</v>
+      </c>
+      <c r="Y37" t="str">
+        <v>220525</v>
+      </c>
+      <c r="Z37">
+        <v>107</v>
+      </c>
+      <c r="AA37" t="str">
+        <v>224030</v>
+      </c>
+      <c r="AB37">
+        <v>35</v>
+      </c>
+      <c r="AC37" t="str">
+        <v>225658</v>
+      </c>
+      <c r="AD37">
+        <v>16</v>
+      </c>
+      <c r="AE37" t="str">
+        <v>031443</v>
+      </c>
+      <c r="AF37">
+        <v>257</v>
+      </c>
+      <c r="AG37" t="str">
+        <v>032522</v>
+      </c>
+      <c r="AH37">
+        <v>10</v>
+      </c>
+      <c r="AI37" t="str">
+        <v>074742</v>
+      </c>
+      <c r="AJ37">
+        <v>262</v>
+      </c>
+      <c r="AK37" t="str">
+        <v>075903</v>
+      </c>
+      <c r="AL37">
+        <v>11</v>
+      </c>
+      <c r="AM37" t="str">
+        <v>134845</v>
+      </c>
+      <c r="AN37">
+        <v>349</v>
+      </c>
+      <c r="AO37" t="str">
+        <v>152658</v>
+      </c>
+      <c r="AP37">
+        <v>98</v>
+      </c>
+      <c r="AQ37" t="str">
+        <v>235029</v>
+      </c>
+      <c r="AR37">
+        <v>503</v>
+      </c>
+      <c r="AS37" t="str">
+        <v>065049</v>
+      </c>
+      <c r="AT37">
+        <v>420</v>
+      </c>
+      <c r="AU37" t="str">
+        <v>070928</v>
+      </c>
+      <c r="AV37">
+        <v>18</v>
+      </c>
+      <c r="AW37" t="str">
+        <v>094231</v>
+      </c>
+      <c r="AX37">
+        <v>153</v>
+      </c>
+      <c r="AY37" t="str">
+        <v>123940</v>
+      </c>
+      <c r="AZ37">
+        <v>177</v>
+      </c>
+      <c r="BA37" t="str">
+        <v>145752</v>
+      </c>
+      <c r="BB37">
+        <v>138</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1031,6 +2684,15 @@
       <c r="E38" t="str">
         <v>1,1</v>
       </c>
+      <c r="F38">
+        <v>4000</v>
+      </c>
+      <c r="G38" t="str">
+        <v>103325</v>
+      </c>
+      <c r="H38">
+        <v>4000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1048,6 +2710,129 @@
       <c r="E39" t="str">
         <v>1,1</v>
       </c>
+      <c r="F39">
+        <v>237</v>
+      </c>
+      <c r="G39" t="str">
+        <v>193916</v>
+      </c>
+      <c r="H39">
+        <v>355</v>
+      </c>
+      <c r="I39" t="str">
+        <v>084835</v>
+      </c>
+      <c r="J39">
+        <v>789</v>
+      </c>
+      <c r="K39" t="str">
+        <v>104215</v>
+      </c>
+      <c r="L39">
+        <v>113</v>
+      </c>
+      <c r="M39" t="str">
+        <v>130902</v>
+      </c>
+      <c r="N39">
+        <v>146</v>
+      </c>
+      <c r="O39" t="str">
+        <v>152316</v>
+      </c>
+      <c r="P39">
+        <v>134</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>175828</v>
+      </c>
+      <c r="R39">
+        <v>155</v>
+      </c>
+      <c r="S39" t="str">
+        <v>194823</v>
+      </c>
+      <c r="T39">
+        <v>109</v>
+      </c>
+      <c r="U39" t="str">
+        <v>065446</v>
+      </c>
+      <c r="V39">
+        <v>666</v>
+      </c>
+      <c r="W39" t="str">
+        <v>080406</v>
+      </c>
+      <c r="X39">
+        <v>69</v>
+      </c>
+      <c r="Y39" t="str">
+        <v>104137</v>
+      </c>
+      <c r="Z39">
+        <v>157</v>
+      </c>
+      <c r="AA39" t="str">
+        <v>131458</v>
+      </c>
+      <c r="AB39">
+        <v>153</v>
+      </c>
+      <c r="AC39" t="str">
+        <v>190504</v>
+      </c>
+      <c r="AD39">
+        <v>350</v>
+      </c>
+      <c r="AE39" t="str">
+        <v>201012</v>
+      </c>
+      <c r="AF39">
+        <v>65</v>
+      </c>
+      <c r="AG39" t="str">
+        <v>071018</v>
+      </c>
+      <c r="AH39">
+        <v>660</v>
+      </c>
+      <c r="AI39" t="str">
+        <v>095637</v>
+      </c>
+      <c r="AJ39">
+        <v>166</v>
+      </c>
+      <c r="AK39" t="str">
+        <v>150919</v>
+      </c>
+      <c r="AL39">
+        <v>312</v>
+      </c>
+      <c r="AM39" t="str">
+        <v>163418</v>
+      </c>
+      <c r="AN39">
+        <v>84</v>
+      </c>
+      <c r="AO39" t="str">
+        <v>181120</v>
+      </c>
+      <c r="AP39">
+        <v>97</v>
+      </c>
+      <c r="AQ39" t="str">
+        <v>192606</v>
+      </c>
+      <c r="AR39">
+        <v>74</v>
+      </c>
+      <c r="AS39" t="str">
+        <v>205229</v>
+      </c>
+      <c r="AT39">
+        <v>86</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1065,6 +2850,93 @@
       <c r="E40" t="str">
         <v>1,1,1</v>
       </c>
+      <c r="F40">
+        <v>316</v>
+      </c>
+      <c r="G40" t="str">
+        <v>170340</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="str">
+        <v>064805</v>
+      </c>
+      <c r="J40">
+        <v>824</v>
+      </c>
+      <c r="K40" t="str">
+        <v>110133</v>
+      </c>
+      <c r="L40">
+        <v>253</v>
+      </c>
+      <c r="M40" t="str">
+        <v>162702</v>
+      </c>
+      <c r="N40">
+        <v>325</v>
+      </c>
+      <c r="O40" t="str">
+        <v>162704</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>210129</v>
+      </c>
+      <c r="R40">
+        <v>274</v>
+      </c>
+      <c r="S40" t="str">
+        <v>094933</v>
+      </c>
+      <c r="T40">
+        <v>768</v>
+      </c>
+      <c r="U40" t="str">
+        <v>154454</v>
+      </c>
+      <c r="V40">
+        <v>355</v>
+      </c>
+      <c r="W40" t="str">
+        <v>205115</v>
+      </c>
+      <c r="X40">
+        <v>306</v>
+      </c>
+      <c r="Y40" t="str">
+        <v>105147</v>
+      </c>
+      <c r="Z40">
+        <v>840</v>
+      </c>
+      <c r="AA40" t="str">
+        <v>150855</v>
+      </c>
+      <c r="AB40">
+        <v>257</v>
+      </c>
+      <c r="AC40" t="str">
+        <v>150900</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="str">
+        <v>185104</v>
+      </c>
+      <c r="AF40">
+        <v>222</v>
+      </c>
+      <c r="AG40" t="str">
+        <v>185111</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -1082,6 +2954,81 @@
       <c r="E41" t="str">
         <v>1,1</v>
       </c>
+      <c r="F41">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="G41" t="str">
+        <v>095600</v>
+      </c>
+      <c r="H41">
+        <v>1213</v>
+      </c>
+      <c r="I41" t="str">
+        <v>110435</v>
+      </c>
+      <c r="J41">
+        <v>68</v>
+      </c>
+      <c r="K41" t="str">
+        <v>142347</v>
+      </c>
+      <c r="L41">
+        <v>199</v>
+      </c>
+      <c r="M41" t="str">
+        <v>142532</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="str">
+        <v>101430</v>
+      </c>
+      <c r="P41">
+        <v>1188</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>151917</v>
+      </c>
+      <c r="R41">
+        <v>304</v>
+      </c>
+      <c r="S41" t="str">
+        <v>151921</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41" t="str">
+        <v>184632</v>
+      </c>
+      <c r="V41">
+        <v>207</v>
+      </c>
+      <c r="W41" t="str">
+        <v>100351</v>
+      </c>
+      <c r="X41">
+        <v>917</v>
+      </c>
+      <c r="Y41" t="str">
+        <v>123424</v>
+      </c>
+      <c r="Z41">
+        <v>150</v>
+      </c>
+      <c r="AA41" t="str">
+        <v>152410</v>
+      </c>
+      <c r="AB41">
+        <v>169</v>
+      </c>
+      <c r="AC41" t="str">
+        <v>183217</v>
+      </c>
+      <c r="AD41">
+        <v>188</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1099,6 +3046,33 @@
       <c r="E42" t="str">
         <v>0</v>
       </c>
+      <c r="F42">
+        <v>1128.5</v>
+      </c>
+      <c r="G42" t="str">
+        <v>013018</v>
+      </c>
+      <c r="H42">
+        <v>721</v>
+      </c>
+      <c r="I42" t="str">
+        <v>162441</v>
+      </c>
+      <c r="J42">
+        <v>894</v>
+      </c>
+      <c r="K42" t="str">
+        <v>170332</v>
+      </c>
+      <c r="L42">
+        <v>1478</v>
+      </c>
+      <c r="M42" t="str">
+        <v>164502</v>
+      </c>
+      <c r="N42">
+        <v>1421</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1116,6 +3090,15 @@
       <c r="E43" t="str">
         <v>0</v>
       </c>
+      <c r="F43">
+        <v>2635</v>
+      </c>
+      <c r="G43" t="str">
+        <v>224953</v>
+      </c>
+      <c r="H43">
+        <v>2635</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1133,6 +3116,21 @@
       <c r="E44" t="str">
         <v>0</v>
       </c>
+      <c r="F44">
+        <v>1947.5</v>
+      </c>
+      <c r="G44" t="str">
+        <v>143725</v>
+      </c>
+      <c r="H44">
+        <v>2923</v>
+      </c>
+      <c r="I44" t="str">
+        <v>064926</v>
+      </c>
+      <c r="J44">
+        <v>972</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1150,6 +3148,15 @@
       <c r="E45" t="str">
         <v>0,1,1</v>
       </c>
+      <c r="F45">
+        <v>1853</v>
+      </c>
+      <c r="G45" t="str">
+        <v>231035</v>
+      </c>
+      <c r="H45">
+        <v>1853</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1167,6 +3174,27 @@
       <c r="E46" t="str">
         <v>0,1</v>
       </c>
+      <c r="F46">
+        <v>934.6666666666666</v>
+      </c>
+      <c r="G46" t="str">
+        <v>132107</v>
+      </c>
+      <c r="H46">
+        <v>770</v>
+      </c>
+      <c r="I46" t="str">
+        <v>220230</v>
+      </c>
+      <c r="J46">
+        <v>521</v>
+      </c>
+      <c r="K46" t="str">
+        <v>231537</v>
+      </c>
+      <c r="L46">
+        <v>1513</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1184,6 +3212,33 @@
       <c r="E47" t="str">
         <v>1,1,1</v>
       </c>
+      <c r="F47">
+        <v>520.75</v>
+      </c>
+      <c r="G47" t="str">
+        <v>144150</v>
+      </c>
+      <c r="H47">
+        <v>96</v>
+      </c>
+      <c r="I47" t="str">
+        <v>230456</v>
+      </c>
+      <c r="J47">
+        <v>503</v>
+      </c>
+      <c r="K47" t="str">
+        <v>223034</v>
+      </c>
+      <c r="L47">
+        <v>1405</v>
+      </c>
+      <c r="M47" t="str">
+        <v>235004</v>
+      </c>
+      <c r="N47">
+        <v>79</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1201,6 +3256,21 @@
       <c r="E48" t="str">
         <v>1,1,1</v>
       </c>
+      <c r="F48">
+        <v>711.5</v>
+      </c>
+      <c r="G48" t="str">
+        <v>084609</v>
+      </c>
+      <c r="H48">
+        <v>122</v>
+      </c>
+      <c r="I48" t="str">
+        <v>062807</v>
+      </c>
+      <c r="J48">
+        <v>1301</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1218,6 +3288,39 @@
       <c r="E49" t="str">
         <v>0,0,1</v>
       </c>
+      <c r="F49">
+        <v>449</v>
+      </c>
+      <c r="G49" t="str">
+        <v>134112</v>
+      </c>
+      <c r="H49">
+        <v>190</v>
+      </c>
+      <c r="I49" t="str">
+        <v>193728</v>
+      </c>
+      <c r="J49">
+        <v>1796</v>
+      </c>
+      <c r="K49" t="str">
+        <v>214603</v>
+      </c>
+      <c r="L49">
+        <v>128</v>
+      </c>
+      <c r="M49" t="str">
+        <v>231204</v>
+      </c>
+      <c r="N49">
+        <v>86</v>
+      </c>
+      <c r="O49" t="str">
+        <v>235714</v>
+      </c>
+      <c r="P49">
+        <v>45</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1235,6 +3338,27 @@
       <c r="E50" t="str">
         <v>0,1</v>
       </c>
+      <c r="F50">
+        <v>1353.3333333333333</v>
+      </c>
+      <c r="G50" t="str">
+        <v>190847</v>
+      </c>
+      <c r="H50">
+        <v>2352</v>
+      </c>
+      <c r="I50" t="str">
+        <v>000044</v>
+      </c>
+      <c r="J50">
+        <v>291</v>
+      </c>
+      <c r="K50" t="str">
+        <v>233841</v>
+      </c>
+      <c r="L50">
+        <v>1417</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1252,10 +3376,55 @@
       <c r="E51" t="str">
         <v>1,1</v>
       </c>
+      <c r="F51">
+        <v>402.14285714285717</v>
+      </c>
+      <c r="G51" t="str">
+        <v>044109</v>
+      </c>
+      <c r="H51">
+        <v>44</v>
+      </c>
+      <c r="I51" t="str">
+        <v>182431</v>
+      </c>
+      <c r="J51">
+        <v>823</v>
+      </c>
+      <c r="K51" t="str">
+        <v>010528</v>
+      </c>
+      <c r="L51">
+        <v>400</v>
+      </c>
+      <c r="M51" t="str">
+        <v>144817</v>
+      </c>
+      <c r="N51">
+        <v>822</v>
+      </c>
+      <c r="O51" t="str">
+        <v>155446</v>
+      </c>
+      <c r="P51">
+        <v>66</v>
+      </c>
+      <c r="Q51" t="str">
+        <v>184431</v>
+      </c>
+      <c r="R51">
+        <v>169</v>
+      </c>
+      <c r="S51" t="str">
+        <v>025555</v>
+      </c>
+      <c r="T51">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BP51"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sampleData.export.xlsx
+++ b/sampleData.export.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR51"/>
+  <dimension ref="A1:BR117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,7 +594,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>IG8</v>
+        <v>QKA</v>
       </c>
       <c r="B2" t="str">
         <v>slide1</v>
@@ -609,102 +609,42 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>335.35714285714283</v>
+        <v>772.5</v>
       </c>
       <c r="H2">
-        <v>265.5</v>
+        <v>862.5</v>
       </c>
       <c r="I2" t="str">
-        <v>182033</v>
+        <v>084156</v>
       </c>
       <c r="J2">
-        <v>1041</v>
+        <v>370</v>
       </c>
       <c r="K2" t="str">
-        <v>222739</v>
+        <v>222836</v>
       </c>
       <c r="L2">
-        <v>116</v>
+        <v>826</v>
       </c>
       <c r="M2" t="str">
-        <v>154906</v>
+        <v>043920</v>
       </c>
       <c r="N2">
-        <v>131</v>
+        <v>899</v>
       </c>
       <c r="O2" t="str">
-        <v>224413</v>
+        <v>193826</v>
       </c>
       <c r="P2">
-        <v>159</v>
-      </c>
-      <c r="Q2" t="str">
-        <v>024213</v>
-      </c>
-      <c r="R2">
-        <v>181</v>
-      </c>
-      <c r="S2" t="str">
-        <v>103304</v>
-      </c>
-      <c r="T2">
-        <v>238</v>
-      </c>
-      <c r="U2" t="str">
-        <v>131241</v>
-      </c>
-      <c r="V2">
-        <v>247</v>
-      </c>
-      <c r="W2" t="str">
-        <v>175700</v>
-      </c>
-      <c r="X2">
-        <v>284</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>200849</v>
-      </c>
-      <c r="Z2">
-        <v>284</v>
-      </c>
-      <c r="AA2" t="str">
-        <v>043935</v>
-      </c>
-      <c r="AB2">
-        <v>415</v>
-      </c>
-      <c r="AC2" t="str">
-        <v>055741</v>
-      </c>
-      <c r="AD2">
-        <v>470</v>
-      </c>
-      <c r="AE2" t="str">
-        <v>075415</v>
-      </c>
-      <c r="AF2">
-        <v>510</v>
-      </c>
-      <c r="AG2" t="str">
-        <v>123845</v>
-      </c>
-      <c r="AH2">
-        <v>541</v>
-      </c>
-      <c r="AI2" t="str">
-        <v>213947</v>
-      </c>
-      <c r="AJ2">
-        <v>78</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NTD</v>
+        <v>IG8</v>
       </c>
       <c r="B3" t="str">
         <v>slide1</v>
@@ -719,24 +659,102 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>1501</v>
+        <v>335.35714285714283</v>
       </c>
       <c r="H3">
-        <v>1501</v>
+        <v>265.5</v>
       </c>
       <c r="I3" t="str">
-        <v>074857</v>
+        <v>182033</v>
       </c>
       <c r="J3">
-        <v>1501</v>
+        <v>1041</v>
+      </c>
+      <c r="K3" t="str">
+        <v>222739</v>
+      </c>
+      <c r="L3">
+        <v>116</v>
+      </c>
+      <c r="M3" t="str">
+        <v>154906</v>
+      </c>
+      <c r="N3">
+        <v>131</v>
+      </c>
+      <c r="O3" t="str">
+        <v>224413</v>
+      </c>
+      <c r="P3">
+        <v>159</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>024213</v>
+      </c>
+      <c r="R3">
+        <v>181</v>
+      </c>
+      <c r="S3" t="str">
+        <v>103304</v>
+      </c>
+      <c r="T3">
+        <v>238</v>
+      </c>
+      <c r="U3" t="str">
+        <v>131241</v>
+      </c>
+      <c r="V3">
+        <v>247</v>
+      </c>
+      <c r="W3" t="str">
+        <v>175700</v>
+      </c>
+      <c r="X3">
+        <v>284</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>200849</v>
+      </c>
+      <c r="Z3">
+        <v>284</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>043935</v>
+      </c>
+      <c r="AB3">
+        <v>415</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>055741</v>
+      </c>
+      <c r="AD3">
+        <v>470</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>075415</v>
+      </c>
+      <c r="AF3">
+        <v>510</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>123845</v>
+      </c>
+      <c r="AH3">
+        <v>541</v>
+      </c>
+      <c r="AI3" t="str">
+        <v>213947</v>
+      </c>
+      <c r="AJ3">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>PH4</v>
+        <v>T99</v>
       </c>
       <c r="B4" t="str">
         <v>slide1</v>
@@ -751,188 +769,242 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>2024</v>
+        <v>314.5625</v>
       </c>
       <c r="H4">
-        <v>2024</v>
+        <v>232.5</v>
       </c>
       <c r="I4" t="str">
-        <v>215537</v>
+        <v>145901</v>
       </c>
       <c r="J4">
-        <v>2024</v>
+        <v>100</v>
+      </c>
+      <c r="K4" t="str">
+        <v>162631</v>
+      </c>
+      <c r="L4">
+        <v>125</v>
+      </c>
+      <c r="M4" t="str">
+        <v>183135</v>
+      </c>
+      <c r="N4">
+        <v>154</v>
+      </c>
+      <c r="O4" t="str">
+        <v>222804</v>
+      </c>
+      <c r="P4">
+        <v>162</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>070445</v>
+      </c>
+      <c r="R4">
+        <v>173</v>
+      </c>
+      <c r="S4" t="str">
+        <v>155919</v>
+      </c>
+      <c r="T4">
+        <v>195</v>
+      </c>
+      <c r="U4" t="str">
+        <v>222140</v>
+      </c>
+      <c r="V4">
+        <v>201</v>
+      </c>
+      <c r="W4" t="str">
+        <v>061155</v>
+      </c>
+      <c r="X4">
+        <v>229</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>085444</v>
+      </c>
+      <c r="Z4">
+        <v>236</v>
+      </c>
+      <c r="AA4" t="str">
+        <v>124411</v>
+      </c>
+      <c r="AB4">
+        <v>382</v>
+      </c>
+      <c r="AC4" t="str">
+        <v>151856</v>
+      </c>
+      <c r="AD4">
+        <v>470</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>181223</v>
+      </c>
+      <c r="AF4">
+        <v>516</v>
+      </c>
+      <c r="AG4" t="str">
+        <v>075421</v>
+      </c>
+      <c r="AH4">
+        <v>534</v>
+      </c>
+      <c r="AI4" t="str">
+        <v>093448</v>
+      </c>
+      <c r="AJ4">
+        <v>648</v>
+      </c>
+      <c r="AK4" t="str">
+        <v>125020</v>
+      </c>
+      <c r="AL4">
+        <v>821</v>
+      </c>
+      <c r="AM4" t="str">
+        <v>161124</v>
+      </c>
+      <c r="AN4">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>EGR</v>
+        <v>NTD</v>
       </c>
       <c r="B5" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>1,1</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>441</v>
+        <v>1501</v>
       </c>
       <c r="H5">
-        <v>441</v>
+        <v>1501</v>
       </c>
       <c r="I5" t="str">
-        <v>151010</v>
+        <v>074857</v>
       </c>
       <c r="J5">
-        <v>441</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SH8</v>
+        <v>G6B</v>
       </c>
       <c r="B6" t="str">
-        <v>slide1</v>
+        <v>bodenroller6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3682</v>
+        <v>1433</v>
       </c>
       <c r="H6">
-        <v>3682</v>
+        <v>1433</v>
       </c>
       <c r="I6" t="str">
-        <v>122525</v>
+        <v>133931</v>
       </c>
       <c r="J6">
-        <v>3682</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>W09</v>
+        <v>PH4</v>
       </c>
       <c r="B7" t="str">
-        <v>slide3</v>
+        <v>slide1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>1,1,1</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>555.6</v>
+        <v>2024</v>
       </c>
       <c r="H7">
-        <v>432</v>
+        <v>2024</v>
       </c>
       <c r="I7" t="str">
-        <v>230831</v>
+        <v>215537</v>
       </c>
       <c r="J7">
-        <v>176</v>
-      </c>
-      <c r="K7" t="str">
-        <v>145633</v>
-      </c>
-      <c r="L7">
-        <v>316</v>
-      </c>
-      <c r="M7" t="str">
-        <v>201311</v>
-      </c>
-      <c r="N7">
-        <v>432</v>
-      </c>
-      <c r="O7" t="str">
-        <v>111917</v>
-      </c>
-      <c r="P7">
-        <v>906</v>
-      </c>
-      <c r="Q7" t="str">
-        <v>183119</v>
-      </c>
-      <c r="R7">
-        <v>948</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>9FY</v>
+        <v>MYB</v>
       </c>
       <c r="B8" t="str">
-        <v>slide2</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="str">
-        <v>0,0</v>
-      </c>
       <c r="F8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>349</v>
+        <v>1636</v>
       </c>
       <c r="H8">
-        <v>70</v>
+        <v>1636</v>
       </c>
       <c r="I8" t="str">
-        <v>193225</v>
+        <v>221949</v>
       </c>
       <c r="J8">
-        <v>114</v>
-      </c>
-      <c r="K8" t="str">
-        <v>095539</v>
-      </c>
-      <c r="L8">
-        <v>70</v>
-      </c>
-      <c r="M8" t="str">
-        <v>115019</v>
-      </c>
-      <c r="N8">
-        <v>863</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>NWN</v>
+        <v>EGR</v>
       </c>
       <c r="B9" t="str">
         <v>slide2</v>
@@ -947,434 +1019,398 @@
         <v>1,1</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>276.3529411764706</v>
+        <v>441</v>
       </c>
       <c r="H9">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="I9" t="str">
-        <v>124242</v>
+        <v>151010</v>
       </c>
       <c r="J9">
-        <v>103</v>
-      </c>
-      <c r="K9" t="str">
-        <v>145214</v>
-      </c>
-      <c r="L9">
-        <v>103</v>
-      </c>
-      <c r="M9" t="str">
-        <v>163549</v>
-      </c>
-      <c r="N9">
-        <v>129</v>
-      </c>
-      <c r="O9" t="str">
-        <v>071743</v>
-      </c>
-      <c r="P9">
-        <v>132</v>
-      </c>
-      <c r="Q9" t="str">
-        <v>111937</v>
-      </c>
-      <c r="R9">
-        <v>157</v>
-      </c>
-      <c r="S9" t="str">
-        <v>135710</v>
-      </c>
-      <c r="T9">
-        <v>170</v>
-      </c>
-      <c r="U9" t="str">
-        <v>180513</v>
-      </c>
-      <c r="V9">
-        <v>176</v>
-      </c>
-      <c r="W9" t="str">
-        <v>205552</v>
-      </c>
-      <c r="X9">
-        <v>241</v>
-      </c>
-      <c r="Y9" t="str">
-        <v>042800</v>
-      </c>
-      <c r="Z9">
-        <v>248</v>
-      </c>
-      <c r="AA9" t="str">
-        <v>105601</v>
-      </c>
-      <c r="AB9">
-        <v>388</v>
-      </c>
-      <c r="AC9" t="str">
-        <v>135242</v>
-      </c>
-      <c r="AD9">
-        <v>452</v>
-      </c>
-      <c r="AE9" t="str">
-        <v>030811</v>
-      </c>
-      <c r="AF9">
-        <v>488</v>
-      </c>
-      <c r="AG9" t="str">
-        <v>052021</v>
-      </c>
-      <c r="AH9">
-        <v>73</v>
-      </c>
-      <c r="AI9" t="str">
-        <v>063833</v>
-      </c>
-      <c r="AJ9">
-        <v>78</v>
-      </c>
-      <c r="AK9" t="str">
-        <v>082152</v>
-      </c>
-      <c r="AL9">
-        <v>795</v>
-      </c>
-      <c r="AM9" t="str">
-        <v>163011</v>
-      </c>
-      <c r="AN9">
-        <v>84</v>
-      </c>
-      <c r="AO9" t="str">
-        <v>175424</v>
-      </c>
-      <c r="AP9">
-        <v>881</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>61C</v>
+        <v>X90</v>
       </c>
       <c r="B10" t="str">
-        <v>slide2</v>
+        <v>bodenroller6</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="str">
-        <v>0,1</v>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>660.2857142857143</v>
+        <v>743.1666666666666</v>
       </c>
       <c r="H10">
-        <v>410</v>
+        <v>538</v>
       </c>
       <c r="I10" t="str">
-        <v>144513</v>
+        <v>065656</v>
       </c>
       <c r="J10">
-        <v>122</v>
+        <v>1309</v>
       </c>
       <c r="K10" t="str">
-        <v>213542</v>
+        <v>223538</v>
       </c>
       <c r="L10">
-        <v>1942</v>
+        <v>498</v>
       </c>
       <c r="M10" t="str">
-        <v>111951</v>
+        <v>070139</v>
       </c>
       <c r="N10">
-        <v>200</v>
+        <v>506</v>
       </c>
       <c r="O10" t="str">
-        <v>205658</v>
+        <v>151952</v>
       </c>
       <c r="P10">
-        <v>410</v>
+        <v>570</v>
       </c>
       <c r="Q10" t="str">
-        <v>051941</v>
+        <v>004955</v>
       </c>
       <c r="R10">
-        <v>547</v>
+        <v>638</v>
       </c>
       <c r="S10" t="str">
-        <v>072238</v>
+        <v>223917</v>
       </c>
       <c r="T10">
-        <v>577</v>
-      </c>
-      <c r="U10" t="str">
-        <v>163003</v>
-      </c>
-      <c r="V10">
-        <v>824</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>QLA</v>
+        <v>SH8</v>
       </c>
       <c r="B11" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>1,1</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>251.6</v>
+        <v>3682</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>3682</v>
       </c>
       <c r="I11" t="str">
-        <v>142542</v>
+        <v>122525</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="str">
-        <v>181323</v>
-      </c>
-      <c r="L11">
-        <v>227</v>
-      </c>
-      <c r="M11" t="str">
-        <v>183952</v>
-      </c>
-      <c r="N11">
-        <v>26</v>
-      </c>
-      <c r="O11" t="str">
-        <v>065036</v>
-      </c>
-      <c r="P11">
-        <v>275</v>
-      </c>
-      <c r="Q11" t="str">
-        <v>065112</v>
-      </c>
-      <c r="R11">
-        <v>730</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>7EC</v>
+        <v>MSB</v>
       </c>
       <c r="B12" t="str">
-        <v>slide2</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="str">
-        <v>1,1</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>365.25</v>
+        <v>953</v>
       </c>
       <c r="H12">
-        <v>221.5</v>
+        <v>1215.5</v>
       </c>
       <c r="I12" t="str">
-        <v>153706</v>
+        <v>201902</v>
       </c>
       <c r="J12">
-        <v>119</v>
+        <v>1302</v>
       </c>
       <c r="K12" t="str">
-        <v>175630</v>
+        <v>180106</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>2114</v>
       </c>
       <c r="M12" t="str">
-        <v>085612</v>
+        <v>192035</v>
       </c>
       <c r="N12">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="O12" t="str">
-        <v>105539</v>
+        <v>003817</v>
       </c>
       <c r="P12">
-        <v>899</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>3Q4</v>
+        <v>EYZ</v>
       </c>
       <c r="B13" t="str">
-        <v>slide1</v>
+        <v>bodenroller3</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>123</v>
+        <v>219.5</v>
       </c>
       <c r="H13">
-        <v>123</v>
+        <v>219.5</v>
       </c>
       <c r="I13" t="str">
-        <v>113712</v>
+        <v>204824</v>
       </c>
       <c r="J13">
-        <v>123</v>
+        <v>161</v>
+      </c>
+      <c r="K13" t="str">
+        <v>233005</v>
+      </c>
+      <c r="L13">
+        <v>278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>ABG</v>
+        <v>1KQ</v>
       </c>
       <c r="B14" t="str">
-        <v>slide1</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>770</v>
+        <v>488</v>
       </c>
       <c r="H14">
-        <v>770</v>
+        <v>367.5</v>
       </c>
       <c r="I14" t="str">
-        <v>152415</v>
+        <v>173709</v>
       </c>
       <c r="J14">
-        <v>770</v>
+        <v>314</v>
+      </c>
+      <c r="K14" t="str">
+        <v>230539</v>
+      </c>
+      <c r="L14">
+        <v>328</v>
+      </c>
+      <c r="M14" t="str">
+        <v>042018</v>
+      </c>
+      <c r="N14">
+        <v>407</v>
+      </c>
+      <c r="O14" t="str">
+        <v>192337</v>
+      </c>
+      <c r="P14">
+        <v>903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>EN1</v>
+        <v>W09</v>
       </c>
       <c r="B15" t="str">
-        <v>slide2</v>
+        <v>slide3</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>1,1</v>
+        <v>1,1,1</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>855.6666666666666</v>
+        <v>555.6</v>
       </c>
       <c r="H15">
-        <v>1469</v>
+        <v>432</v>
       </c>
       <c r="I15" t="str">
-        <v>041515</v>
+        <v>230831</v>
       </c>
       <c r="J15">
-        <v>1023</v>
+        <v>176</v>
       </c>
       <c r="K15" t="str">
-        <v>044433</v>
+        <v>145633</v>
       </c>
       <c r="L15">
-        <v>1469</v>
+        <v>316</v>
       </c>
       <c r="M15" t="str">
-        <v>214820</v>
+        <v>201311</v>
       </c>
       <c r="N15">
-        <v>75</v>
+        <v>432</v>
+      </c>
+      <c r="O15" t="str">
+        <v>111917</v>
+      </c>
+      <c r="P15">
+        <v>906</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>183119</v>
+      </c>
+      <c r="R15">
+        <v>948</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>5VS</v>
+        <v>TYF</v>
       </c>
       <c r="B16" t="str">
-        <v>slide1</v>
+        <v>bodenroller6</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" t="str">
-        <v>1</v>
+      <c r="E16">
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G16">
-        <v>1631</v>
+        <v>291.9</v>
       </c>
       <c r="H16">
-        <v>1631</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="str">
-        <v>093149</v>
+        <v>100435</v>
       </c>
       <c r="J16">
-        <v>1631</v>
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>213544</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <v>213546</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="str">
+        <v>100148</v>
+      </c>
+      <c r="P16">
+        <v>1447</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>100903</v>
+      </c>
+      <c r="R16">
+        <v>19</v>
+      </c>
+      <c r="S16" t="str">
+        <v>101329</v>
+      </c>
+      <c r="T16">
+        <v>4</v>
+      </c>
+      <c r="U16" t="str">
+        <v>101749</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16" t="str">
+        <v>101817</v>
+      </c>
+      <c r="X16">
+        <v>691</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>102010</v>
+      </c>
+      <c r="Z16">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>102808</v>
+      </c>
+      <c r="AB16">
+        <v>746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>IZG</v>
+        <v>9FY</v>
       </c>
       <c r="B17" t="str">
         <v>slide2</v>
@@ -1386,261 +1422,351 @@
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>1,1</v>
+        <v>0,0</v>
       </c>
       <c r="F17">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>272.3333333333333</v>
+        <v>349</v>
       </c>
       <c r="H17">
-        <v>206.5</v>
+        <v>70</v>
       </c>
       <c r="I17" t="str">
-        <v>142103</v>
+        <v>193225</v>
       </c>
       <c r="J17">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="K17" t="str">
-        <v>173213</v>
+        <v>095539</v>
       </c>
       <c r="L17">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="M17" t="str">
-        <v>202503</v>
+        <v>115019</v>
       </c>
       <c r="N17">
-        <v>169</v>
-      </c>
-      <c r="O17" t="str">
-        <v>003754</v>
-      </c>
-      <c r="P17">
-        <v>170</v>
-      </c>
-      <c r="Q17" t="str">
-        <v>032811</v>
-      </c>
-      <c r="R17">
-        <v>172</v>
-      </c>
-      <c r="S17" t="str">
-        <v>063038</v>
-      </c>
-      <c r="T17">
-        <v>182</v>
-      </c>
-      <c r="U17" t="str">
-        <v>100103</v>
-      </c>
-      <c r="V17">
-        <v>188</v>
-      </c>
-      <c r="W17" t="str">
-        <v>003130</v>
-      </c>
-      <c r="X17">
-        <v>191</v>
-      </c>
-      <c r="Y17" t="str">
-        <v>032048</v>
-      </c>
-      <c r="Z17">
-        <v>203</v>
-      </c>
-      <c r="AA17" t="str">
-        <v>070113</v>
-      </c>
-      <c r="AB17">
-        <v>210</v>
-      </c>
-      <c r="AC17" t="str">
-        <v>092903</v>
-      </c>
-      <c r="AD17">
-        <v>220</v>
-      </c>
-      <c r="AE17" t="str">
-        <v>125214</v>
-      </c>
-      <c r="AF17">
-        <v>225</v>
-      </c>
-      <c r="AG17" t="str">
-        <v>192534</v>
-      </c>
-      <c r="AH17">
-        <v>252</v>
-      </c>
-      <c r="AI17" t="str">
-        <v>000701</v>
-      </c>
-      <c r="AJ17">
-        <v>254</v>
-      </c>
-      <c r="AK17" t="str">
-        <v>042137</v>
-      </c>
-      <c r="AL17">
-        <v>281</v>
-      </c>
-      <c r="AM17" t="str">
-        <v>143808</v>
-      </c>
-      <c r="AN17">
-        <v>393</v>
-      </c>
-      <c r="AO17" t="str">
-        <v>171745</v>
-      </c>
-      <c r="AP17">
-        <v>616</v>
-      </c>
-      <c r="AQ17" t="str">
-        <v>202551</v>
-      </c>
-      <c r="AR17">
-        <v>870</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>DZ9</v>
+        <v>NWN</v>
       </c>
       <c r="B18" t="str">
-        <v>slide1</v>
+        <v>slide2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="str">
-        <v>1</v>
+        <v>1,1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>578</v>
+        <v>276.3529411764706</v>
       </c>
       <c r="H18">
-        <v>578</v>
+        <v>248</v>
       </c>
       <c r="I18" t="str">
-        <v>194352</v>
+        <v>124242</v>
       </c>
       <c r="J18">
-        <v>578</v>
+        <v>103</v>
+      </c>
+      <c r="K18" t="str">
+        <v>145214</v>
+      </c>
+      <c r="L18">
+        <v>103</v>
+      </c>
+      <c r="M18" t="str">
+        <v>163549</v>
+      </c>
+      <c r="N18">
+        <v>129</v>
+      </c>
+      <c r="O18" t="str">
+        <v>071743</v>
+      </c>
+      <c r="P18">
+        <v>132</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>111937</v>
+      </c>
+      <c r="R18">
+        <v>157</v>
+      </c>
+      <c r="S18" t="str">
+        <v>135710</v>
+      </c>
+      <c r="T18">
+        <v>170</v>
+      </c>
+      <c r="U18" t="str">
+        <v>180513</v>
+      </c>
+      <c r="V18">
+        <v>176</v>
+      </c>
+      <c r="W18" t="str">
+        <v>205552</v>
+      </c>
+      <c r="X18">
+        <v>241</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>042800</v>
+      </c>
+      <c r="Z18">
+        <v>248</v>
+      </c>
+      <c r="AA18" t="str">
+        <v>105601</v>
+      </c>
+      <c r="AB18">
+        <v>388</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>135242</v>
+      </c>
+      <c r="AD18">
+        <v>452</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>030811</v>
+      </c>
+      <c r="AF18">
+        <v>488</v>
+      </c>
+      <c r="AG18" t="str">
+        <v>052021</v>
+      </c>
+      <c r="AH18">
+        <v>73</v>
+      </c>
+      <c r="AI18" t="str">
+        <v>063833</v>
+      </c>
+      <c r="AJ18">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="str">
+        <v>082152</v>
+      </c>
+      <c r="AL18">
+        <v>795</v>
+      </c>
+      <c r="AM18" t="str">
+        <v>163011</v>
+      </c>
+      <c r="AN18">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="str">
+        <v>175424</v>
+      </c>
+      <c r="AP18">
+        <v>881</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>4VB</v>
+        <v>W18</v>
       </c>
       <c r="B19" t="str">
-        <v>slide3</v>
+        <v>bodenroller2</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" t="str">
-        <v>1,1,1</v>
+      <c r="E19">
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G19">
-        <v>315</v>
+        <v>319.8666666666667</v>
       </c>
       <c r="H19">
-        <v>430</v>
+        <v>231</v>
       </c>
       <c r="I19" t="str">
-        <v>062026</v>
+        <v>095823</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K19" t="str">
-        <v>145551</v>
+        <v>131839</v>
       </c>
       <c r="L19">
-        <v>430</v>
+        <v>138</v>
       </c>
       <c r="M19" t="str">
-        <v>220608</v>
+        <v>144107</v>
       </c>
       <c r="N19">
-        <v>515</v>
+        <v>140</v>
+      </c>
+      <c r="O19" t="str">
+        <v>183230</v>
+      </c>
+      <c r="P19">
+        <v>151</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>184311</v>
+      </c>
+      <c r="R19">
+        <v>1518</v>
+      </c>
+      <c r="S19" t="str">
+        <v>061550</v>
+      </c>
+      <c r="T19">
+        <v>18</v>
+      </c>
+      <c r="U19" t="str">
+        <v>062302</v>
+      </c>
+      <c r="V19">
+        <v>200</v>
+      </c>
+      <c r="W19" t="str">
+        <v>084200</v>
+      </c>
+      <c r="X19">
+        <v>231</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>090045</v>
+      </c>
+      <c r="Z19">
+        <v>284</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>095141</v>
+      </c>
+      <c r="AB19">
+        <v>329</v>
+      </c>
+      <c r="AC19" t="str">
+        <v>152051</v>
+      </c>
+      <c r="AD19">
+        <v>50</v>
+      </c>
+      <c r="AE19" t="str">
+        <v>175230</v>
+      </c>
+      <c r="AF19">
+        <v>692</v>
+      </c>
+      <c r="AG19" t="str">
+        <v>094124</v>
+      </c>
+      <c r="AH19">
+        <v>7</v>
+      </c>
+      <c r="AI19" t="str">
+        <v>120223</v>
+      </c>
+      <c r="AJ19">
+        <v>82</v>
+      </c>
+      <c r="AK19" t="str">
+        <v>164711</v>
+      </c>
+      <c r="AL19">
+        <v>948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>F2X</v>
+        <v>61C</v>
       </c>
       <c r="B20" t="str">
-        <v>slide1</v>
+        <v>slide2</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>0</v>
+        <v>0,1</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>1078</v>
+        <v>660.2857142857143</v>
       </c>
       <c r="H20">
-        <v>1521</v>
+        <v>410</v>
       </c>
       <c r="I20" t="str">
-        <v>050249</v>
+        <v>144513</v>
       </c>
       <c r="J20">
-        <v>1068</v>
+        <v>122</v>
       </c>
       <c r="K20" t="str">
-        <v>200344</v>
+        <v>213542</v>
       </c>
       <c r="L20">
-        <v>111</v>
+        <v>1942</v>
       </c>
       <c r="M20" t="str">
-        <v>135158</v>
+        <v>111951</v>
       </c>
       <c r="N20">
-        <v>1521</v>
+        <v>200</v>
       </c>
       <c r="O20" t="str">
-        <v>194233</v>
+        <v>205658</v>
       </c>
       <c r="P20">
-        <v>2340</v>
+        <v>410</v>
       </c>
       <c r="Q20" t="str">
-        <v>213425</v>
+        <v>051941</v>
       </c>
       <c r="R20">
-        <v>350</v>
+        <v>547</v>
+      </c>
+      <c r="S20" t="str">
+        <v>072238</v>
+      </c>
+      <c r="T20">
+        <v>577</v>
+      </c>
+      <c r="U20" t="str">
+        <v>163003</v>
+      </c>
+      <c r="V20">
+        <v>824</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>PU8</v>
+        <v>QLA</v>
       </c>
       <c r="B21" t="str">
         <v>slide2</v>
@@ -1652,81 +1778,51 @@
         <v>1</v>
       </c>
       <c r="E21" t="str">
-        <v>0,1</v>
+        <v>1,1</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>530</v>
+        <v>251.6</v>
       </c>
       <c r="H21">
-        <v>463</v>
+        <v>26</v>
       </c>
       <c r="I21" t="str">
-        <v>125617</v>
+        <v>142542</v>
       </c>
       <c r="J21">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
-        <v>192123</v>
+        <v>181323</v>
       </c>
       <c r="L21">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="M21" t="str">
-        <v>023045</v>
+        <v>183952</v>
       </c>
       <c r="N21">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="O21" t="str">
-        <v>100153</v>
+        <v>065036</v>
       </c>
       <c r="P21">
-        <v>429</v>
+        <v>275</v>
       </c>
       <c r="Q21" t="str">
-        <v>003047</v>
+        <v>065112</v>
       </c>
       <c r="R21">
-        <v>451</v>
-      </c>
-      <c r="S21" t="str">
-        <v>045721</v>
-      </c>
-      <c r="T21">
-        <v>475</v>
-      </c>
-      <c r="U21" t="str">
-        <v>125254</v>
-      </c>
-      <c r="V21">
-        <v>482</v>
-      </c>
-      <c r="W21" t="str">
-        <v>000639</v>
-      </c>
-      <c r="X21">
-        <v>673</v>
-      </c>
-      <c r="Y21" t="str">
-        <v>144212</v>
-      </c>
-      <c r="Z21">
-        <v>868</v>
-      </c>
-      <c r="AA21" t="str">
-        <v>211905</v>
-      </c>
-      <c r="AB21">
-        <v>875</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>48H</v>
+        <v>7EC</v>
       </c>
       <c r="B22" t="str">
         <v>slide2</v>
@@ -1741,324 +1837,138 @@
         <v>1,1</v>
       </c>
       <c r="F22">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>212.47826086956522</v>
+        <v>365.25</v>
       </c>
       <c r="H22">
-        <v>158</v>
+        <v>221.5</v>
       </c>
       <c r="I22" t="str">
-        <v>160750</v>
+        <v>153706</v>
       </c>
       <c r="J22">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="K22" t="str">
-        <v>184617</v>
+        <v>175630</v>
       </c>
       <c r="L22">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="M22" t="str">
-        <v>212839</v>
+        <v>085612</v>
       </c>
       <c r="N22">
-        <v>112</v>
+        <v>304</v>
       </c>
       <c r="O22" t="str">
-        <v>232013</v>
+        <v>105539</v>
       </c>
       <c r="P22">
-        <v>119</v>
-      </c>
-      <c r="Q22" t="str">
-        <v>015655</v>
-      </c>
-      <c r="R22">
-        <v>121</v>
-      </c>
-      <c r="S22" t="str">
-        <v>040844</v>
-      </c>
-      <c r="T22">
-        <v>131</v>
-      </c>
-      <c r="U22" t="str">
-        <v>073905</v>
-      </c>
-      <c r="V22">
-        <v>142</v>
-      </c>
-      <c r="W22" t="str">
-        <v>103117</v>
-      </c>
-      <c r="X22">
-        <v>148</v>
-      </c>
-      <c r="Y22" t="str">
-        <v>125355</v>
-      </c>
-      <c r="Z22">
-        <v>154</v>
-      </c>
-      <c r="AA22" t="str">
-        <v>143653</v>
-      </c>
-      <c r="AB22">
-        <v>155</v>
-      </c>
-      <c r="AC22" t="str">
-        <v>172031</v>
-      </c>
-      <c r="AD22">
-        <v>156</v>
-      </c>
-      <c r="AE22" t="str">
-        <v>065619</v>
-      </c>
-      <c r="AF22">
-        <v>158</v>
-      </c>
-      <c r="AG22" t="str">
-        <v>085612</v>
-      </c>
-      <c r="AH22">
-        <v>162</v>
-      </c>
-      <c r="AI22" t="str">
-        <v>113051</v>
-      </c>
-      <c r="AJ22">
-        <v>163</v>
-      </c>
-      <c r="AK22" t="str">
-        <v>162114</v>
-      </c>
-      <c r="AL22">
-        <v>163</v>
-      </c>
-      <c r="AM22" t="str">
-        <v>200058</v>
-      </c>
-      <c r="AN22">
-        <v>171</v>
-      </c>
-      <c r="AO22" t="str">
-        <v>231332</v>
-      </c>
-      <c r="AP22">
-        <v>172</v>
-      </c>
-      <c r="AQ22" t="str">
-        <v>020518</v>
-      </c>
-      <c r="AR22">
-        <v>192</v>
-      </c>
-      <c r="AS22" t="str">
-        <v>140656</v>
-      </c>
-      <c r="AT22">
-        <v>210</v>
-      </c>
-      <c r="AU22" t="str">
-        <v>160841</v>
-      </c>
-      <c r="AV22">
-        <v>219</v>
-      </c>
-      <c r="AW22" t="str">
-        <v>180050</v>
-      </c>
-      <c r="AX22">
-        <v>290</v>
-      </c>
-      <c r="AY22" t="str">
-        <v>202919</v>
-      </c>
-      <c r="AZ22">
-        <v>721</v>
-      </c>
-      <c r="BA22" t="str">
-        <v>230443</v>
-      </c>
-      <c r="BB22">
-        <v>815</v>
+        <v>899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>8YC</v>
+        <v>3Q4</v>
       </c>
       <c r="B23" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="str">
-        <v>0,0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>567.1666666666666</v>
+        <v>123</v>
       </c>
       <c r="H23">
-        <v>852</v>
+        <v>123</v>
       </c>
       <c r="I23" t="str">
-        <v>042635</v>
+        <v>113712</v>
       </c>
       <c r="J23">
-        <v>62</v>
-      </c>
-      <c r="K23" t="str">
-        <v>052847</v>
-      </c>
-      <c r="L23">
-        <v>621</v>
-      </c>
-      <c r="M23" t="str">
-        <v>190304</v>
-      </c>
-      <c r="N23">
-        <v>814</v>
-      </c>
-      <c r="O23" t="str">
-        <v>052405</v>
-      </c>
-      <c r="P23">
-        <v>890</v>
-      </c>
-      <c r="Q23" t="str">
-        <v>065705</v>
-      </c>
-      <c r="R23">
-        <v>923</v>
-      </c>
-      <c r="S23" t="str">
-        <v>222040</v>
-      </c>
-      <c r="T23">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>PUE</v>
+        <v>QGT</v>
       </c>
       <c r="B24" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="str">
-        <v>1,1</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>631.8</v>
+        <v>1191</v>
       </c>
       <c r="H24">
-        <v>347</v>
+        <v>1191</v>
       </c>
       <c r="I24" t="str">
-        <v>080421</v>
+        <v>115933</v>
       </c>
       <c r="J24">
-        <v>1215</v>
-      </c>
-      <c r="K24" t="str">
-        <v>041959</v>
-      </c>
-      <c r="L24">
-        <v>175</v>
-      </c>
-      <c r="M24" t="str">
-        <v>071510</v>
-      </c>
-      <c r="N24">
-        <v>347</v>
-      </c>
-      <c r="O24" t="str">
-        <v>180511</v>
-      </c>
-      <c r="P24">
-        <v>650</v>
-      </c>
-      <c r="Q24" t="str">
-        <v>065735</v>
-      </c>
-      <c r="R24">
-        <v>772</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>LKL</v>
+        <v>Q1P</v>
       </c>
       <c r="B25" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="str">
-        <v>1,1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>872.5</v>
+        <v>1630</v>
       </c>
       <c r="H25">
-        <v>545.5</v>
+        <v>1630</v>
       </c>
       <c r="I25" t="str">
-        <v>145642</v>
+        <v>102941</v>
       </c>
       <c r="J25">
-        <v>1421</v>
-      </c>
-      <c r="K25" t="str">
-        <v>071519</v>
-      </c>
-      <c r="L25">
-        <v>414</v>
-      </c>
-      <c r="M25" t="str">
-        <v>065708</v>
-      </c>
-      <c r="N25">
-        <v>677</v>
-      </c>
-      <c r="O25" t="str">
-        <v>181438</v>
-      </c>
-      <c r="P25">
-        <v>978</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>6SV</v>
+        <v>ABG</v>
       </c>
       <c r="B26" t="str">
         <v>slide1</v>
@@ -2073,100 +1983,100 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>2041</v>
+        <v>770</v>
       </c>
       <c r="H26">
-        <v>2041</v>
+        <v>770</v>
       </c>
       <c r="I26" t="str">
-        <v>201643</v>
+        <v>152415</v>
       </c>
       <c r="J26">
-        <v>1072</v>
-      </c>
-      <c r="K26" t="str">
-        <v>140935</v>
-      </c>
-      <c r="L26">
-        <v>3010</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>8EB</v>
+        <v>EN1</v>
       </c>
       <c r="B27" t="str">
-        <v>slide1</v>
+        <v>slide2</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="str">
-        <v>1</v>
+        <v>1,1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>2071</v>
+        <v>855.6666666666666</v>
       </c>
       <c r="H27">
-        <v>2071</v>
+        <v>1469</v>
       </c>
       <c r="I27" t="str">
-        <v>022520</v>
+        <v>041515</v>
       </c>
       <c r="J27">
-        <v>3311</v>
+        <v>1023</v>
       </c>
       <c r="K27" t="str">
-        <v>161629</v>
+        <v>044433</v>
       </c>
       <c r="L27">
-        <v>831</v>
+        <v>1469</v>
+      </c>
+      <c r="M27" t="str">
+        <v>214820</v>
+      </c>
+      <c r="N27">
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>BJQ</v>
+        <v>AQI</v>
       </c>
       <c r="B28" t="str">
-        <v>slide1</v>
+        <v>bodenroller6</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>468</v>
+        <v>2319</v>
       </c>
       <c r="H28">
-        <v>468</v>
+        <v>2319</v>
       </c>
       <c r="I28" t="str">
-        <v>082105</v>
+        <v>214143</v>
       </c>
       <c r="J28">
-        <v>468</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>4TH</v>
+        <v>5VS</v>
       </c>
       <c r="B29" t="str">
         <v>slide1</v>
@@ -2184,183 +2094,231 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>426</v>
+        <v>1631</v>
       </c>
       <c r="H29">
-        <v>426</v>
+        <v>1631</v>
       </c>
       <c r="I29" t="str">
-        <v>045058</v>
+        <v>093149</v>
       </c>
       <c r="J29">
-        <v>426</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>WLT</v>
+        <v>IZG</v>
       </c>
       <c r="B30" t="str">
-        <v>slide1</v>
+        <v>slide2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="str">
-        <v>1</v>
+        <v>1,1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G30">
-        <v>1056</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H30">
-        <v>693</v>
+        <v>206.5</v>
       </c>
       <c r="I30" t="str">
-        <v>043125</v>
+        <v>142103</v>
       </c>
       <c r="J30">
-        <v>2023</v>
+        <v>147</v>
       </c>
       <c r="K30" t="str">
-        <v>180631</v>
+        <v>173213</v>
       </c>
       <c r="L30">
-        <v>592</v>
+        <v>159</v>
       </c>
       <c r="M30" t="str">
-        <v>035922</v>
+        <v>202503</v>
       </c>
       <c r="N30">
-        <v>794</v>
+        <v>169</v>
       </c>
       <c r="O30" t="str">
-        <v>171416</v>
+        <v>003754</v>
       </c>
       <c r="P30">
-        <v>815</v>
+        <v>170</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>032811</v>
+      </c>
+      <c r="R30">
+        <v>172</v>
+      </c>
+      <c r="S30" t="str">
+        <v>063038</v>
+      </c>
+      <c r="T30">
+        <v>182</v>
+      </c>
+      <c r="U30" t="str">
+        <v>100103</v>
+      </c>
+      <c r="V30">
+        <v>188</v>
+      </c>
+      <c r="W30" t="str">
+        <v>003130</v>
+      </c>
+      <c r="X30">
+        <v>191</v>
+      </c>
+      <c r="Y30" t="str">
+        <v>032048</v>
+      </c>
+      <c r="Z30">
+        <v>203</v>
+      </c>
+      <c r="AA30" t="str">
+        <v>070113</v>
+      </c>
+      <c r="AB30">
+        <v>210</v>
+      </c>
+      <c r="AC30" t="str">
+        <v>092903</v>
+      </c>
+      <c r="AD30">
+        <v>220</v>
+      </c>
+      <c r="AE30" t="str">
+        <v>125214</v>
+      </c>
+      <c r="AF30">
+        <v>225</v>
+      </c>
+      <c r="AG30" t="str">
+        <v>192534</v>
+      </c>
+      <c r="AH30">
+        <v>252</v>
+      </c>
+      <c r="AI30" t="str">
+        <v>000701</v>
+      </c>
+      <c r="AJ30">
+        <v>254</v>
+      </c>
+      <c r="AK30" t="str">
+        <v>042137</v>
+      </c>
+      <c r="AL30">
+        <v>281</v>
+      </c>
+      <c r="AM30" t="str">
+        <v>143808</v>
+      </c>
+      <c r="AN30">
+        <v>393</v>
+      </c>
+      <c r="AO30" t="str">
+        <v>171745</v>
+      </c>
+      <c r="AP30">
+        <v>616</v>
+      </c>
+      <c r="AQ30" t="str">
+        <v>202551</v>
+      </c>
+      <c r="AR30">
+        <v>870</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>EYF</v>
+        <v>DZ9</v>
       </c>
       <c r="B31" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="str">
-        <v>1,1</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>481</v>
+        <v>578</v>
       </c>
       <c r="H31">
-        <v>380.5</v>
+        <v>578</v>
       </c>
       <c r="I31" t="str">
-        <v>015606</v>
+        <v>194352</v>
       </c>
       <c r="J31">
-        <v>1600</v>
-      </c>
-      <c r="K31" t="str">
-        <v>043633</v>
-      </c>
-      <c r="L31">
-        <v>165</v>
-      </c>
-      <c r="M31" t="str">
-        <v>130721</v>
-      </c>
-      <c r="N31">
-        <v>176</v>
-      </c>
-      <c r="O31" t="str">
-        <v>131500</v>
-      </c>
-      <c r="P31">
-        <v>251</v>
-      </c>
-      <c r="Q31" t="str">
-        <v>214506</v>
-      </c>
-      <c r="R31">
-        <v>510</v>
-      </c>
-      <c r="S31" t="str">
-        <v>004128</v>
-      </c>
-      <c r="T31">
-        <v>510</v>
-      </c>
-      <c r="U31" t="str">
-        <v>032641</v>
-      </c>
-      <c r="V31">
-        <v>629</v>
-      </c>
-      <c r="W31" t="str">
-        <v>135547</v>
-      </c>
-      <c r="X31">
-        <v>7</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>1TM</v>
+        <v>4VB</v>
       </c>
       <c r="B32" t="str">
-        <v>slide1</v>
+        <v>slide3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="str">
+        <v>1,1,1</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>315</v>
+      </c>
+      <c r="H32">
+        <v>430</v>
+      </c>
+      <c r="I32" t="str">
+        <v>062026</v>
+      </c>
+      <c r="J32">
         <v>0</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>1855.5</v>
-      </c>
-      <c r="H32">
-        <v>1855.5</v>
-      </c>
-      <c r="I32" t="str">
-        <v>153204</v>
-      </c>
-      <c r="J32">
-        <v>1581</v>
-      </c>
       <c r="K32" t="str">
-        <v>175403</v>
+        <v>145551</v>
       </c>
       <c r="L32">
-        <v>2130</v>
+        <v>430</v>
+      </c>
+      <c r="M32" t="str">
+        <v>220608</v>
+      </c>
+      <c r="N32">
+        <v>515</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>YCI</v>
+        <v>F2X</v>
       </c>
       <c r="B33" t="str">
         <v>slide1</v>
@@ -2372,33 +2330,51 @@
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>1403</v>
+        <v>1078</v>
       </c>
       <c r="H33">
-        <v>1403</v>
+        <v>1521</v>
       </c>
       <c r="I33" t="str">
-        <v>045033</v>
+        <v>050249</v>
       </c>
       <c r="J33">
-        <v>1275</v>
+        <v>1068</v>
       </c>
       <c r="K33" t="str">
-        <v>062153</v>
+        <v>200344</v>
       </c>
       <c r="L33">
-        <v>1531</v>
+        <v>111</v>
+      </c>
+      <c r="M33" t="str">
+        <v>135158</v>
+      </c>
+      <c r="N33">
+        <v>1521</v>
+      </c>
+      <c r="O33" t="str">
+        <v>194233</v>
+      </c>
+      <c r="P33">
+        <v>2340</v>
+      </c>
+      <c r="Q33" t="str">
+        <v>213425</v>
+      </c>
+      <c r="R33">
+        <v>350</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>5KI</v>
+        <v>PU8</v>
       </c>
       <c r="B34" t="str">
         <v>slide2</v>
@@ -2410,319 +2386,313 @@
         <v>1</v>
       </c>
       <c r="E34" t="str">
-        <v>1,1</v>
+        <v>0,1</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>486.77777777777777</v>
+        <v>530</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I34" t="str">
-        <v>101603</v>
+        <v>125617</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="K34" t="str">
-        <v>225428</v>
+        <v>192123</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="M34" t="str">
-        <v>225430</v>
+        <v>023045</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="O34" t="str">
-        <v>115634</v>
+        <v>100153</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="Q34" t="str">
-        <v>115636</v>
+        <v>003047</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="S34" t="str">
-        <v>132119</v>
+        <v>045721</v>
       </c>
       <c r="T34">
-        <v>2757</v>
+        <v>475</v>
       </c>
       <c r="U34" t="str">
-        <v>132120</v>
+        <v>125254</v>
       </c>
       <c r="V34">
-        <v>758</v>
+        <v>482</v>
       </c>
       <c r="W34" t="str">
-        <v>111913</v>
+        <v>000639</v>
       </c>
       <c r="X34">
-        <v>782</v>
+        <v>673</v>
       </c>
       <c r="Y34" t="str">
-        <v>111915</v>
+        <v>144212</v>
       </c>
       <c r="Z34">
-        <v>84</v>
+        <v>868</v>
+      </c>
+      <c r="AA34" t="str">
+        <v>211905</v>
+      </c>
+      <c r="AB34">
+        <v>875</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>HO3</v>
+        <v>48H</v>
       </c>
       <c r="B35" t="str">
-        <v>slide1</v>
+        <v>slide2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="str">
-        <v>1</v>
+        <v>1,1</v>
       </c>
       <c r="F35">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G35">
-        <v>171.67741935483872</v>
+        <v>212.47826086956522</v>
       </c>
       <c r="H35">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="I35" t="str">
-        <v>085303</v>
+        <v>160750</v>
       </c>
       <c r="J35">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K35" t="str">
-        <v>110537</v>
+        <v>184617</v>
       </c>
       <c r="L35">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="M35" t="str">
-        <v>135739</v>
+        <v>212839</v>
       </c>
       <c r="N35">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O35" t="str">
-        <v>162626</v>
+        <v>232013</v>
       </c>
       <c r="P35">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q35" t="str">
-        <v>185742</v>
+        <v>015655</v>
       </c>
       <c r="R35">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="S35" t="str">
-        <v>203021</v>
+        <v>040844</v>
       </c>
       <c r="T35">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="U35" t="str">
-        <v>230310</v>
+        <v>073905</v>
       </c>
       <c r="V35">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="W35" t="str">
-        <v>010103</v>
+        <v>103117</v>
       </c>
       <c r="X35">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Y35" t="str">
-        <v>031905</v>
+        <v>125355</v>
       </c>
       <c r="Z35">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="AA35" t="str">
-        <v>043102</v>
+        <v>143653</v>
       </c>
       <c r="AB35">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="AC35" t="str">
-        <v>071218</v>
+        <v>172031</v>
       </c>
       <c r="AD35">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="AE35" t="str">
-        <v>112710</v>
+        <v>065619</v>
       </c>
       <c r="AF35">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="AG35" t="str">
-        <v>134455</v>
+        <v>085612</v>
       </c>
       <c r="AH35">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="AI35" t="str">
-        <v>155743</v>
+        <v>113051</v>
       </c>
       <c r="AJ35">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="AK35" t="str">
-        <v>181358</v>
+        <v>162114</v>
       </c>
       <c r="AL35">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="AM35" t="str">
-        <v>195109</v>
+        <v>200058</v>
       </c>
       <c r="AN35">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AO35" t="str">
-        <v>224053</v>
+        <v>231332</v>
       </c>
       <c r="AP35">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="AQ35" t="str">
-        <v>003106</v>
+        <v>020518</v>
       </c>
       <c r="AR35">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AS35" t="str">
-        <v>014927</v>
+        <v>140656</v>
       </c>
       <c r="AT35">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="AU35" t="str">
-        <v>103858</v>
+        <v>160841</v>
       </c>
       <c r="AV35">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="AW35" t="str">
-        <v>183136</v>
+        <v>180050</v>
       </c>
       <c r="AX35">
-        <v>188</v>
+        <v>290</v>
       </c>
       <c r="AY35" t="str">
-        <v>201148</v>
+        <v>202919</v>
       </c>
       <c r="AZ35">
-        <v>218</v>
+        <v>721</v>
       </c>
       <c r="BA35" t="str">
-        <v>222751</v>
+        <v>230443</v>
       </c>
       <c r="BB35">
-        <v>254</v>
-      </c>
-      <c r="BC35" t="str">
-        <v>235843</v>
-      </c>
-      <c r="BD35">
-        <v>425</v>
-      </c>
-      <c r="BE35" t="str">
-        <v>030144</v>
-      </c>
-      <c r="BF35">
-        <v>472</v>
-      </c>
-      <c r="BG35" t="str">
-        <v>100724</v>
-      </c>
-      <c r="BH35">
-        <v>529</v>
-      </c>
-      <c r="BI35" t="str">
-        <v>114805</v>
-      </c>
-      <c r="BJ35">
-        <v>71</v>
-      </c>
-      <c r="BK35" t="str">
-        <v>152700</v>
-      </c>
-      <c r="BL35">
-        <v>78</v>
-      </c>
-      <c r="BM35" t="str">
-        <v>183513</v>
-      </c>
-      <c r="BN35">
-        <v>90</v>
-      </c>
-      <c r="BO35" t="str">
-        <v>210126</v>
-      </c>
-      <c r="BP35">
-        <v>92</v>
-      </c>
-      <c r="BQ35" t="str">
-        <v>231726</v>
-      </c>
-      <c r="BR35">
-        <v>97</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>A61</v>
+        <v>AVP</v>
       </c>
       <c r="B36" t="str">
-        <v>slide2</v>
+        <v>bodenroller5</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="str">
-        <v>0,1</v>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G36">
-        <v>959</v>
+        <v>704.4285714285714</v>
       </c>
       <c r="H36">
-        <v>959</v>
+        <v>394</v>
       </c>
       <c r="I36" t="str">
-        <v>190725</v>
+        <v>014515</v>
       </c>
       <c r="J36">
-        <v>959</v>
+        <v>1350</v>
+      </c>
+      <c r="K36" t="str">
+        <v>051509</v>
+      </c>
+      <c r="L36">
+        <v>209</v>
+      </c>
+      <c r="M36" t="str">
+        <v>034538</v>
+      </c>
+      <c r="N36">
+        <v>315</v>
+      </c>
+      <c r="O36" t="str">
+        <v>090131</v>
+      </c>
+      <c r="P36">
+        <v>394</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>220723</v>
+      </c>
+      <c r="R36">
+        <v>785</v>
+      </c>
+      <c r="S36" t="str">
+        <v>044219</v>
+      </c>
+      <c r="T36">
+        <v>928</v>
+      </c>
+      <c r="U36" t="str">
+        <v>201107</v>
+      </c>
+      <c r="V36">
+        <v>950</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>3FZ</v>
+        <v>8YC</v>
       </c>
       <c r="B37" t="str">
         <v>slide2</v>
@@ -2734,165 +2704,57 @@
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <v>0,1</v>
+        <v>0,0</v>
       </c>
       <c r="F37">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>157.75</v>
+        <v>567.1666666666666</v>
       </c>
       <c r="H37">
-        <v>259.5</v>
+        <v>852</v>
       </c>
       <c r="I37" t="str">
-        <v>010427</v>
+        <v>042635</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="K37" t="str">
-        <v>134628</v>
+        <v>052847</v>
       </c>
       <c r="L37">
-        <v>107</v>
+        <v>621</v>
       </c>
       <c r="M37" t="str">
-        <v>160456</v>
+        <v>190304</v>
       </c>
       <c r="N37">
-        <v>11</v>
+        <v>814</v>
       </c>
       <c r="O37" t="str">
-        <v>164922</v>
+        <v>052405</v>
       </c>
       <c r="P37">
-        <v>138</v>
+        <v>890</v>
       </c>
       <c r="Q37" t="str">
-        <v>170519</v>
+        <v>065705</v>
       </c>
       <c r="R37">
-        <v>138</v>
+        <v>923</v>
       </c>
       <c r="S37" t="str">
-        <v>175805</v>
+        <v>222040</v>
       </c>
       <c r="T37">
-        <v>15</v>
-      </c>
-      <c r="U37" t="str">
-        <v>182136</v>
-      </c>
-      <c r="V37">
-        <v>153</v>
-      </c>
-      <c r="W37" t="str">
-        <v>185139</v>
-      </c>
-      <c r="X37">
-        <v>16</v>
-      </c>
-      <c r="Y37" t="str">
-        <v>201735</v>
-      </c>
-      <c r="Z37">
-        <v>177</v>
-      </c>
-      <c r="AA37" t="str">
-        <v>220525</v>
-      </c>
-      <c r="AB37">
-        <v>18</v>
-      </c>
-      <c r="AC37" t="str">
-        <v>224030</v>
-      </c>
-      <c r="AD37">
-        <v>23</v>
-      </c>
-      <c r="AE37" t="str">
-        <v>225658</v>
-      </c>
-      <c r="AF37">
-        <v>257</v>
-      </c>
-      <c r="AG37" t="str">
-        <v>031443</v>
-      </c>
-      <c r="AH37">
-        <v>262</v>
-      </c>
-      <c r="AI37" t="str">
-        <v>032522</v>
-      </c>
-      <c r="AJ37">
-        <v>30</v>
-      </c>
-      <c r="AK37" t="str">
-        <v>074742</v>
-      </c>
-      <c r="AL37">
-        <v>349</v>
-      </c>
-      <c r="AM37" t="str">
-        <v>075903</v>
-      </c>
-      <c r="AN37">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="str">
-        <v>134845</v>
-      </c>
-      <c r="AP37">
-        <v>420</v>
-      </c>
-      <c r="AQ37" t="str">
-        <v>152658</v>
-      </c>
-      <c r="AR37">
-        <v>44</v>
-      </c>
-      <c r="AS37" t="str">
-        <v>235029</v>
-      </c>
-      <c r="AT37">
-        <v>503</v>
-      </c>
-      <c r="AU37" t="str">
-        <v>065049</v>
-      </c>
-      <c r="AV37">
-        <v>52</v>
-      </c>
-      <c r="AW37" t="str">
-        <v>070928</v>
-      </c>
-      <c r="AX37">
-        <v>762</v>
-      </c>
-      <c r="AY37" t="str">
-        <v>094231</v>
-      </c>
-      <c r="AZ37">
-        <v>83</v>
-      </c>
-      <c r="BA37" t="str">
-        <v>123940</v>
-      </c>
-      <c r="BB37">
-        <v>85</v>
-      </c>
-      <c r="BC37" t="str">
-        <v>145752</v>
-      </c>
-      <c r="BD37">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>KPH</v>
+        <v>PUE</v>
       </c>
       <c r="B38" t="str">
         <v>slide2</v>
@@ -2907,24 +2769,48 @@
         <v>1,1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>4000</v>
+        <v>631.8</v>
       </c>
       <c r="H38">
-        <v>4000</v>
+        <v>347</v>
       </c>
       <c r="I38" t="str">
-        <v>103325</v>
+        <v>080421</v>
       </c>
       <c r="J38">
-        <v>4000</v>
+        <v>1215</v>
+      </c>
+      <c r="K38" t="str">
+        <v>041959</v>
+      </c>
+      <c r="L38">
+        <v>175</v>
+      </c>
+      <c r="M38" t="str">
+        <v>071510</v>
+      </c>
+      <c r="N38">
+        <v>347</v>
+      </c>
+      <c r="O38" t="str">
+        <v>180511</v>
+      </c>
+      <c r="P38">
+        <v>650</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>065735</v>
+      </c>
+      <c r="R38">
+        <v>772</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>OES</v>
+        <v>LKL</v>
       </c>
       <c r="B39" t="str">
         <v>slide2</v>
@@ -2939,798 +2825,4638 @@
         <v>1,1</v>
       </c>
       <c r="F39">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>237</v>
+        <v>872.5</v>
       </c>
       <c r="H39">
-        <v>352.5</v>
+        <v>545.5</v>
       </c>
       <c r="I39" t="str">
-        <v>193916</v>
+        <v>145642</v>
       </c>
       <c r="J39">
-        <v>109</v>
+        <v>1421</v>
       </c>
       <c r="K39" t="str">
-        <v>084835</v>
+        <v>071519</v>
       </c>
       <c r="L39">
-        <v>113</v>
+        <v>414</v>
       </c>
       <c r="M39" t="str">
-        <v>104215</v>
+        <v>065708</v>
       </c>
       <c r="N39">
-        <v>134</v>
+        <v>677</v>
       </c>
       <c r="O39" t="str">
-        <v>130902</v>
+        <v>181438</v>
       </c>
       <c r="P39">
-        <v>146</v>
-      </c>
-      <c r="Q39" t="str">
-        <v>152316</v>
-      </c>
-      <c r="R39">
-        <v>153</v>
-      </c>
-      <c r="S39" t="str">
-        <v>175828</v>
-      </c>
-      <c r="T39">
-        <v>155</v>
-      </c>
-      <c r="U39" t="str">
-        <v>194823</v>
-      </c>
-      <c r="V39">
-        <v>157</v>
-      </c>
-      <c r="W39" t="str">
-        <v>065446</v>
-      </c>
-      <c r="X39">
-        <v>166</v>
-      </c>
-      <c r="Y39" t="str">
-        <v>080406</v>
-      </c>
-      <c r="Z39">
-        <v>312</v>
-      </c>
-      <c r="AA39" t="str">
-        <v>104137</v>
-      </c>
-      <c r="AB39">
-        <v>350</v>
-      </c>
-      <c r="AC39" t="str">
-        <v>131458</v>
-      </c>
-      <c r="AD39">
-        <v>355</v>
-      </c>
-      <c r="AE39" t="str">
-        <v>190504</v>
-      </c>
-      <c r="AF39">
-        <v>65</v>
-      </c>
-      <c r="AG39" t="str">
-        <v>201012</v>
-      </c>
-      <c r="AH39">
-        <v>660</v>
-      </c>
-      <c r="AI39" t="str">
-        <v>071018</v>
-      </c>
-      <c r="AJ39">
-        <v>666</v>
-      </c>
-      <c r="AK39" t="str">
-        <v>095637</v>
-      </c>
-      <c r="AL39">
-        <v>69</v>
-      </c>
-      <c r="AM39" t="str">
-        <v>150919</v>
-      </c>
-      <c r="AN39">
-        <v>74</v>
-      </c>
-      <c r="AO39" t="str">
-        <v>163418</v>
-      </c>
-      <c r="AP39">
-        <v>789</v>
-      </c>
-      <c r="AQ39" t="str">
-        <v>181120</v>
-      </c>
-      <c r="AR39">
-        <v>84</v>
-      </c>
-      <c r="AS39" t="str">
-        <v>192606</v>
-      </c>
-      <c r="AT39">
-        <v>86</v>
-      </c>
-      <c r="AU39" t="str">
-        <v>205229</v>
-      </c>
-      <c r="AV39">
-        <v>97</v>
+        <v>978</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>DUU</v>
+        <v>MA7</v>
       </c>
       <c r="B40" t="str">
-        <v>slide3</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="str">
-        <v>1,1,1</v>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>316</v>
+        <v>359.875</v>
       </c>
       <c r="H40">
-        <v>265.5</v>
+        <v>918.5</v>
       </c>
       <c r="I40" t="str">
-        <v>170340</v>
+        <v>143419</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40" t="str">
-        <v>064805</v>
+        <v>154131</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <v>110133</v>
+        <v>164355</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" t="str">
-        <v>162702</v>
+        <v>023539</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1507</v>
       </c>
       <c r="Q40" t="str">
-        <v>162704</v>
+        <v>023545</v>
       </c>
       <c r="R40">
-        <v>222</v>
+        <v>330</v>
       </c>
       <c r="S40" t="str">
-        <v>210129</v>
+        <v>080613</v>
       </c>
       <c r="T40">
-        <v>253</v>
+        <v>388</v>
       </c>
       <c r="U40" t="str">
-        <v>094933</v>
+        <v>080615</v>
       </c>
       <c r="V40">
-        <v>257</v>
+        <v>591</v>
       </c>
       <c r="W40" t="str">
-        <v>154454</v>
+        <v>080716</v>
       </c>
       <c r="X40">
-        <v>274</v>
-      </c>
-      <c r="Y40" t="str">
-        <v>205115</v>
-      </c>
-      <c r="Z40">
-        <v>306</v>
-      </c>
-      <c r="AA40" t="str">
-        <v>105147</v>
-      </c>
-      <c r="AB40">
-        <v>325</v>
-      </c>
-      <c r="AC40" t="str">
-        <v>150855</v>
-      </c>
-      <c r="AD40">
-        <v>355</v>
-      </c>
-      <c r="AE40" t="str">
-        <v>150900</v>
-      </c>
-      <c r="AF40">
-        <v>768</v>
-      </c>
-      <c r="AG40" t="str">
-        <v>185104</v>
-      </c>
-      <c r="AH40">
-        <v>824</v>
-      </c>
-      <c r="AI40" t="str">
-        <v>185111</v>
-      </c>
-      <c r="AJ40">
-        <v>840</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1KC</v>
+        <v>NII</v>
       </c>
       <c r="B41" t="str">
-        <v>slide2</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="str">
-        <v>1,1</v>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>383.6666666666667</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>178.5</v>
+        <v>45</v>
       </c>
       <c r="I41" t="str">
-        <v>095600</v>
+        <v>184426</v>
       </c>
       <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41" t="str">
-        <v>110435</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" t="str">
-        <v>142347</v>
-      </c>
-      <c r="N41">
-        <v>1188</v>
-      </c>
-      <c r="O41" t="str">
-        <v>142532</v>
-      </c>
-      <c r="P41">
-        <v>1213</v>
-      </c>
-      <c r="Q41" t="str">
-        <v>101430</v>
-      </c>
-      <c r="R41">
-        <v>150</v>
-      </c>
-      <c r="S41" t="str">
-        <v>151917</v>
-      </c>
-      <c r="T41">
-        <v>169</v>
-      </c>
-      <c r="U41" t="str">
-        <v>151921</v>
-      </c>
-      <c r="V41">
-        <v>188</v>
-      </c>
-      <c r="W41" t="str">
-        <v>184632</v>
-      </c>
-      <c r="X41">
-        <v>199</v>
-      </c>
-      <c r="Y41" t="str">
-        <v>100351</v>
-      </c>
-      <c r="Z41">
-        <v>207</v>
-      </c>
-      <c r="AA41" t="str">
-        <v>123424</v>
-      </c>
-      <c r="AB41">
-        <v>304</v>
-      </c>
-      <c r="AC41" t="str">
-        <v>152410</v>
-      </c>
-      <c r="AD41">
-        <v>68</v>
-      </c>
-      <c r="AE41" t="str">
-        <v>183217</v>
-      </c>
-      <c r="AF41">
-        <v>917</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>FOU</v>
+        <v>DSM</v>
       </c>
       <c r="B42" t="str">
-        <v>slide1</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G42">
-        <v>1128.5</v>
+        <v>331.90909090909093</v>
       </c>
       <c r="H42">
-        <v>1099.5</v>
+        <v>118</v>
       </c>
       <c r="I42" t="str">
-        <v>013018</v>
+        <v>214713</v>
       </c>
       <c r="J42">
-        <v>1421</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
-        <v>162441</v>
+        <v>222231</v>
       </c>
       <c r="L42">
-        <v>1478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="str">
-        <v>170332</v>
+        <v>222234</v>
       </c>
       <c r="N42">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="O42" t="str">
-        <v>164502</v>
+        <v>080417</v>
       </c>
       <c r="P42">
-        <v>894</v>
+        <v>0</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>080418</v>
+      </c>
+      <c r="R42">
+        <v>107</v>
+      </c>
+      <c r="S42" t="str">
+        <v>080420</v>
+      </c>
+      <c r="T42">
+        <v>118</v>
+      </c>
+      <c r="U42" t="str">
+        <v>073149</v>
+      </c>
+      <c r="V42">
+        <v>1407</v>
+      </c>
+      <c r="W42" t="str">
+        <v>073150</v>
+      </c>
+      <c r="X42">
+        <v>35</v>
+      </c>
+      <c r="Y42" t="str">
+        <v>091900</v>
+      </c>
+      <c r="Z42">
+        <v>581</v>
+      </c>
+      <c r="AA42" t="str">
+        <v>111711</v>
+      </c>
+      <c r="AB42">
+        <v>589</v>
+      </c>
+      <c r="AC42" t="str">
+        <v>210622</v>
+      </c>
+      <c r="AD42">
+        <v>814</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>LXD</v>
+        <v>EQ9</v>
       </c>
       <c r="B43" t="str">
-        <v>slide1</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43">
+        <v>709.5</v>
+      </c>
+      <c r="H43">
+        <v>1056.5</v>
+      </c>
+      <c r="I43" t="str">
+        <v>080451</v>
+      </c>
+      <c r="J43">
         <v>0</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>2635</v>
-      </c>
-      <c r="H43">
-        <v>2635</v>
-      </c>
-      <c r="I43" t="str">
-        <v>224953</v>
-      </c>
-      <c r="J43">
-        <v>2635</v>
+      <c r="K43" t="str">
+        <v>192600</v>
+      </c>
+      <c r="L43">
+        <v>1432</v>
+      </c>
+      <c r="M43" t="str">
+        <v>073123</v>
+      </c>
+      <c r="N43">
+        <v>681</v>
+      </c>
+      <c r="O43" t="str">
+        <v>073126</v>
+      </c>
+      <c r="P43">
+        <v>725</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>3VP</v>
+        <v>7JN</v>
       </c>
       <c r="B44" t="str">
-        <v>slide1</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44">
+        <v>539.8333333333334</v>
+      </c>
+      <c r="H44">
+        <v>1302</v>
+      </c>
+      <c r="I44" t="str">
+        <v>052156</v>
+      </c>
+      <c r="J44">
         <v>0</v>
       </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>1947.5</v>
-      </c>
-      <c r="H44">
-        <v>1947.5</v>
-      </c>
-      <c r="I44" t="str">
-        <v>143725</v>
-      </c>
-      <c r="J44">
-        <v>2923</v>
-      </c>
       <c r="K44" t="str">
-        <v>064926</v>
+        <v>070505</v>
       </c>
       <c r="L44">
-        <v>972</v>
+        <v>103</v>
+      </c>
+      <c r="M44" t="str">
+        <v>145119</v>
+      </c>
+      <c r="N44">
+        <v>1269</v>
+      </c>
+      <c r="O44" t="str">
+        <v>145124</v>
+      </c>
+      <c r="P44">
+        <v>1335</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>155743</v>
+      </c>
+      <c r="R44">
+        <v>466</v>
+      </c>
+      <c r="S44" t="str">
+        <v>141257</v>
+      </c>
+      <c r="T44">
+        <v>66</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>KTJ</v>
+        <v>2E3</v>
       </c>
       <c r="B45" t="str">
-        <v>slide3</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="str">
-        <v>0,1,1</v>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1853</v>
+        <v>2947</v>
       </c>
       <c r="H45">
-        <v>1853</v>
+        <v>2947</v>
       </c>
       <c r="I45" t="str">
-        <v>231035</v>
+        <v>092005</v>
       </c>
       <c r="J45">
-        <v>1853</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Q3F</v>
+        <v>91P</v>
       </c>
       <c r="B46" t="str">
-        <v>slide2</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" t="str">
-        <v>0,1</v>
+      <c r="E46">
+        <v>0</v>
       </c>
       <c r="F46">
         <v>3</v>
       </c>
       <c r="G46">
-        <v>934.6666666666666</v>
+        <v>981.6666666666666</v>
       </c>
       <c r="H46">
-        <v>521</v>
+        <v>1470</v>
       </c>
       <c r="I46" t="str">
-        <v>132107</v>
+        <v>084307</v>
       </c>
       <c r="J46">
-        <v>1513</v>
+        <v>1237</v>
       </c>
       <c r="K46" t="str">
-        <v>220230</v>
+        <v>052106</v>
       </c>
       <c r="L46">
-        <v>521</v>
+        <v>1470</v>
       </c>
       <c r="M46" t="str">
-        <v>231537</v>
+        <v>091910</v>
       </c>
       <c r="N46">
-        <v>770</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>QAF</v>
+        <v>7YS</v>
       </c>
       <c r="B47" t="str">
-        <v>slide3</v>
+        <v>bodenroller10</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="str">
-        <v>1,1,1</v>
+      <c r="E47">
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>520.75</v>
+        <v>770.5</v>
       </c>
       <c r="H47">
-        <v>291</v>
+        <v>770.5</v>
       </c>
       <c r="I47" t="str">
-        <v>144150</v>
+        <v>081220</v>
       </c>
       <c r="J47">
-        <v>1405</v>
+        <v>1269</v>
       </c>
       <c r="K47" t="str">
-        <v>230456</v>
+        <v>052152</v>
       </c>
       <c r="L47">
-        <v>503</v>
-      </c>
-      <c r="M47" t="str">
-        <v>223034</v>
-      </c>
-      <c r="N47">
-        <v>79</v>
-      </c>
-      <c r="O47" t="str">
-        <v>235004</v>
-      </c>
-      <c r="P47">
-        <v>96</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>BS5</v>
+        <v>6SV</v>
       </c>
       <c r="B48" t="str">
-        <v>slide3</v>
+        <v>slide1</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="str">
-        <v>1,1,1</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>711.5</v>
+        <v>2041</v>
       </c>
       <c r="H48">
-        <v>711.5</v>
+        <v>2041</v>
       </c>
       <c r="I48" t="str">
-        <v>084609</v>
+        <v>201643</v>
       </c>
       <c r="J48">
-        <v>122</v>
+        <v>1072</v>
       </c>
       <c r="K48" t="str">
-        <v>062807</v>
+        <v>140935</v>
       </c>
       <c r="L48">
-        <v>1301</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>NYX</v>
+        <v>8EB</v>
       </c>
       <c r="B49" t="str">
-        <v>slide3</v>
+        <v>slide1</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="str">
-        <v>0,0,1</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>449</v>
+        <v>2071</v>
       </c>
       <c r="H49">
-        <v>190</v>
+        <v>2071</v>
       </c>
       <c r="I49" t="str">
-        <v>134112</v>
+        <v>022520</v>
       </c>
       <c r="J49">
-        <v>128</v>
+        <v>3311</v>
       </c>
       <c r="K49" t="str">
-        <v>193728</v>
+        <v>161629</v>
       </c>
       <c r="L49">
-        <v>1796</v>
-      </c>
-      <c r="M49" t="str">
-        <v>214603</v>
-      </c>
-      <c r="N49">
-        <v>190</v>
-      </c>
-      <c r="O49" t="str">
-        <v>231204</v>
-      </c>
-      <c r="P49">
-        <v>45</v>
-      </c>
-      <c r="Q49" t="str">
-        <v>235714</v>
-      </c>
-      <c r="R49">
-        <v>86</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2HS</v>
+        <v>BJQ</v>
       </c>
       <c r="B50" t="str">
-        <v>slide2</v>
+        <v>slide1</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="str">
-        <v>0,1</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>1353.3333333333333</v>
+        <v>468</v>
       </c>
       <c r="H50">
-        <v>2352</v>
+        <v>468</v>
       </c>
       <c r="I50" t="str">
-        <v>190847</v>
+        <v>082105</v>
       </c>
       <c r="J50">
-        <v>1417</v>
-      </c>
-      <c r="K50" t="str">
-        <v>000044</v>
-      </c>
-      <c r="L50">
-        <v>2352</v>
-      </c>
-      <c r="M50" t="str">
-        <v>233841</v>
-      </c>
-      <c r="N50">
-        <v>291</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>4TH</v>
+      </c>
+      <c r="B51" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>426</v>
+      </c>
+      <c r="H51">
+        <v>426</v>
+      </c>
+      <c r="I51" t="str">
+        <v>045058</v>
+      </c>
+      <c r="J51">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>MRD</v>
+      </c>
+      <c r="B52" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>722</v>
+      </c>
+      <c r="H52">
+        <v>722</v>
+      </c>
+      <c r="I52" t="str">
+        <v>045947</v>
+      </c>
+      <c r="J52">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>WLT</v>
+      </c>
+      <c r="B53" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="G53">
+        <v>1056</v>
+      </c>
+      <c r="H53">
+        <v>693</v>
+      </c>
+      <c r="I53" t="str">
+        <v>043125</v>
+      </c>
+      <c r="J53">
+        <v>2023</v>
+      </c>
+      <c r="K53" t="str">
+        <v>180631</v>
+      </c>
+      <c r="L53">
+        <v>592</v>
+      </c>
+      <c r="M53" t="str">
+        <v>035922</v>
+      </c>
+      <c r="N53">
+        <v>794</v>
+      </c>
+      <c r="O53" t="str">
+        <v>171416</v>
+      </c>
+      <c r="P53">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>V7H</v>
+      </c>
+      <c r="B54" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>390.4166666666667</v>
+      </c>
+      <c r="H54">
+        <v>266</v>
+      </c>
+      <c r="I54" t="str">
+        <v>202458</v>
+      </c>
+      <c r="J54">
+        <v>163</v>
+      </c>
+      <c r="K54" t="str">
+        <v>045144</v>
+      </c>
+      <c r="L54">
+        <v>196</v>
+      </c>
+      <c r="M54" t="str">
+        <v>171133</v>
+      </c>
+      <c r="N54">
+        <v>209</v>
+      </c>
+      <c r="O54" t="str">
+        <v>224525</v>
+      </c>
+      <c r="P54">
+        <v>221</v>
+      </c>
+      <c r="Q54" t="str">
+        <v>022653</v>
+      </c>
+      <c r="R54">
+        <v>228</v>
+      </c>
+      <c r="S54" t="str">
+        <v>065028</v>
+      </c>
+      <c r="T54">
+        <v>263</v>
+      </c>
+      <c r="U54" t="str">
+        <v>223333</v>
+      </c>
+      <c r="V54">
+        <v>269</v>
+      </c>
+      <c r="W54" t="str">
+        <v>011726</v>
+      </c>
+      <c r="X54">
+        <v>333</v>
+      </c>
+      <c r="Y54" t="str">
+        <v>044643</v>
+      </c>
+      <c r="Z54">
+        <v>506</v>
+      </c>
+      <c r="AA54" t="str">
+        <v>150236</v>
+      </c>
+      <c r="AB54">
+        <v>615</v>
+      </c>
+      <c r="AC54" t="str">
+        <v>193217</v>
+      </c>
+      <c r="AD54">
+        <v>739</v>
+      </c>
+      <c r="AE54" t="str">
+        <v>224844</v>
+      </c>
+      <c r="AF54">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>A81</v>
+      </c>
+      <c r="B55" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>382.4</v>
+      </c>
+      <c r="H55">
+        <v>348</v>
+      </c>
+      <c r="I55" t="str">
+        <v>063814</v>
+      </c>
+      <c r="J55">
+        <v>127</v>
+      </c>
+      <c r="K55" t="str">
+        <v>191800</v>
+      </c>
+      <c r="L55">
+        <v>327</v>
+      </c>
+      <c r="M55" t="str">
+        <v>010634</v>
+      </c>
+      <c r="N55">
+        <v>348</v>
+      </c>
+      <c r="O55" t="str">
+        <v>065800</v>
+      </c>
+      <c r="P55">
+        <v>351</v>
+      </c>
+      <c r="Q55" t="str">
+        <v>090508</v>
+      </c>
+      <c r="R55">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>EYF</v>
+      </c>
+      <c r="B56" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <v>1,1</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56">
+        <v>481</v>
+      </c>
+      <c r="H56">
+        <v>380.5</v>
+      </c>
+      <c r="I56" t="str">
+        <v>015606</v>
+      </c>
+      <c r="J56">
+        <v>1600</v>
+      </c>
+      <c r="K56" t="str">
+        <v>043633</v>
+      </c>
+      <c r="L56">
+        <v>165</v>
+      </c>
+      <c r="M56" t="str">
+        <v>130721</v>
+      </c>
+      <c r="N56">
+        <v>176</v>
+      </c>
+      <c r="O56" t="str">
+        <v>131500</v>
+      </c>
+      <c r="P56">
+        <v>251</v>
+      </c>
+      <c r="Q56" t="str">
+        <v>214506</v>
+      </c>
+      <c r="R56">
+        <v>510</v>
+      </c>
+      <c r="S56" t="str">
+        <v>004128</v>
+      </c>
+      <c r="T56">
+        <v>510</v>
+      </c>
+      <c r="U56" t="str">
+        <v>032641</v>
+      </c>
+      <c r="V56">
+        <v>629</v>
+      </c>
+      <c r="W56" t="str">
+        <v>135547</v>
+      </c>
+      <c r="X56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>UDS</v>
+      </c>
+      <c r="B57" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>1663.5</v>
+      </c>
+      <c r="H57">
+        <v>1663.5</v>
+      </c>
+      <c r="I57" t="str">
+        <v>174110</v>
+      </c>
+      <c r="J57">
+        <v>211</v>
+      </c>
+      <c r="K57" t="str">
+        <v>211300</v>
+      </c>
+      <c r="L57">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>1TM</v>
+      </c>
+      <c r="B58" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1855.5</v>
+      </c>
+      <c r="H58">
+        <v>1855.5</v>
+      </c>
+      <c r="I58" t="str">
+        <v>153204</v>
+      </c>
+      <c r="J58">
+        <v>1581</v>
+      </c>
+      <c r="K58" t="str">
+        <v>175403</v>
+      </c>
+      <c r="L58">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>ZZI</v>
+      </c>
+      <c r="B59" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>408</v>
+      </c>
+      <c r="H59">
+        <v>347</v>
+      </c>
+      <c r="I59" t="str">
+        <v>191250</v>
+      </c>
+      <c r="J59">
+        <v>173</v>
+      </c>
+      <c r="K59" t="str">
+        <v>220627</v>
+      </c>
+      <c r="L59">
+        <v>347</v>
+      </c>
+      <c r="M59" t="str">
+        <v>035403</v>
+      </c>
+      <c r="N59">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>9GZ</v>
+      </c>
+      <c r="B60" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>188</v>
+      </c>
+      <c r="H60">
+        <v>188</v>
+      </c>
+      <c r="I60" t="str">
+        <v>163717</v>
+      </c>
+      <c r="J60">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>XPM</v>
+      </c>
+      <c r="B61" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>433.8</v>
+      </c>
+      <c r="H61">
+        <v>141.5</v>
+      </c>
+      <c r="I61" t="str">
+        <v>190921</v>
+      </c>
+      <c r="J61">
+        <v>1927</v>
+      </c>
+      <c r="K61" t="str">
+        <v>002822</v>
+      </c>
+      <c r="L61">
+        <v>198</v>
+      </c>
+      <c r="M61" t="str">
+        <v>005855</v>
+      </c>
+      <c r="N61">
+        <v>223</v>
+      </c>
+      <c r="O61" t="str">
+        <v>090645</v>
+      </c>
+      <c r="P61">
+        <v>241</v>
+      </c>
+      <c r="Q61" t="str">
+        <v>132009</v>
+      </c>
+      <c r="R61">
+        <v>253</v>
+      </c>
+      <c r="S61" t="str">
+        <v>193313</v>
+      </c>
+      <c r="T61">
+        <v>30</v>
+      </c>
+      <c r="U61" t="str">
+        <v>233413</v>
+      </c>
+      <c r="V61">
+        <v>319</v>
+      </c>
+      <c r="W61" t="str">
+        <v>031725</v>
+      </c>
+      <c r="X61">
+        <v>323</v>
+      </c>
+      <c r="Y61" t="str">
+        <v>063558</v>
+      </c>
+      <c r="Z61">
+        <v>373</v>
+      </c>
+      <c r="AA61" t="str">
+        <v>115910</v>
+      </c>
+      <c r="AB61">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>8A6</v>
+      </c>
+      <c r="B62" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62">
+        <v>497.8333333333333</v>
+      </c>
+      <c r="H62">
+        <v>334.5</v>
+      </c>
+      <c r="I62" t="str">
+        <v>011113</v>
+      </c>
+      <c r="J62">
+        <v>120</v>
+      </c>
+      <c r="K62" t="str">
+        <v>063850</v>
+      </c>
+      <c r="L62">
+        <v>1203</v>
+      </c>
+      <c r="M62" t="str">
+        <v>173014</v>
+      </c>
+      <c r="N62">
+        <v>327</v>
+      </c>
+      <c r="O62" t="str">
+        <v>231300</v>
+      </c>
+      <c r="P62">
+        <v>342</v>
+      </c>
+      <c r="Q62" t="str">
+        <v>045753</v>
+      </c>
+      <c r="R62">
+        <v>344</v>
+      </c>
+      <c r="S62" t="str">
+        <v>065826</v>
+      </c>
+      <c r="T62">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>YCI</v>
+      </c>
+      <c r="B63" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="str">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1403</v>
+      </c>
+      <c r="H63">
+        <v>1403</v>
+      </c>
+      <c r="I63" t="str">
+        <v>045033</v>
+      </c>
+      <c r="J63">
+        <v>1275</v>
+      </c>
+      <c r="K63" t="str">
+        <v>062153</v>
+      </c>
+      <c r="L63">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>5KI</v>
+      </c>
+      <c r="B64" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <v>1,1</v>
+      </c>
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64">
+        <v>486.77777777777777</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="str">
+        <v>101603</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64" t="str">
+        <v>225428</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="str">
+        <v>225430</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64" t="str">
+        <v>115634</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="str">
+        <v>115636</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64" t="str">
+        <v>132119</v>
+      </c>
+      <c r="T64">
+        <v>2757</v>
+      </c>
+      <c r="U64" t="str">
+        <v>132120</v>
+      </c>
+      <c r="V64">
+        <v>758</v>
+      </c>
+      <c r="W64" t="str">
+        <v>111913</v>
+      </c>
+      <c r="X64">
+        <v>782</v>
+      </c>
+      <c r="Y64" t="str">
+        <v>111915</v>
+      </c>
+      <c r="Z64">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>HO3</v>
+      </c>
+      <c r="B65" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>31</v>
+      </c>
+      <c r="G65">
+        <v>171.67741935483872</v>
+      </c>
+      <c r="H65">
+        <v>152</v>
+      </c>
+      <c r="I65" t="str">
+        <v>085303</v>
+      </c>
+      <c r="J65">
+        <v>100</v>
+      </c>
+      <c r="K65" t="str">
+        <v>110537</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="M65" t="str">
+        <v>135739</v>
+      </c>
+      <c r="N65">
+        <v>110</v>
+      </c>
+      <c r="O65" t="str">
+        <v>162626</v>
+      </c>
+      <c r="P65">
+        <v>117</v>
+      </c>
+      <c r="Q65" t="str">
+        <v>185742</v>
+      </c>
+      <c r="R65">
+        <v>132</v>
+      </c>
+      <c r="S65" t="str">
+        <v>203021</v>
+      </c>
+      <c r="T65">
+        <v>132</v>
+      </c>
+      <c r="U65" t="str">
+        <v>230310</v>
+      </c>
+      <c r="V65">
+        <v>136</v>
+      </c>
+      <c r="W65" t="str">
+        <v>010103</v>
+      </c>
+      <c r="X65">
+        <v>136</v>
+      </c>
+      <c r="Y65" t="str">
+        <v>031905</v>
+      </c>
+      <c r="Z65">
+        <v>136</v>
+      </c>
+      <c r="AA65" t="str">
+        <v>043102</v>
+      </c>
+      <c r="AB65">
+        <v>137</v>
+      </c>
+      <c r="AC65" t="str">
+        <v>071218</v>
+      </c>
+      <c r="AD65">
+        <v>138</v>
+      </c>
+      <c r="AE65" t="str">
+        <v>112710</v>
+      </c>
+      <c r="AF65">
+        <v>146</v>
+      </c>
+      <c r="AG65" t="str">
+        <v>134455</v>
+      </c>
+      <c r="AH65">
+        <v>148</v>
+      </c>
+      <c r="AI65" t="str">
+        <v>155743</v>
+      </c>
+      <c r="AJ65">
+        <v>151</v>
+      </c>
+      <c r="AK65" t="str">
+        <v>181358</v>
+      </c>
+      <c r="AL65">
+        <v>152</v>
+      </c>
+      <c r="AM65" t="str">
+        <v>195109</v>
+      </c>
+      <c r="AN65">
+        <v>152</v>
+      </c>
+      <c r="AO65" t="str">
+        <v>224053</v>
+      </c>
+      <c r="AP65">
+        <v>161</v>
+      </c>
+      <c r="AQ65" t="str">
+        <v>003106</v>
+      </c>
+      <c r="AR65">
+        <v>169</v>
+      </c>
+      <c r="AS65" t="str">
+        <v>014927</v>
+      </c>
+      <c r="AT65">
+        <v>172</v>
+      </c>
+      <c r="AU65" t="str">
+        <v>103858</v>
+      </c>
+      <c r="AV65">
+        <v>183</v>
+      </c>
+      <c r="AW65" t="str">
+        <v>183136</v>
+      </c>
+      <c r="AX65">
+        <v>188</v>
+      </c>
+      <c r="AY65" t="str">
+        <v>201148</v>
+      </c>
+      <c r="AZ65">
+        <v>218</v>
+      </c>
+      <c r="BA65" t="str">
+        <v>222751</v>
+      </c>
+      <c r="BB65">
+        <v>254</v>
+      </c>
+      <c r="BC65" t="str">
+        <v>235843</v>
+      </c>
+      <c r="BD65">
+        <v>425</v>
+      </c>
+      <c r="BE65" t="str">
+        <v>030144</v>
+      </c>
+      <c r="BF65">
+        <v>472</v>
+      </c>
+      <c r="BG65" t="str">
+        <v>100724</v>
+      </c>
+      <c r="BH65">
+        <v>529</v>
+      </c>
+      <c r="BI65" t="str">
+        <v>114805</v>
+      </c>
+      <c r="BJ65">
+        <v>71</v>
+      </c>
+      <c r="BK65" t="str">
+        <v>152700</v>
+      </c>
+      <c r="BL65">
+        <v>78</v>
+      </c>
+      <c r="BM65" t="str">
+        <v>183513</v>
+      </c>
+      <c r="BN65">
+        <v>90</v>
+      </c>
+      <c r="BO65" t="str">
+        <v>210126</v>
+      </c>
+      <c r="BP65">
+        <v>92</v>
+      </c>
+      <c r="BQ65" t="str">
+        <v>231726</v>
+      </c>
+      <c r="BR65">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>A61</v>
+      </c>
+      <c r="B66" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>0,1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>959</v>
+      </c>
+      <c r="H66">
+        <v>959</v>
+      </c>
+      <c r="I66" t="str">
+        <v>190725</v>
+      </c>
+      <c r="J66">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>3FZ</v>
+      </c>
+      <c r="B67" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="str">
+        <v>0,1</v>
+      </c>
+      <c r="F67">
+        <v>24</v>
+      </c>
+      <c r="G67">
+        <v>157.75</v>
+      </c>
+      <c r="H67">
+        <v>259.5</v>
+      </c>
+      <c r="I67" t="str">
+        <v>010427</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
+      <c r="K67" t="str">
+        <v>134628</v>
+      </c>
+      <c r="L67">
+        <v>107</v>
+      </c>
+      <c r="M67" t="str">
+        <v>160456</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67" t="str">
+        <v>164922</v>
+      </c>
+      <c r="P67">
+        <v>138</v>
+      </c>
+      <c r="Q67" t="str">
+        <v>170519</v>
+      </c>
+      <c r="R67">
+        <v>138</v>
+      </c>
+      <c r="S67" t="str">
+        <v>175805</v>
+      </c>
+      <c r="T67">
+        <v>15</v>
+      </c>
+      <c r="U67" t="str">
+        <v>182136</v>
+      </c>
+      <c r="V67">
+        <v>153</v>
+      </c>
+      <c r="W67" t="str">
+        <v>185139</v>
+      </c>
+      <c r="X67">
+        <v>16</v>
+      </c>
+      <c r="Y67" t="str">
+        <v>201735</v>
+      </c>
+      <c r="Z67">
+        <v>177</v>
+      </c>
+      <c r="AA67" t="str">
+        <v>220525</v>
+      </c>
+      <c r="AB67">
+        <v>18</v>
+      </c>
+      <c r="AC67" t="str">
+        <v>224030</v>
+      </c>
+      <c r="AD67">
+        <v>23</v>
+      </c>
+      <c r="AE67" t="str">
+        <v>225658</v>
+      </c>
+      <c r="AF67">
+        <v>257</v>
+      </c>
+      <c r="AG67" t="str">
+        <v>031443</v>
+      </c>
+      <c r="AH67">
+        <v>262</v>
+      </c>
+      <c r="AI67" t="str">
+        <v>032522</v>
+      </c>
+      <c r="AJ67">
+        <v>30</v>
+      </c>
+      <c r="AK67" t="str">
+        <v>074742</v>
+      </c>
+      <c r="AL67">
+        <v>349</v>
+      </c>
+      <c r="AM67" t="str">
+        <v>075903</v>
+      </c>
+      <c r="AN67">
+        <v>35</v>
+      </c>
+      <c r="AO67" t="str">
+        <v>134845</v>
+      </c>
+      <c r="AP67">
+        <v>420</v>
+      </c>
+      <c r="AQ67" t="str">
+        <v>152658</v>
+      </c>
+      <c r="AR67">
+        <v>44</v>
+      </c>
+      <c r="AS67" t="str">
+        <v>235029</v>
+      </c>
+      <c r="AT67">
+        <v>503</v>
+      </c>
+      <c r="AU67" t="str">
+        <v>065049</v>
+      </c>
+      <c r="AV67">
+        <v>52</v>
+      </c>
+      <c r="AW67" t="str">
+        <v>070928</v>
+      </c>
+      <c r="AX67">
+        <v>762</v>
+      </c>
+      <c r="AY67" t="str">
+        <v>094231</v>
+      </c>
+      <c r="AZ67">
+        <v>83</v>
+      </c>
+      <c r="BA67" t="str">
+        <v>123940</v>
+      </c>
+      <c r="BB67">
+        <v>85</v>
+      </c>
+      <c r="BC67" t="str">
+        <v>145752</v>
+      </c>
+      <c r="BD67">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>KPH</v>
+      </c>
+      <c r="B68" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <v>1,1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>4000</v>
+      </c>
+      <c r="H68">
+        <v>4000</v>
+      </c>
+      <c r="I68" t="str">
+        <v>103325</v>
+      </c>
+      <c r="J68">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>8U7</v>
+      </c>
+      <c r="B69" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>637.8571428571429</v>
+      </c>
+      <c r="H69">
+        <v>213</v>
+      </c>
+      <c r="I69" t="str">
+        <v>062211</v>
+      </c>
+      <c r="J69">
+        <v>1288</v>
+      </c>
+      <c r="K69" t="str">
+        <v>061606</v>
+      </c>
+      <c r="L69">
+        <v>1433</v>
+      </c>
+      <c r="M69" t="str">
+        <v>084237</v>
+      </c>
+      <c r="N69">
+        <v>146</v>
+      </c>
+      <c r="O69" t="str">
+        <v>135418</v>
+      </c>
+      <c r="P69">
+        <v>213</v>
+      </c>
+      <c r="Q69" t="str">
+        <v>185151</v>
+      </c>
+      <c r="R69">
+        <v>297</v>
+      </c>
+      <c r="S69" t="str">
+        <v>074925</v>
+      </c>
+      <c r="T69">
+        <v>311</v>
+      </c>
+      <c r="U69" t="str">
+        <v>112246</v>
+      </c>
+      <c r="V69">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>OES</v>
+      </c>
+      <c r="B70" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="str">
+        <v>1,1</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70">
+        <v>237</v>
+      </c>
+      <c r="H70">
+        <v>352.5</v>
+      </c>
+      <c r="I70" t="str">
+        <v>193916</v>
+      </c>
+      <c r="J70">
+        <v>109</v>
+      </c>
+      <c r="K70" t="str">
+        <v>084835</v>
+      </c>
+      <c r="L70">
+        <v>113</v>
+      </c>
+      <c r="M70" t="str">
+        <v>104215</v>
+      </c>
+      <c r="N70">
+        <v>134</v>
+      </c>
+      <c r="O70" t="str">
+        <v>130902</v>
+      </c>
+      <c r="P70">
+        <v>146</v>
+      </c>
+      <c r="Q70" t="str">
+        <v>152316</v>
+      </c>
+      <c r="R70">
+        <v>153</v>
+      </c>
+      <c r="S70" t="str">
+        <v>175828</v>
+      </c>
+      <c r="T70">
+        <v>155</v>
+      </c>
+      <c r="U70" t="str">
+        <v>194823</v>
+      </c>
+      <c r="V70">
+        <v>157</v>
+      </c>
+      <c r="W70" t="str">
+        <v>065446</v>
+      </c>
+      <c r="X70">
+        <v>166</v>
+      </c>
+      <c r="Y70" t="str">
+        <v>080406</v>
+      </c>
+      <c r="Z70">
+        <v>312</v>
+      </c>
+      <c r="AA70" t="str">
+        <v>104137</v>
+      </c>
+      <c r="AB70">
+        <v>350</v>
+      </c>
+      <c r="AC70" t="str">
+        <v>131458</v>
+      </c>
+      <c r="AD70">
+        <v>355</v>
+      </c>
+      <c r="AE70" t="str">
+        <v>190504</v>
+      </c>
+      <c r="AF70">
+        <v>65</v>
+      </c>
+      <c r="AG70" t="str">
+        <v>201012</v>
+      </c>
+      <c r="AH70">
+        <v>660</v>
+      </c>
+      <c r="AI70" t="str">
+        <v>071018</v>
+      </c>
+      <c r="AJ70">
+        <v>666</v>
+      </c>
+      <c r="AK70" t="str">
+        <v>095637</v>
+      </c>
+      <c r="AL70">
+        <v>69</v>
+      </c>
+      <c r="AM70" t="str">
+        <v>150919</v>
+      </c>
+      <c r="AN70">
+        <v>74</v>
+      </c>
+      <c r="AO70" t="str">
+        <v>163418</v>
+      </c>
+      <c r="AP70">
+        <v>789</v>
+      </c>
+      <c r="AQ70" t="str">
+        <v>181120</v>
+      </c>
+      <c r="AR70">
+        <v>84</v>
+      </c>
+      <c r="AS70" t="str">
+        <v>192606</v>
+      </c>
+      <c r="AT70">
+        <v>86</v>
+      </c>
+      <c r="AU70" t="str">
+        <v>205229</v>
+      </c>
+      <c r="AV70">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>DUU</v>
+      </c>
+      <c r="B71" t="str">
+        <v>slide3</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="str">
+        <v>1,1,1</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>316</v>
+      </c>
+      <c r="H71">
+        <v>265.5</v>
+      </c>
+      <c r="I71" t="str">
+        <v>170340</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71" t="str">
+        <v>064805</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="str">
+        <v>110133</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71" t="str">
+        <v>162702</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="str">
+        <v>162704</v>
+      </c>
+      <c r="R71">
+        <v>222</v>
+      </c>
+      <c r="S71" t="str">
+        <v>210129</v>
+      </c>
+      <c r="T71">
+        <v>253</v>
+      </c>
+      <c r="U71" t="str">
+        <v>094933</v>
+      </c>
+      <c r="V71">
+        <v>257</v>
+      </c>
+      <c r="W71" t="str">
+        <v>154454</v>
+      </c>
+      <c r="X71">
+        <v>274</v>
+      </c>
+      <c r="Y71" t="str">
+        <v>205115</v>
+      </c>
+      <c r="Z71">
+        <v>306</v>
+      </c>
+      <c r="AA71" t="str">
+        <v>105147</v>
+      </c>
+      <c r="AB71">
+        <v>325</v>
+      </c>
+      <c r="AC71" t="str">
+        <v>150855</v>
+      </c>
+      <c r="AD71">
+        <v>355</v>
+      </c>
+      <c r="AE71" t="str">
+        <v>150900</v>
+      </c>
+      <c r="AF71">
+        <v>768</v>
+      </c>
+      <c r="AG71" t="str">
+        <v>185104</v>
+      </c>
+      <c r="AH71">
+        <v>824</v>
+      </c>
+      <c r="AI71" t="str">
+        <v>185111</v>
+      </c>
+      <c r="AJ71">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2TU</v>
+      </c>
+      <c r="B72" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>11</v>
+      </c>
+      <c r="G72">
+        <v>427.45454545454544</v>
+      </c>
+      <c r="H72">
+        <v>1810</v>
+      </c>
+      <c r="I72" t="str">
+        <v>143149</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72" t="str">
+        <v>082043</v>
+      </c>
+      <c r="L72">
+        <v>1068</v>
+      </c>
+      <c r="M72" t="str">
+        <v>082050</v>
+      </c>
+      <c r="N72">
+        <v>167</v>
+      </c>
+      <c r="O72" t="str">
+        <v>110802</v>
+      </c>
+      <c r="P72">
+        <v>167</v>
+      </c>
+      <c r="Q72" t="str">
+        <v>115327</v>
+      </c>
+      <c r="R72">
+        <v>181</v>
+      </c>
+      <c r="S72" t="str">
+        <v>130933</v>
+      </c>
+      <c r="T72">
+        <v>1810</v>
+      </c>
+      <c r="U72" t="str">
+        <v>155718</v>
+      </c>
+      <c r="V72">
+        <v>331</v>
+      </c>
+      <c r="W72" t="str">
+        <v>061114</v>
+      </c>
+      <c r="X72">
+        <v>4</v>
+      </c>
+      <c r="Y72" t="str">
+        <v>114309</v>
+      </c>
+      <c r="Z72">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="str">
+        <v>114717</v>
+      </c>
+      <c r="AB72">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="str">
+        <v>175729</v>
+      </c>
+      <c r="AD72">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>1KC</v>
+      </c>
+      <c r="B73" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="str">
+        <v>1,1</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73">
+        <v>383.6666666666667</v>
+      </c>
+      <c r="H73">
+        <v>178.5</v>
+      </c>
+      <c r="I73" t="str">
+        <v>095600</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73" t="str">
+        <v>110435</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73" t="str">
+        <v>142347</v>
+      </c>
+      <c r="N73">
+        <v>1188</v>
+      </c>
+      <c r="O73" t="str">
+        <v>142532</v>
+      </c>
+      <c r="P73">
+        <v>1213</v>
+      </c>
+      <c r="Q73" t="str">
+        <v>101430</v>
+      </c>
+      <c r="R73">
+        <v>150</v>
+      </c>
+      <c r="S73" t="str">
+        <v>151917</v>
+      </c>
+      <c r="T73">
+        <v>169</v>
+      </c>
+      <c r="U73" t="str">
+        <v>151921</v>
+      </c>
+      <c r="V73">
+        <v>188</v>
+      </c>
+      <c r="W73" t="str">
+        <v>184632</v>
+      </c>
+      <c r="X73">
+        <v>199</v>
+      </c>
+      <c r="Y73" t="str">
+        <v>100351</v>
+      </c>
+      <c r="Z73">
+        <v>207</v>
+      </c>
+      <c r="AA73" t="str">
+        <v>123424</v>
+      </c>
+      <c r="AB73">
+        <v>304</v>
+      </c>
+      <c r="AC73" t="str">
+        <v>152410</v>
+      </c>
+      <c r="AD73">
+        <v>68</v>
+      </c>
+      <c r="AE73" t="str">
+        <v>183217</v>
+      </c>
+      <c r="AF73">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>GV1</v>
+      </c>
+      <c r="B74" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>11</v>
+      </c>
+      <c r="G74">
+        <v>310.8181818181818</v>
+      </c>
+      <c r="H74">
+        <v>493</v>
+      </c>
+      <c r="I74" t="str">
+        <v>081416</v>
+      </c>
+      <c r="J74">
+        <v>1106</v>
+      </c>
+      <c r="K74" t="str">
+        <v>162747</v>
+      </c>
+      <c r="L74">
+        <v>1357</v>
+      </c>
+      <c r="M74" t="str">
+        <v>105431</v>
+      </c>
+      <c r="N74">
+        <v>18</v>
+      </c>
+      <c r="O74" t="str">
+        <v>093214</v>
+      </c>
+      <c r="P74">
+        <v>24</v>
+      </c>
+      <c r="Q74" t="str">
+        <v>095659</v>
+      </c>
+      <c r="R74">
+        <v>46</v>
+      </c>
+      <c r="S74" t="str">
+        <v>101514</v>
+      </c>
+      <c r="T74">
+        <v>493</v>
+      </c>
+      <c r="U74" t="str">
+        <v>114230</v>
+      </c>
+      <c r="V74">
+        <v>55</v>
+      </c>
+      <c r="W74" t="str">
+        <v>130545</v>
+      </c>
+      <c r="X74">
+        <v>64</v>
+      </c>
+      <c r="Y74" t="str">
+        <v>143231</v>
+      </c>
+      <c r="Z74">
+        <v>83</v>
+      </c>
+      <c r="AA74" t="str">
+        <v>151905</v>
+      </c>
+      <c r="AB74">
+        <v>86</v>
+      </c>
+      <c r="AC74" t="str">
+        <v>161411</v>
+      </c>
+      <c r="AD74">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>OK9</v>
+      </c>
+      <c r="B75" t="str">
+        <v>bodenroller3</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>888.3333333333334</v>
+      </c>
+      <c r="H75">
+        <v>1360</v>
+      </c>
+      <c r="I75" t="str">
+        <v>084649</v>
+      </c>
+      <c r="J75">
+        <v>1214</v>
+      </c>
+      <c r="K75" t="str">
+        <v>101750</v>
+      </c>
+      <c r="L75">
+        <v>1360</v>
+      </c>
+      <c r="M75" t="str">
+        <v>085823</v>
+      </c>
+      <c r="N75">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>FOU</v>
+      </c>
+      <c r="B76" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="str">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>1128.5</v>
+      </c>
+      <c r="H76">
+        <v>1099.5</v>
+      </c>
+      <c r="I76" t="str">
+        <v>013018</v>
+      </c>
+      <c r="J76">
+        <v>1421</v>
+      </c>
+      <c r="K76" t="str">
+        <v>162441</v>
+      </c>
+      <c r="L76">
+        <v>1478</v>
+      </c>
+      <c r="M76" t="str">
+        <v>170332</v>
+      </c>
+      <c r="N76">
+        <v>721</v>
+      </c>
+      <c r="O76" t="str">
+        <v>164502</v>
+      </c>
+      <c r="P76">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>BNA</v>
+      </c>
+      <c r="B77" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>435.6363636363636</v>
+      </c>
+      <c r="H77">
+        <v>373</v>
+      </c>
+      <c r="I77" t="str">
+        <v>141402</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77" t="str">
+        <v>084418</v>
+      </c>
+      <c r="L77">
+        <v>1110</v>
+      </c>
+      <c r="M77" t="str">
+        <v>142451</v>
+      </c>
+      <c r="N77">
+        <v>241</v>
+      </c>
+      <c r="O77" t="str">
+        <v>203755</v>
+      </c>
+      <c r="P77">
+        <v>340</v>
+      </c>
+      <c r="Q77" t="str">
+        <v>100222</v>
+      </c>
+      <c r="R77">
+        <v>363</v>
+      </c>
+      <c r="S77" t="str">
+        <v>160523</v>
+      </c>
+      <c r="T77">
+        <v>373</v>
+      </c>
+      <c r="U77" t="str">
+        <v>165039</v>
+      </c>
+      <c r="V77">
+        <v>45</v>
+      </c>
+      <c r="W77" t="str">
+        <v>015452</v>
+      </c>
+      <c r="X77">
+        <v>454</v>
+      </c>
+      <c r="Y77" t="str">
+        <v>092940</v>
+      </c>
+      <c r="Z77">
+        <v>518</v>
+      </c>
+      <c r="AA77" t="str">
+        <v>180746</v>
+      </c>
+      <c r="AB77">
+        <v>544</v>
+      </c>
+      <c r="AC77" t="str">
+        <v>180827</v>
+      </c>
+      <c r="AD77">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>6KC</v>
+      </c>
+      <c r="B78" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>626</v>
+      </c>
+      <c r="H78">
+        <v>709</v>
+      </c>
+      <c r="I78" t="str">
+        <v>101502</v>
+      </c>
+      <c r="J78">
+        <v>126</v>
+      </c>
+      <c r="K78" t="str">
+        <v>232455</v>
+      </c>
+      <c r="L78">
+        <v>1435</v>
+      </c>
+      <c r="M78" t="str">
+        <v>232027</v>
+      </c>
+      <c r="N78">
+        <v>709</v>
+      </c>
+      <c r="O78" t="str">
+        <v>111022</v>
+      </c>
+      <c r="P78">
+        <v>71</v>
+      </c>
+      <c r="Q78" t="str">
+        <v>131631</v>
+      </c>
+      <c r="R78">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>FEP</v>
+      </c>
+      <c r="B79" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>941</v>
+      </c>
+      <c r="H79">
+        <v>135</v>
+      </c>
+      <c r="I79" t="str">
+        <v>030056</v>
+      </c>
+      <c r="J79">
+        <v>1030</v>
+      </c>
+      <c r="K79" t="str">
+        <v>063948</v>
+      </c>
+      <c r="L79">
+        <v>135</v>
+      </c>
+      <c r="M79" t="str">
+        <v>085520</v>
+      </c>
+      <c r="N79">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>YOF</v>
+      </c>
+      <c r="B80" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>2314</v>
+      </c>
+      <c r="H80">
+        <v>2314</v>
+      </c>
+      <c r="I80" t="str">
+        <v>182551</v>
+      </c>
+      <c r="J80">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>VZT</v>
+      </c>
+      <c r="B81" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>873</v>
+      </c>
+      <c r="H81">
+        <v>424</v>
+      </c>
+      <c r="I81" t="str">
+        <v>201644</v>
+      </c>
+      <c r="J81">
+        <v>1891</v>
+      </c>
+      <c r="K81" t="str">
+        <v>034748</v>
+      </c>
+      <c r="L81">
+        <v>366</v>
+      </c>
+      <c r="M81" t="str">
+        <v>095437</v>
+      </c>
+      <c r="N81">
+        <v>482</v>
+      </c>
+      <c r="O81" t="str">
+        <v>175655</v>
+      </c>
+      <c r="P81">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>LXD</v>
+      </c>
+      <c r="B82" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="str">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>2635</v>
+      </c>
+      <c r="H82">
+        <v>2635</v>
+      </c>
+      <c r="I82" t="str">
+        <v>224953</v>
+      </c>
+      <c r="J82">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>3VP</v>
+      </c>
+      <c r="B83" t="str">
+        <v>slide1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="str">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1947.5</v>
+      </c>
+      <c r="H83">
+        <v>1947.5</v>
+      </c>
+      <c r="I83" t="str">
+        <v>143725</v>
+      </c>
+      <c r="J83">
+        <v>2923</v>
+      </c>
+      <c r="K83" t="str">
+        <v>064926</v>
+      </c>
+      <c r="L83">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>6ZK</v>
+      </c>
+      <c r="B84" t="str">
+        <v>bodenroller5</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1683.5</v>
+      </c>
+      <c r="H84">
+        <v>1683.5</v>
+      </c>
+      <c r="I84" t="str">
+        <v>195659</v>
+      </c>
+      <c r="J84">
+        <v>1012</v>
+      </c>
+      <c r="K84" t="str">
+        <v>111249</v>
+      </c>
+      <c r="L84">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>TGE</v>
+      </c>
+      <c r="B85" t="str">
+        <v>bodenroller3</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>218</v>
+      </c>
+      <c r="H85">
+        <v>275.5</v>
+      </c>
+      <c r="I85" t="str">
+        <v>140534</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85" t="str">
+        <v>154202</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="str">
+        <v>201005</v>
+      </c>
+      <c r="N85">
+        <v>268</v>
+      </c>
+      <c r="O85" t="str">
+        <v>201010</v>
+      </c>
+      <c r="P85">
+        <v>283</v>
+      </c>
+      <c r="Q85" t="str">
+        <v>201115</v>
+      </c>
+      <c r="R85">
+        <v>660</v>
+      </c>
+      <c r="S85" t="str">
+        <v>071119</v>
+      </c>
+      <c r="T85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>WJV</v>
+      </c>
+      <c r="B86" t="str">
+        <v>bodenroller3</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86">
+        <v>530</v>
+      </c>
+      <c r="H86">
+        <v>1234.5</v>
+      </c>
+      <c r="I86" t="str">
+        <v>200011</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86" t="str">
+        <v>123029</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="str">
+        <v>123102</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="str">
+        <v>012255</v>
+      </c>
+      <c r="P86">
+        <v>2</v>
+      </c>
+      <c r="Q86" t="str">
+        <v>012314</v>
+      </c>
+      <c r="R86">
+        <v>2467</v>
+      </c>
+      <c r="S86" t="str">
+        <v>183029</v>
+      </c>
+      <c r="T86">
+        <v>771</v>
+      </c>
+      <c r="U86" t="str">
+        <v>183137</v>
+      </c>
+      <c r="V86">
+        <v>9</v>
+      </c>
+      <c r="W86" t="str">
+        <v>183415</v>
+      </c>
+      <c r="X86">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>XAF</v>
+      </c>
+      <c r="B87" t="str">
+        <v>bodenroller3</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>15</v>
+      </c>
+      <c r="G87">
+        <v>299.4</v>
+      </c>
+      <c r="H87">
+        <v>500</v>
+      </c>
+      <c r="I87" t="str">
+        <v>195501</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="str">
+        <v>200231</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="str">
+        <v>122651</v>
+      </c>
+      <c r="N87">
+        <v>259</v>
+      </c>
+      <c r="O87" t="str">
+        <v>194917</v>
+      </c>
+      <c r="P87">
+        <v>262</v>
+      </c>
+      <c r="Q87" t="str">
+        <v>195011</v>
+      </c>
+      <c r="R87">
+        <v>424</v>
+      </c>
+      <c r="S87" t="str">
+        <v>195653</v>
+      </c>
+      <c r="T87">
+        <v>442</v>
+      </c>
+      <c r="U87" t="str">
+        <v>044025</v>
+      </c>
+      <c r="V87">
+        <v>456</v>
+      </c>
+      <c r="W87" t="str">
+        <v>121634</v>
+      </c>
+      <c r="X87">
+        <v>500</v>
+      </c>
+      <c r="Y87" t="str">
+        <v>163927</v>
+      </c>
+      <c r="Z87">
+        <v>523</v>
+      </c>
+      <c r="AA87" t="str">
+        <v>164534</v>
+      </c>
+      <c r="AB87">
+        <v>539</v>
+      </c>
+      <c r="AC87" t="str">
+        <v>010608</v>
+      </c>
+      <c r="AD87">
+        <v>6</v>
+      </c>
+      <c r="AE87" t="str">
+        <v>023001</v>
+      </c>
+      <c r="AF87">
+        <v>6</v>
+      </c>
+      <c r="AG87" t="str">
+        <v>023042</v>
+      </c>
+      <c r="AH87">
+        <v>7</v>
+      </c>
+      <c r="AI87" t="str">
+        <v>093533</v>
+      </c>
+      <c r="AJ87">
+        <v>83</v>
+      </c>
+      <c r="AK87" t="str">
+        <v>183511</v>
+      </c>
+      <c r="AL87">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>VTF</v>
+      </c>
+      <c r="B88" t="str">
+        <v>bodenroller8</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <v>708.4</v>
+      </c>
+      <c r="H88">
+        <v>840</v>
+      </c>
+      <c r="I88" t="str">
+        <v>032226</v>
+      </c>
+      <c r="J88">
+        <v>142</v>
+      </c>
+      <c r="K88" t="str">
+        <v>164828</v>
+      </c>
+      <c r="L88">
+        <v>806</v>
+      </c>
+      <c r="M88" t="str">
+        <v>073621</v>
+      </c>
+      <c r="N88">
+        <v>840</v>
+      </c>
+      <c r="O88" t="str">
+        <v>095825</v>
+      </c>
+      <c r="P88">
+        <v>867</v>
+      </c>
+      <c r="Q88" t="str">
+        <v>235835</v>
+      </c>
+      <c r="R88">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>3IL</v>
+      </c>
+      <c r="B89" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="str">
+        <v>0,0</v>
+      </c>
+      <c r="F89">
+        <v>12</v>
+      </c>
+      <c r="G89">
+        <v>422.5833333333333</v>
+      </c>
+      <c r="H89">
+        <v>364</v>
+      </c>
+      <c r="I89" t="str">
+        <v>125456</v>
+      </c>
+      <c r="J89">
+        <v>1203</v>
+      </c>
+      <c r="K89" t="str">
+        <v>203303</v>
+      </c>
+      <c r="L89">
+        <v>165</v>
+      </c>
+      <c r="M89" t="str">
+        <v>044408</v>
+      </c>
+      <c r="N89">
+        <v>228</v>
+      </c>
+      <c r="O89" t="str">
+        <v>150033</v>
+      </c>
+      <c r="P89">
+        <v>324</v>
+      </c>
+      <c r="Q89" t="str">
+        <v>212616</v>
+      </c>
+      <c r="R89">
+        <v>338</v>
+      </c>
+      <c r="S89" t="str">
+        <v>060241</v>
+      </c>
+      <c r="T89">
+        <v>343</v>
+      </c>
+      <c r="U89" t="str">
+        <v>095052</v>
+      </c>
+      <c r="V89">
+        <v>385</v>
+      </c>
+      <c r="W89" t="str">
+        <v>055433</v>
+      </c>
+      <c r="X89">
+        <v>4</v>
+      </c>
+      <c r="Y89" t="str">
+        <v>084009</v>
+      </c>
+      <c r="Z89">
+        <v>458</v>
+      </c>
+      <c r="AA89" t="str">
+        <v>142334</v>
+      </c>
+      <c r="AB89">
+        <v>491</v>
+      </c>
+      <c r="AC89" t="str">
+        <v>194751</v>
+      </c>
+      <c r="AD89">
+        <v>516</v>
+      </c>
+      <c r="AE89" t="str">
+        <v>195241</v>
+      </c>
+      <c r="AF89">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>AFA</v>
+      </c>
+      <c r="B90" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="str">
+        <v>0,0</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90">
+        <v>308.53333333333336</v>
+      </c>
+      <c r="H90">
+        <v>426</v>
+      </c>
+      <c r="I90" t="str">
+        <v>151911</v>
+      </c>
+      <c r="J90">
+        <v>11</v>
+      </c>
+      <c r="K90" t="str">
+        <v>030913</v>
+      </c>
+      <c r="L90">
+        <v>146</v>
+      </c>
+      <c r="M90" t="str">
+        <v>031901</v>
+      </c>
+      <c r="N90">
+        <v>217</v>
+      </c>
+      <c r="O90" t="str">
+        <v>081344</v>
+      </c>
+      <c r="P90">
+        <v>228</v>
+      </c>
+      <c r="Q90" t="str">
+        <v>160042</v>
+      </c>
+      <c r="R90">
+        <v>294</v>
+      </c>
+      <c r="S90" t="str">
+        <v>230652</v>
+      </c>
+      <c r="T90">
+        <v>341</v>
+      </c>
+      <c r="U90" t="str">
+        <v>231833</v>
+      </c>
+      <c r="V90">
+        <v>355</v>
+      </c>
+      <c r="W90" t="str">
+        <v>141210</v>
+      </c>
+      <c r="X90">
+        <v>426</v>
+      </c>
+      <c r="Y90" t="str">
+        <v>163903</v>
+      </c>
+      <c r="Z90">
+        <v>464</v>
+      </c>
+      <c r="AA90" t="str">
+        <v>164739</v>
+      </c>
+      <c r="AB90">
+        <v>466</v>
+      </c>
+      <c r="AC90" t="str">
+        <v>174806</v>
+      </c>
+      <c r="AD90">
+        <v>60</v>
+      </c>
+      <c r="AE90" t="str">
+        <v>212533</v>
+      </c>
+      <c r="AF90">
+        <v>710</v>
+      </c>
+      <c r="AG90" t="str">
+        <v>032035</v>
+      </c>
+      <c r="AH90">
+        <v>8</v>
+      </c>
+      <c r="AI90" t="str">
+        <v>110441</v>
+      </c>
+      <c r="AJ90">
+        <v>893</v>
+      </c>
+      <c r="AK90" t="str">
+        <v>164605</v>
+      </c>
+      <c r="AL90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>1TP</v>
+      </c>
+      <c r="B91" t="str">
+        <v>bodenroller10</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>211.5</v>
+      </c>
+      <c r="H91">
+        <v>211.5</v>
+      </c>
+      <c r="I91" t="str">
+        <v>131829</v>
+      </c>
+      <c r="J91">
+        <v>168</v>
+      </c>
+      <c r="K91" t="str">
+        <v>160630</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>UUJ</v>
+      </c>
+      <c r="B92" t="str">
+        <v>bodenroller10</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92">
+        <v>746.5</v>
+      </c>
+      <c r="H92">
+        <v>336.5</v>
+      </c>
+      <c r="I92" t="str">
+        <v>032059</v>
+      </c>
+      <c r="J92">
+        <v>153</v>
+      </c>
+      <c r="K92" t="str">
+        <v>154042</v>
+      </c>
+      <c r="L92">
+        <v>2108</v>
+      </c>
+      <c r="M92" t="str">
+        <v>050642</v>
+      </c>
+      <c r="N92">
+        <v>275</v>
+      </c>
+      <c r="O92" t="str">
+        <v>094232</v>
+      </c>
+      <c r="P92">
+        <v>398</v>
+      </c>
+      <c r="Q92" t="str">
+        <v>205052</v>
+      </c>
+      <c r="R92">
+        <v>739</v>
+      </c>
+      <c r="S92" t="str">
+        <v>232405</v>
+      </c>
+      <c r="T92">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>F13</v>
+      </c>
+      <c r="B93" t="str">
+        <v>bodenroller10</v>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1229.5</v>
+      </c>
+      <c r="H93">
+        <v>1229.5</v>
+      </c>
+      <c r="I93" t="str">
+        <v>225135</v>
+      </c>
+      <c r="J93">
+        <v>1187</v>
+      </c>
+      <c r="K93" t="str">
+        <v>183925</v>
+      </c>
+      <c r="L93">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>9T6</v>
+      </c>
+      <c r="B94" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>686.5</v>
+      </c>
+      <c r="H94">
+        <v>938.5</v>
+      </c>
+      <c r="I94" t="str">
+        <v>223648</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94" t="str">
+        <v>223650</v>
+      </c>
+      <c r="L94">
+        <v>1296</v>
+      </c>
+      <c r="M94" t="str">
+        <v>130557</v>
+      </c>
+      <c r="N94">
+        <v>581</v>
+      </c>
+      <c r="O94" t="str">
+        <v>224703</v>
+      </c>
+      <c r="P94">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>NQ6</v>
+      </c>
+      <c r="B95" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>1059.75</v>
+      </c>
+      <c r="H95">
+        <v>1562</v>
+      </c>
+      <c r="I95" t="str">
+        <v>105223</v>
+      </c>
+      <c r="J95">
+        <v>1107</v>
+      </c>
+      <c r="K95" t="str">
+        <v>225132</v>
+      </c>
+      <c r="L95">
+        <v>2405</v>
+      </c>
+      <c r="M95" t="str">
+        <v>225939</v>
+      </c>
+      <c r="N95">
+        <v>719</v>
+      </c>
+      <c r="O95" t="str">
+        <v>150526</v>
+      </c>
+      <c r="P95">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>ALE</v>
+      </c>
+      <c r="B96" t="str">
+        <v>bodenroller10</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1475</v>
+      </c>
+      <c r="H96">
+        <v>1475</v>
+      </c>
+      <c r="I96" t="str">
+        <v>141458</v>
+      </c>
+      <c r="J96">
+        <v>2110</v>
+      </c>
+      <c r="K96" t="str">
+        <v>012554</v>
+      </c>
+      <c r="L96">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>WFJ</v>
+      </c>
+      <c r="B97" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+      <c r="G97">
+        <v>1226.5</v>
+      </c>
+      <c r="H97">
+        <v>581.5</v>
+      </c>
+      <c r="I97" t="str">
+        <v>033505</v>
+      </c>
+      <c r="J97">
+        <v>2867</v>
+      </c>
+      <c r="K97" t="str">
+        <v>141455</v>
+      </c>
+      <c r="L97">
+        <v>524</v>
+      </c>
+      <c r="M97" t="str">
+        <v>225926</v>
+      </c>
+      <c r="N97">
+        <v>639</v>
+      </c>
+      <c r="O97" t="str">
+        <v>224632</v>
+      </c>
+      <c r="P97">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>U0K</v>
+      </c>
+      <c r="B98" t="str">
+        <v>bodenroller10</v>
+      </c>
+      <c r="C98">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>483</v>
+      </c>
+      <c r="H98">
+        <v>483</v>
+      </c>
+      <c r="I98" t="str">
+        <v>231454</v>
+      </c>
+      <c r="J98">
+        <v>120</v>
+      </c>
+      <c r="K98" t="str">
+        <v>011541</v>
+      </c>
+      <c r="L98">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>G5Y</v>
+      </c>
+      <c r="B99" t="str">
+        <v>bodenroller5</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>503.8</v>
+      </c>
+      <c r="H99">
+        <v>454.5</v>
+      </c>
+      <c r="I99" t="str">
+        <v>140941</v>
+      </c>
+      <c r="J99">
+        <v>109</v>
+      </c>
+      <c r="K99" t="str">
+        <v>030926</v>
+      </c>
+      <c r="L99">
+        <v>174</v>
+      </c>
+      <c r="M99" t="str">
+        <v>074203</v>
+      </c>
+      <c r="N99">
+        <v>179</v>
+      </c>
+      <c r="O99" t="str">
+        <v>225158</v>
+      </c>
+      <c r="P99">
+        <v>272</v>
+      </c>
+      <c r="Q99" t="str">
+        <v>045450</v>
+      </c>
+      <c r="R99">
+        <v>362</v>
+      </c>
+      <c r="S99" t="str">
+        <v>075404</v>
+      </c>
+      <c r="T99">
+        <v>547</v>
+      </c>
+      <c r="U99" t="str">
+        <v>094333</v>
+      </c>
+      <c r="V99">
+        <v>777</v>
+      </c>
+      <c r="W99" t="str">
+        <v>224115</v>
+      </c>
+      <c r="X99">
+        <v>779</v>
+      </c>
+      <c r="Y99" t="str">
+        <v>074846</v>
+      </c>
+      <c r="Z99">
+        <v>909</v>
+      </c>
+      <c r="AA99" t="str">
+        <v>231901</v>
+      </c>
+      <c r="AB99">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>EQK</v>
+      </c>
+      <c r="B100" t="str">
+        <v>bodenroller5</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1507</v>
+      </c>
+      <c r="H100">
+        <v>1507</v>
+      </c>
+      <c r="I100" t="str">
+        <v>095635</v>
+      </c>
+      <c r="J100">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>KTJ</v>
+      </c>
+      <c r="B101" t="str">
+        <v>slide3</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="str">
+        <v>0,1,1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1853</v>
+      </c>
+      <c r="H101">
+        <v>1853</v>
+      </c>
+      <c r="I101" t="str">
+        <v>231035</v>
+      </c>
+      <c r="J101">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>FTR</v>
+      </c>
+      <c r="B102" t="str">
+        <v>bodenroller5</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>4</v>
+      </c>
+      <c r="G102">
+        <v>1353.25</v>
+      </c>
+      <c r="H102">
+        <v>1130</v>
+      </c>
+      <c r="I102" t="str">
+        <v>224630</v>
+      </c>
+      <c r="J102">
+        <v>1079</v>
+      </c>
+      <c r="K102" t="str">
+        <v>092039</v>
+      </c>
+      <c r="L102">
+        <v>1080</v>
+      </c>
+      <c r="M102" t="str">
+        <v>032033</v>
+      </c>
+      <c r="N102">
+        <v>1180</v>
+      </c>
+      <c r="O102" t="str">
+        <v>230130</v>
+      </c>
+      <c r="P102">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>W35</v>
+      </c>
+      <c r="B103" t="str">
+        <v>bodenroller5</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>609.375</v>
+      </c>
+      <c r="H103">
+        <v>631.5</v>
+      </c>
+      <c r="I103" t="str">
+        <v>134504</v>
+      </c>
+      <c r="J103">
+        <v>267</v>
+      </c>
+      <c r="K103" t="str">
+        <v>060503</v>
+      </c>
+      <c r="L103">
+        <v>348</v>
+      </c>
+      <c r="M103" t="str">
+        <v>172324</v>
+      </c>
+      <c r="N103">
+        <v>549</v>
+      </c>
+      <c r="O103" t="str">
+        <v>061631</v>
+      </c>
+      <c r="P103">
+        <v>585</v>
+      </c>
+      <c r="Q103" t="str">
+        <v>160226</v>
+      </c>
+      <c r="R103">
+        <v>678</v>
+      </c>
+      <c r="S103" t="str">
+        <v>215100</v>
+      </c>
+      <c r="T103">
+        <v>696</v>
+      </c>
+      <c r="U103" t="str">
+        <v>092703</v>
+      </c>
+      <c r="V103">
+        <v>773</v>
+      </c>
+      <c r="W103" t="str">
+        <v>135419</v>
+      </c>
+      <c r="X103">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>PZM</v>
+      </c>
+      <c r="B104" t="str">
+        <v>bodenroller10</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1296</v>
+      </c>
+      <c r="H104">
+        <v>1296</v>
+      </c>
+      <c r="I104" t="str">
+        <v>101611</v>
+      </c>
+      <c r="J104">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>ORQ</v>
+      </c>
+      <c r="B105" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="str">
+        <v>1,1</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>570.5</v>
+      </c>
+      <c r="H105">
+        <v>570.5</v>
+      </c>
+      <c r="I105" t="str">
+        <v>131316</v>
+      </c>
+      <c r="J105">
+        <v>154</v>
+      </c>
+      <c r="K105" t="str">
+        <v>154723</v>
+      </c>
+      <c r="L105">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>FXZ</v>
+      </c>
+      <c r="B106" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>890</v>
+      </c>
+      <c r="H106">
+        <v>890</v>
+      </c>
+      <c r="I106" t="str">
+        <v>084903</v>
+      </c>
+      <c r="J106">
+        <v>1593</v>
+      </c>
+      <c r="K106" t="str">
+        <v>115617</v>
+      </c>
+      <c r="L106">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>RWN</v>
+      </c>
+      <c r="B107" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107">
+        <v>1078</v>
+      </c>
+      <c r="H107">
+        <v>1175.5</v>
+      </c>
+      <c r="I107" t="str">
+        <v>141828</v>
+      </c>
+      <c r="J107">
+        <v>1201</v>
+      </c>
+      <c r="K107" t="str">
+        <v>192512</v>
+      </c>
+      <c r="L107">
+        <v>2045</v>
+      </c>
+      <c r="M107" t="str">
+        <v>053100</v>
+      </c>
+      <c r="N107">
+        <v>306</v>
+      </c>
+      <c r="O107" t="str">
+        <v>181111</v>
+      </c>
+      <c r="P107">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>AWO</v>
+      </c>
+      <c r="B108" t="str">
+        <v>bodenroller4</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1570.5</v>
+      </c>
+      <c r="H108">
+        <v>1570.5</v>
+      </c>
+      <c r="I108" t="str">
+        <v>101059</v>
+      </c>
+      <c r="J108">
+        <v>1547</v>
+      </c>
+      <c r="K108" t="str">
+        <v>124503</v>
+      </c>
+      <c r="L108">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Q3F</v>
+      </c>
+      <c r="B109" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="str">
+        <v>0,1</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>934.6666666666666</v>
+      </c>
+      <c r="H109">
+        <v>521</v>
+      </c>
+      <c r="I109" t="str">
+        <v>132107</v>
+      </c>
+      <c r="J109">
+        <v>1513</v>
+      </c>
+      <c r="K109" t="str">
+        <v>220230</v>
+      </c>
+      <c r="L109">
+        <v>521</v>
+      </c>
+      <c r="M109" t="str">
+        <v>231537</v>
+      </c>
+      <c r="N109">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>NFV</v>
+      </c>
+      <c r="B110" t="str">
+        <v>slide3</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="str">
+        <v>1,1,1</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>461.75</v>
+      </c>
+      <c r="H110">
+        <v>344</v>
+      </c>
+      <c r="I110" t="str">
+        <v>174527</v>
+      </c>
+      <c r="J110">
+        <v>335</v>
+      </c>
+      <c r="K110" t="str">
+        <v>233731</v>
+      </c>
+      <c r="L110">
+        <v>336</v>
+      </c>
+      <c r="M110" t="str">
+        <v>051327</v>
+      </c>
+      <c r="N110">
+        <v>352</v>
+      </c>
+      <c r="O110" t="str">
+        <v>104938</v>
+      </c>
+      <c r="P110">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>QAF</v>
+      </c>
+      <c r="B111" t="str">
+        <v>slide3</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="str">
+        <v>1,1,1</v>
+      </c>
+      <c r="F111">
+        <v>4</v>
+      </c>
+      <c r="G111">
+        <v>520.75</v>
+      </c>
+      <c r="H111">
+        <v>291</v>
+      </c>
+      <c r="I111" t="str">
+        <v>144150</v>
+      </c>
+      <c r="J111">
+        <v>1405</v>
+      </c>
+      <c r="K111" t="str">
+        <v>230456</v>
+      </c>
+      <c r="L111">
+        <v>503</v>
+      </c>
+      <c r="M111" t="str">
+        <v>223034</v>
+      </c>
+      <c r="N111">
+        <v>79</v>
+      </c>
+      <c r="O111" t="str">
+        <v>235004</v>
+      </c>
+      <c r="P111">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>BS5</v>
+      </c>
+      <c r="B112" t="str">
+        <v>slide3</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="str">
+        <v>1,1,1</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>711.5</v>
+      </c>
+      <c r="H112">
+        <v>711.5</v>
+      </c>
+      <c r="I112" t="str">
+        <v>084609</v>
+      </c>
+      <c r="J112">
+        <v>122</v>
+      </c>
+      <c r="K112" t="str">
+        <v>062807</v>
+      </c>
+      <c r="L112">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>NYX</v>
+      </c>
+      <c r="B113" t="str">
+        <v>slide3</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="str">
+        <v>0,0,1</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113">
+        <v>449</v>
+      </c>
+      <c r="H113">
+        <v>190</v>
+      </c>
+      <c r="I113" t="str">
+        <v>134112</v>
+      </c>
+      <c r="J113">
+        <v>128</v>
+      </c>
+      <c r="K113" t="str">
+        <v>193728</v>
+      </c>
+      <c r="L113">
+        <v>1796</v>
+      </c>
+      <c r="M113" t="str">
+        <v>214603</v>
+      </c>
+      <c r="N113">
+        <v>190</v>
+      </c>
+      <c r="O113" t="str">
+        <v>231204</v>
+      </c>
+      <c r="P113">
+        <v>45</v>
+      </c>
+      <c r="Q113" t="str">
+        <v>235714</v>
+      </c>
+      <c r="R113">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>2HS</v>
+      </c>
+      <c r="B114" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="str">
+        <v>0,1</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>1353.3333333333333</v>
+      </c>
+      <c r="H114">
+        <v>2352</v>
+      </c>
+      <c r="I114" t="str">
+        <v>190847</v>
+      </c>
+      <c r="J114">
+        <v>1417</v>
+      </c>
+      <c r="K114" t="str">
+        <v>000044</v>
+      </c>
+      <c r="L114">
+        <v>2352</v>
+      </c>
+      <c r="M114" t="str">
+        <v>233841</v>
+      </c>
+      <c r="N114">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
         <v>WOH</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B115" t="str">
         <v>slide2</v>
       </c>
-      <c r="C51">
+      <c r="C115">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="str">
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="str">
         <v>1,1</v>
       </c>
-      <c r="F51">
+      <c r="F115">
         <v>7</v>
       </c>
-      <c r="G51">
+      <c r="G115">
         <v>402.14285714285717</v>
       </c>
-      <c r="H51">
+      <c r="H115">
         <v>491</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I115" t="str">
         <v>044109</v>
       </c>
-      <c r="J51">
+      <c r="J115">
         <v>169</v>
       </c>
-      <c r="K51" t="str">
+      <c r="K115" t="str">
         <v>182431</v>
       </c>
-      <c r="L51">
+      <c r="L115">
         <v>400</v>
       </c>
-      <c r="M51" t="str">
+      <c r="M115" t="str">
         <v>010528</v>
       </c>
-      <c r="N51">
+      <c r="N115">
         <v>44</v>
       </c>
-      <c r="O51" t="str">
+      <c r="O115" t="str">
         <v>144817</v>
       </c>
-      <c r="P51">
+      <c r="P115">
         <v>491</v>
       </c>
-      <c r="Q51" t="str">
+      <c r="Q115" t="str">
         <v>155446</v>
       </c>
-      <c r="R51">
+      <c r="R115">
         <v>66</v>
       </c>
-      <c r="S51" t="str">
+      <c r="S115" t="str">
         <v>184431</v>
       </c>
-      <c r="T51">
+      <c r="T115">
         <v>822</v>
       </c>
-      <c r="U51" t="str">
+      <c r="U115" t="str">
         <v>025555</v>
       </c>
-      <c r="V51">
+      <c r="V115">
         <v>823</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>ALB</v>
+      </c>
+      <c r="B116" t="str">
+        <v>slide2</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0,1</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>354</v>
+      </c>
+      <c r="H116">
+        <v>354</v>
+      </c>
+      <c r="I116" t="str">
+        <v>185810</v>
+      </c>
+      <c r="J116">
+        <v>41</v>
+      </c>
+      <c r="K116" t="str">
+        <v>060534</v>
+      </c>
+      <c r="L116">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>IHT</v>
+      </c>
+      <c r="B117" t="str">
+        <v>bodenroller6</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>118</v>
+      </c>
+      <c r="H117">
+        <v>118</v>
+      </c>
+      <c r="I117" t="str">
+        <v>071615</v>
+      </c>
+      <c r="J117">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BR51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BR117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sampleData.export.xlsx
+++ b/sampleData.export.xlsx
@@ -612,34 +612,34 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>NaN</v>
+        <v>772.5</v>
       </c>
       <c r="H2">
-        <v>NaN</v>
+        <v>862.5</v>
       </c>
       <c r="I2" t="str">
         <v>084156</v>
       </c>
       <c r="J2">
-        <v>NaN</v>
+        <v>370</v>
       </c>
       <c r="K2" t="str">
         <v>222836</v>
       </c>
       <c r="L2">
-        <v>NaN</v>
+        <v>826</v>
       </c>
       <c r="M2" t="str">
         <v>043920</v>
       </c>
       <c r="N2">
-        <v>NaN</v>
+        <v>899</v>
       </c>
       <c r="O2" t="str">
         <v>193826</v>
       </c>
       <c r="P2">
-        <v>NaN</v>
+        <v>995</v>
       </c>
     </row>
     <row r="3">
@@ -662,94 +662,94 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>NaN</v>
+        <v>335.35714285714283</v>
       </c>
       <c r="H3">
-        <v>NaN</v>
+        <v>265.5</v>
       </c>
       <c r="I3" t="str">
         <v>182033</v>
       </c>
       <c r="J3">
-        <v>NaN</v>
+        <v>1041</v>
       </c>
       <c r="K3" t="str">
         <v>222739</v>
       </c>
       <c r="L3">
-        <v>NaN</v>
+        <v>116</v>
       </c>
       <c r="M3" t="str">
         <v>154906</v>
       </c>
       <c r="N3">
-        <v>NaN</v>
+        <v>131</v>
       </c>
       <c r="O3" t="str">
         <v>224413</v>
       </c>
       <c r="P3">
-        <v>NaN</v>
+        <v>159</v>
       </c>
       <c r="Q3" t="str">
         <v>024213</v>
       </c>
       <c r="R3">
-        <v>NaN</v>
+        <v>181</v>
       </c>
       <c r="S3" t="str">
         <v>103304</v>
       </c>
       <c r="T3">
-        <v>NaN</v>
+        <v>238</v>
       </c>
       <c r="U3" t="str">
         <v>131241</v>
       </c>
       <c r="V3">
-        <v>NaN</v>
+        <v>247</v>
       </c>
       <c r="W3" t="str">
         <v>175700</v>
       </c>
       <c r="X3">
-        <v>NaN</v>
+        <v>284</v>
       </c>
       <c r="Y3" t="str">
         <v>200849</v>
       </c>
       <c r="Z3">
-        <v>NaN</v>
+        <v>284</v>
       </c>
       <c r="AA3" t="str">
         <v>043935</v>
       </c>
       <c r="AB3">
-        <v>NaN</v>
+        <v>415</v>
       </c>
       <c r="AC3" t="str">
         <v>055741</v>
       </c>
       <c r="AD3">
-        <v>NaN</v>
+        <v>470</v>
       </c>
       <c r="AE3" t="str">
         <v>075415</v>
       </c>
       <c r="AF3">
-        <v>NaN</v>
+        <v>510</v>
       </c>
       <c r="AG3" t="str">
         <v>123845</v>
       </c>
       <c r="AH3">
-        <v>NaN</v>
+        <v>541</v>
       </c>
       <c r="AI3" t="str">
         <v>213947</v>
       </c>
       <c r="AJ3">
-        <v>NaN</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -772,106 +772,106 @@
         <v>16</v>
       </c>
       <c r="G4">
-        <v>NaN</v>
+        <v>314.5625</v>
       </c>
       <c r="H4">
-        <v>NaN</v>
+        <v>232.5</v>
       </c>
       <c r="I4" t="str">
         <v>145901</v>
       </c>
       <c r="J4">
-        <v>NaN</v>
+        <v>100</v>
       </c>
       <c r="K4" t="str">
         <v>162631</v>
       </c>
       <c r="L4">
-        <v>NaN</v>
+        <v>125</v>
       </c>
       <c r="M4" t="str">
         <v>183135</v>
       </c>
       <c r="N4">
-        <v>NaN</v>
+        <v>154</v>
       </c>
       <c r="O4" t="str">
         <v>222804</v>
       </c>
       <c r="P4">
-        <v>NaN</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="str">
         <v>070445</v>
       </c>
       <c r="R4">
-        <v>NaN</v>
+        <v>173</v>
       </c>
       <c r="S4" t="str">
         <v>155919</v>
       </c>
       <c r="T4">
-        <v>NaN</v>
+        <v>195</v>
       </c>
       <c r="U4" t="str">
         <v>222140</v>
       </c>
       <c r="V4">
-        <v>NaN</v>
+        <v>201</v>
       </c>
       <c r="W4" t="str">
         <v>061155</v>
       </c>
       <c r="X4">
-        <v>NaN</v>
+        <v>229</v>
       </c>
       <c r="Y4" t="str">
         <v>085444</v>
       </c>
       <c r="Z4">
-        <v>NaN</v>
+        <v>236</v>
       </c>
       <c r="AA4" t="str">
         <v>124411</v>
       </c>
       <c r="AB4">
-        <v>NaN</v>
+        <v>382</v>
       </c>
       <c r="AC4" t="str">
         <v>151856</v>
       </c>
       <c r="AD4">
-        <v>NaN</v>
+        <v>470</v>
       </c>
       <c r="AE4" t="str">
         <v>181223</v>
       </c>
       <c r="AF4">
-        <v>NaN</v>
+        <v>516</v>
       </c>
       <c r="AG4" t="str">
         <v>075421</v>
       </c>
       <c r="AH4">
-        <v>NaN</v>
+        <v>534</v>
       </c>
       <c r="AI4" t="str">
         <v>093448</v>
       </c>
       <c r="AJ4">
-        <v>NaN</v>
+        <v>648</v>
       </c>
       <c r="AK4" t="str">
         <v>125020</v>
       </c>
       <c r="AL4">
-        <v>NaN</v>
+        <v>821</v>
       </c>
       <c r="AM4" t="str">
         <v>161124</v>
       </c>
       <c r="AN4">
-        <v>NaN</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
@@ -894,16 +894,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>NaN</v>
+        <v>1501</v>
       </c>
       <c r="H5">
-        <v>NaN</v>
+        <v>1501</v>
       </c>
       <c r="I5" t="str">
         <v>074857</v>
       </c>
       <c r="J5">
-        <v>NaN</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="6">
@@ -926,16 +926,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>NaN</v>
+        <v>1433</v>
       </c>
       <c r="H6">
-        <v>NaN</v>
+        <v>1433</v>
       </c>
       <c r="I6" t="str">
         <v>133931</v>
       </c>
       <c r="J6">
-        <v>NaN</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="7">
@@ -958,16 +958,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>NaN</v>
+        <v>2024</v>
       </c>
       <c r="H7">
-        <v>NaN</v>
+        <v>2024</v>
       </c>
       <c r="I7" t="str">
         <v>215537</v>
       </c>
       <c r="J7">
-        <v>NaN</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="8">
@@ -990,16 +990,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>NaN</v>
+        <v>1636</v>
       </c>
       <c r="H8">
-        <v>NaN</v>
+        <v>1636</v>
       </c>
       <c r="I8" t="str">
         <v>221949</v>
       </c>
       <c r="J8">
-        <v>NaN</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="9">
@@ -1022,16 +1022,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>NaN</v>
+        <v>441</v>
       </c>
       <c r="H9">
-        <v>NaN</v>
+        <v>441</v>
       </c>
       <c r="I9" t="str">
         <v>151010</v>
       </c>
       <c r="J9">
-        <v>NaN</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10">
@@ -1054,46 +1054,46 @@
         <v>6</v>
       </c>
       <c r="G10">
-        <v>NaN</v>
+        <v>743.1666666666666</v>
       </c>
       <c r="H10">
-        <v>NaN</v>
+        <v>538</v>
       </c>
       <c r="I10" t="str">
         <v>065656</v>
       </c>
       <c r="J10">
-        <v>NaN</v>
+        <v>1309</v>
       </c>
       <c r="K10" t="str">
         <v>223538</v>
       </c>
       <c r="L10">
-        <v>NaN</v>
+        <v>498</v>
       </c>
       <c r="M10" t="str">
         <v>070139</v>
       </c>
       <c r="N10">
-        <v>NaN</v>
+        <v>506</v>
       </c>
       <c r="O10" t="str">
         <v>151952</v>
       </c>
       <c r="P10">
-        <v>NaN</v>
+        <v>570</v>
       </c>
       <c r="Q10" t="str">
         <v>004955</v>
       </c>
       <c r="R10">
-        <v>NaN</v>
+        <v>638</v>
       </c>
       <c r="S10" t="str">
         <v>223917</v>
       </c>
       <c r="T10">
-        <v>NaN</v>
+        <v>938</v>
       </c>
     </row>
     <row r="11">
@@ -1116,16 +1116,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>NaN</v>
+        <v>3682</v>
       </c>
       <c r="H11">
-        <v>NaN</v>
+        <v>3682</v>
       </c>
       <c r="I11" t="str">
         <v>122525</v>
       </c>
       <c r="J11">
-        <v>NaN</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="12">
@@ -1148,34 +1148,34 @@
         <v>4</v>
       </c>
       <c r="G12">
-        <v>NaN</v>
+        <v>953</v>
       </c>
       <c r="H12">
-        <v>NaN</v>
+        <v>1215.5</v>
       </c>
       <c r="I12" t="str">
         <v>201902</v>
       </c>
       <c r="J12">
-        <v>NaN</v>
+        <v>1302</v>
       </c>
       <c r="K12" t="str">
         <v>180106</v>
       </c>
       <c r="L12">
-        <v>NaN</v>
+        <v>2114</v>
       </c>
       <c r="M12" t="str">
         <v>192035</v>
       </c>
       <c r="N12">
-        <v>NaN</v>
+        <v>317</v>
       </c>
       <c r="O12" t="str">
         <v>003817</v>
       </c>
       <c r="P12">
-        <v>NaN</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -1198,22 +1198,22 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>NaN</v>
+        <v>219.5</v>
       </c>
       <c r="H13">
-        <v>NaN</v>
+        <v>219.5</v>
       </c>
       <c r="I13" t="str">
         <v>204824</v>
       </c>
       <c r="J13">
-        <v>NaN</v>
+        <v>161</v>
       </c>
       <c r="K13" t="str">
         <v>233005</v>
       </c>
       <c r="L13">
-        <v>NaN</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14">
@@ -1236,34 +1236,34 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>NaN</v>
+        <v>488</v>
       </c>
       <c r="H14">
-        <v>NaN</v>
+        <v>367.5</v>
       </c>
       <c r="I14" t="str">
         <v>173709</v>
       </c>
       <c r="J14">
-        <v>NaN</v>
+        <v>314</v>
       </c>
       <c r="K14" t="str">
         <v>230539</v>
       </c>
       <c r="L14">
-        <v>NaN</v>
+        <v>328</v>
       </c>
       <c r="M14" t="str">
         <v>042018</v>
       </c>
       <c r="N14">
-        <v>NaN</v>
+        <v>407</v>
       </c>
       <c r="O14" t="str">
         <v>192337</v>
       </c>
       <c r="P14">
-        <v>NaN</v>
+        <v>903</v>
       </c>
     </row>
     <row r="15">
@@ -1286,40 +1286,40 @@
         <v>5</v>
       </c>
       <c r="G15">
-        <v>NaN</v>
+        <v>555.6</v>
       </c>
       <c r="H15">
-        <v>NaN</v>
+        <v>432</v>
       </c>
       <c r="I15" t="str">
         <v>230831</v>
       </c>
       <c r="J15">
-        <v>NaN</v>
+        <v>176</v>
       </c>
       <c r="K15" t="str">
         <v>145633</v>
       </c>
       <c r="L15">
-        <v>NaN</v>
+        <v>316</v>
       </c>
       <c r="M15" t="str">
         <v>201311</v>
       </c>
       <c r="N15">
-        <v>NaN</v>
+        <v>432</v>
       </c>
       <c r="O15" t="str">
         <v>111917</v>
       </c>
       <c r="P15">
-        <v>NaN</v>
+        <v>906</v>
       </c>
       <c r="Q15" t="str">
         <v>183119</v>
       </c>
       <c r="R15">
-        <v>NaN</v>
+        <v>948</v>
       </c>
     </row>
     <row r="16">
@@ -1342,70 +1342,70 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>NaN</v>
+        <v>291.9</v>
       </c>
       <c r="H16">
-        <v>NaN</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="str">
         <v>100435</v>
       </c>
       <c r="J16">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
         <v>213544</v>
       </c>
       <c r="L16">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M16" t="str">
         <v>213546</v>
       </c>
       <c r="N16">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="O16" t="str">
         <v>100148</v>
       </c>
       <c r="P16">
-        <v>NaN</v>
+        <v>1447</v>
       </c>
       <c r="Q16" t="str">
         <v>100903</v>
       </c>
       <c r="R16">
-        <v>NaN</v>
+        <v>19</v>
       </c>
       <c r="S16" t="str">
         <v>101329</v>
       </c>
       <c r="T16">
-        <v>NaN</v>
+        <v>4</v>
       </c>
       <c r="U16" t="str">
         <v>101749</v>
       </c>
       <c r="V16">
-        <v>NaN</v>
+        <v>4</v>
       </c>
       <c r="W16" t="str">
         <v>101817</v>
       </c>
       <c r="X16">
-        <v>NaN</v>
+        <v>691</v>
       </c>
       <c r="Y16" t="str">
         <v>102010</v>
       </c>
       <c r="Z16">
-        <v>NaN</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="str">
         <v>102808</v>
       </c>
       <c r="AB16">
-        <v>NaN</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17">
@@ -1428,28 +1428,28 @@
         <v>3</v>
       </c>
       <c r="G17">
-        <v>NaN</v>
+        <v>349</v>
       </c>
       <c r="H17">
-        <v>NaN</v>
+        <v>70</v>
       </c>
       <c r="I17" t="str">
         <v>193225</v>
       </c>
       <c r="J17">
-        <v>NaN</v>
+        <v>114</v>
       </c>
       <c r="K17" t="str">
         <v>095539</v>
       </c>
       <c r="L17">
-        <v>NaN</v>
+        <v>70</v>
       </c>
       <c r="M17" t="str">
         <v>115019</v>
       </c>
       <c r="N17">
-        <v>NaN</v>
+        <v>863</v>
       </c>
     </row>
     <row r="18">
@@ -1472,112 +1472,112 @@
         <v>17</v>
       </c>
       <c r="G18">
-        <v>NaN</v>
+        <v>276.3529411764706</v>
       </c>
       <c r="H18">
-        <v>NaN</v>
+        <v>248</v>
       </c>
       <c r="I18" t="str">
         <v>124242</v>
       </c>
       <c r="J18">
-        <v>NaN</v>
+        <v>103</v>
       </c>
       <c r="K18" t="str">
         <v>145214</v>
       </c>
       <c r="L18">
-        <v>NaN</v>
+        <v>103</v>
       </c>
       <c r="M18" t="str">
         <v>163549</v>
       </c>
       <c r="N18">
-        <v>NaN</v>
+        <v>129</v>
       </c>
       <c r="O18" t="str">
         <v>071743</v>
       </c>
       <c r="P18">
-        <v>NaN</v>
+        <v>132</v>
       </c>
       <c r="Q18" t="str">
         <v>111937</v>
       </c>
       <c r="R18">
-        <v>NaN</v>
+        <v>157</v>
       </c>
       <c r="S18" t="str">
         <v>135710</v>
       </c>
       <c r="T18">
-        <v>NaN</v>
+        <v>170</v>
       </c>
       <c r="U18" t="str">
         <v>180513</v>
       </c>
       <c r="V18">
-        <v>NaN</v>
+        <v>176</v>
       </c>
       <c r="W18" t="str">
         <v>205552</v>
       </c>
       <c r="X18">
-        <v>NaN</v>
+        <v>241</v>
       </c>
       <c r="Y18" t="str">
         <v>042800</v>
       </c>
       <c r="Z18">
-        <v>NaN</v>
+        <v>248</v>
       </c>
       <c r="AA18" t="str">
         <v>105601</v>
       </c>
       <c r="AB18">
-        <v>NaN</v>
+        <v>388</v>
       </c>
       <c r="AC18" t="str">
         <v>135242</v>
       </c>
       <c r="AD18">
-        <v>NaN</v>
+        <v>452</v>
       </c>
       <c r="AE18" t="str">
         <v>030811</v>
       </c>
       <c r="AF18">
-        <v>NaN</v>
+        <v>488</v>
       </c>
       <c r="AG18" t="str">
         <v>052021</v>
       </c>
       <c r="AH18">
-        <v>NaN</v>
+        <v>73</v>
       </c>
       <c r="AI18" t="str">
         <v>063833</v>
       </c>
       <c r="AJ18">
-        <v>NaN</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="str">
         <v>082152</v>
       </c>
       <c r="AL18">
-        <v>NaN</v>
+        <v>795</v>
       </c>
       <c r="AM18" t="str">
         <v>163011</v>
       </c>
       <c r="AN18">
-        <v>NaN</v>
+        <v>84</v>
       </c>
       <c r="AO18" t="str">
         <v>175424</v>
       </c>
       <c r="AP18">
-        <v>NaN</v>
+        <v>881</v>
       </c>
     </row>
     <row r="19">
@@ -1600,100 +1600,100 @@
         <v>15</v>
       </c>
       <c r="G19">
-        <v>NaN</v>
+        <v>319.8666666666667</v>
       </c>
       <c r="H19">
-        <v>NaN</v>
+        <v>231</v>
       </c>
       <c r="I19" t="str">
         <v>095823</v>
       </c>
       <c r="J19">
-        <v>NaN</v>
+        <v>10</v>
       </c>
       <c r="K19" t="str">
         <v>131839</v>
       </c>
       <c r="L19">
-        <v>NaN</v>
+        <v>138</v>
       </c>
       <c r="M19" t="str">
         <v>144107</v>
       </c>
       <c r="N19">
-        <v>NaN</v>
+        <v>140</v>
       </c>
       <c r="O19" t="str">
         <v>183230</v>
       </c>
       <c r="P19">
-        <v>NaN</v>
+        <v>151</v>
       </c>
       <c r="Q19" t="str">
         <v>184311</v>
       </c>
       <c r="R19">
-        <v>NaN</v>
+        <v>1518</v>
       </c>
       <c r="S19" t="str">
         <v>061550</v>
       </c>
       <c r="T19">
-        <v>NaN</v>
+        <v>18</v>
       </c>
       <c r="U19" t="str">
         <v>062302</v>
       </c>
       <c r="V19">
-        <v>NaN</v>
+        <v>200</v>
       </c>
       <c r="W19" t="str">
         <v>084200</v>
       </c>
       <c r="X19">
-        <v>NaN</v>
+        <v>231</v>
       </c>
       <c r="Y19" t="str">
         <v>090045</v>
       </c>
       <c r="Z19">
-        <v>NaN</v>
+        <v>284</v>
       </c>
       <c r="AA19" t="str">
         <v>095141</v>
       </c>
       <c r="AB19">
-        <v>NaN</v>
+        <v>329</v>
       </c>
       <c r="AC19" t="str">
         <v>152051</v>
       </c>
       <c r="AD19">
-        <v>NaN</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="str">
         <v>175230</v>
       </c>
       <c r="AF19">
-        <v>NaN</v>
+        <v>692</v>
       </c>
       <c r="AG19" t="str">
         <v>094124</v>
       </c>
       <c r="AH19">
-        <v>NaN</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="str">
         <v>120223</v>
       </c>
       <c r="AJ19">
-        <v>NaN</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="str">
         <v>164711</v>
       </c>
       <c r="AL19">
-        <v>NaN</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20">
@@ -1716,52 +1716,52 @@
         <v>7</v>
       </c>
       <c r="G20">
-        <v>NaN</v>
+        <v>660.2857142857143</v>
       </c>
       <c r="H20">
-        <v>NaN</v>
+        <v>410</v>
       </c>
       <c r="I20" t="str">
         <v>144513</v>
       </c>
       <c r="J20">
-        <v>NaN</v>
+        <v>122</v>
       </c>
       <c r="K20" t="str">
         <v>213542</v>
       </c>
       <c r="L20">
-        <v>NaN</v>
+        <v>1942</v>
       </c>
       <c r="M20" t="str">
         <v>111951</v>
       </c>
       <c r="N20">
-        <v>NaN</v>
+        <v>200</v>
       </c>
       <c r="O20" t="str">
         <v>205658</v>
       </c>
       <c r="P20">
-        <v>NaN</v>
+        <v>410</v>
       </c>
       <c r="Q20" t="str">
         <v>051941</v>
       </c>
       <c r="R20">
-        <v>NaN</v>
+        <v>547</v>
       </c>
       <c r="S20" t="str">
         <v>072238</v>
       </c>
       <c r="T20">
-        <v>NaN</v>
+        <v>577</v>
       </c>
       <c r="U20" t="str">
         <v>163003</v>
       </c>
       <c r="V20">
-        <v>NaN</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21">
@@ -1784,40 +1784,40 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>NaN</v>
+        <v>251.6</v>
       </c>
       <c r="H21">
-        <v>NaN</v>
+        <v>26</v>
       </c>
       <c r="I21" t="str">
         <v>142542</v>
       </c>
       <c r="J21">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K21" t="str">
         <v>181323</v>
       </c>
       <c r="L21">
-        <v>NaN</v>
+        <v>227</v>
       </c>
       <c r="M21" t="str">
         <v>183952</v>
       </c>
       <c r="N21">
-        <v>NaN</v>
+        <v>26</v>
       </c>
       <c r="O21" t="str">
         <v>065036</v>
       </c>
       <c r="P21">
-        <v>NaN</v>
+        <v>275</v>
       </c>
       <c r="Q21" t="str">
         <v>065112</v>
       </c>
       <c r="R21">
-        <v>NaN</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22">
@@ -1840,34 +1840,34 @@
         <v>4</v>
       </c>
       <c r="G22">
-        <v>NaN</v>
+        <v>365.25</v>
       </c>
       <c r="H22">
-        <v>NaN</v>
+        <v>221.5</v>
       </c>
       <c r="I22" t="str">
         <v>153706</v>
       </c>
       <c r="J22">
-        <v>NaN</v>
+        <v>119</v>
       </c>
       <c r="K22" t="str">
         <v>175630</v>
       </c>
       <c r="L22">
-        <v>NaN</v>
+        <v>139</v>
       </c>
       <c r="M22" t="str">
         <v>085612</v>
       </c>
       <c r="N22">
-        <v>NaN</v>
+        <v>304</v>
       </c>
       <c r="O22" t="str">
         <v>105539</v>
       </c>
       <c r="P22">
-        <v>NaN</v>
+        <v>899</v>
       </c>
     </row>
     <row r="23">
@@ -1890,16 +1890,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>NaN</v>
+        <v>123</v>
       </c>
       <c r="H23">
-        <v>NaN</v>
+        <v>123</v>
       </c>
       <c r="I23" t="str">
         <v>113712</v>
       </c>
       <c r="J23">
-        <v>NaN</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24">
@@ -1922,16 +1922,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>NaN</v>
+        <v>1191</v>
       </c>
       <c r="H24">
-        <v>NaN</v>
+        <v>1191</v>
       </c>
       <c r="I24" t="str">
         <v>115933</v>
       </c>
       <c r="J24">
-        <v>NaN</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="25">
@@ -1954,16 +1954,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>NaN</v>
+        <v>1630</v>
       </c>
       <c r="H25">
-        <v>NaN</v>
+        <v>1630</v>
       </c>
       <c r="I25" t="str">
         <v>102941</v>
       </c>
       <c r="J25">
-        <v>NaN</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26">
@@ -1986,16 +1986,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>NaN</v>
+        <v>770</v>
       </c>
       <c r="H26">
-        <v>NaN</v>
+        <v>770</v>
       </c>
       <c r="I26" t="str">
         <v>152415</v>
       </c>
       <c r="J26">
-        <v>NaN</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27">
@@ -2018,28 +2018,28 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>NaN</v>
+        <v>855.6666666666666</v>
       </c>
       <c r="H27">
-        <v>NaN</v>
+        <v>1469</v>
       </c>
       <c r="I27" t="str">
         <v>041515</v>
       </c>
       <c r="J27">
-        <v>NaN</v>
+        <v>1023</v>
       </c>
       <c r="K27" t="str">
         <v>044433</v>
       </c>
       <c r="L27">
-        <v>NaN</v>
+        <v>1469</v>
       </c>
       <c r="M27" t="str">
         <v>214820</v>
       </c>
       <c r="N27">
-        <v>NaN</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -2062,16 +2062,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>NaN</v>
+        <v>2319</v>
       </c>
       <c r="H28">
-        <v>NaN</v>
+        <v>2319</v>
       </c>
       <c r="I28" t="str">
         <v>214143</v>
       </c>
       <c r="J28">
-        <v>NaN</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="29">
@@ -2094,16 +2094,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>NaN</v>
+        <v>1631</v>
       </c>
       <c r="H29">
-        <v>NaN</v>
+        <v>1631</v>
       </c>
       <c r="I29" t="str">
         <v>093149</v>
       </c>
       <c r="J29">
-        <v>NaN</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="30">
@@ -2126,118 +2126,118 @@
         <v>18</v>
       </c>
       <c r="G30">
-        <v>NaN</v>
+        <v>272.3333333333333</v>
       </c>
       <c r="H30">
-        <v>NaN</v>
+        <v>206.5</v>
       </c>
       <c r="I30" t="str">
         <v>142103</v>
       </c>
       <c r="J30">
-        <v>NaN</v>
+        <v>147</v>
       </c>
       <c r="K30" t="str">
         <v>173213</v>
       </c>
       <c r="L30">
-        <v>NaN</v>
+        <v>159</v>
       </c>
       <c r="M30" t="str">
         <v>202503</v>
       </c>
       <c r="N30">
-        <v>NaN</v>
+        <v>169</v>
       </c>
       <c r="O30" t="str">
         <v>003754</v>
       </c>
       <c r="P30">
-        <v>NaN</v>
+        <v>170</v>
       </c>
       <c r="Q30" t="str">
         <v>032811</v>
       </c>
       <c r="R30">
-        <v>NaN</v>
+        <v>172</v>
       </c>
       <c r="S30" t="str">
         <v>063038</v>
       </c>
       <c r="T30">
-        <v>NaN</v>
+        <v>182</v>
       </c>
       <c r="U30" t="str">
         <v>100103</v>
       </c>
       <c r="V30">
-        <v>NaN</v>
+        <v>188</v>
       </c>
       <c r="W30" t="str">
         <v>003130</v>
       </c>
       <c r="X30">
-        <v>NaN</v>
+        <v>191</v>
       </c>
       <c r="Y30" t="str">
         <v>032048</v>
       </c>
       <c r="Z30">
-        <v>NaN</v>
+        <v>203</v>
       </c>
       <c r="AA30" t="str">
         <v>070113</v>
       </c>
       <c r="AB30">
-        <v>NaN</v>
+        <v>210</v>
       </c>
       <c r="AC30" t="str">
         <v>092903</v>
       </c>
       <c r="AD30">
-        <v>NaN</v>
+        <v>220</v>
       </c>
       <c r="AE30" t="str">
         <v>125214</v>
       </c>
       <c r="AF30">
-        <v>NaN</v>
+        <v>225</v>
       </c>
       <c r="AG30" t="str">
         <v>192534</v>
       </c>
       <c r="AH30">
-        <v>NaN</v>
+        <v>252</v>
       </c>
       <c r="AI30" t="str">
         <v>000701</v>
       </c>
       <c r="AJ30">
-        <v>NaN</v>
+        <v>254</v>
       </c>
       <c r="AK30" t="str">
         <v>042137</v>
       </c>
       <c r="AL30">
-        <v>NaN</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="str">
         <v>143808</v>
       </c>
       <c r="AN30">
-        <v>NaN</v>
+        <v>393</v>
       </c>
       <c r="AO30" t="str">
         <v>171745</v>
       </c>
       <c r="AP30">
-        <v>NaN</v>
+        <v>616</v>
       </c>
       <c r="AQ30" t="str">
         <v>202551</v>
       </c>
       <c r="AR30">
-        <v>NaN</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31">
@@ -2260,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>NaN</v>
+        <v>578</v>
       </c>
       <c r="H31">
-        <v>NaN</v>
+        <v>578</v>
       </c>
       <c r="I31" t="str">
         <v>194352</v>
       </c>
       <c r="J31">
-        <v>NaN</v>
+        <v>578</v>
       </c>
     </row>
     <row r="32">
@@ -2292,28 +2292,28 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>NaN</v>
+        <v>315</v>
       </c>
       <c r="H32">
-        <v>NaN</v>
+        <v>430</v>
       </c>
       <c r="I32" t="str">
         <v>062026</v>
       </c>
       <c r="J32">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K32" t="str">
         <v>145551</v>
       </c>
       <c r="L32">
-        <v>NaN</v>
+        <v>430</v>
       </c>
       <c r="M32" t="str">
         <v>220608</v>
       </c>
       <c r="N32">
-        <v>NaN</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33">
@@ -2336,40 +2336,40 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <v>NaN</v>
+        <v>1078</v>
       </c>
       <c r="H33">
-        <v>NaN</v>
+        <v>1521</v>
       </c>
       <c r="I33" t="str">
         <v>050249</v>
       </c>
       <c r="J33">
-        <v>NaN</v>
+        <v>1068</v>
       </c>
       <c r="K33" t="str">
         <v>200344</v>
       </c>
       <c r="L33">
-        <v>NaN</v>
+        <v>111</v>
       </c>
       <c r="M33" t="str">
         <v>135158</v>
       </c>
       <c r="N33">
-        <v>NaN</v>
+        <v>1521</v>
       </c>
       <c r="O33" t="str">
         <v>194233</v>
       </c>
       <c r="P33">
-        <v>NaN</v>
+        <v>2340</v>
       </c>
       <c r="Q33" t="str">
         <v>213425</v>
       </c>
       <c r="R33">
-        <v>NaN</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34">
@@ -2392,70 +2392,70 @@
         <v>10</v>
       </c>
       <c r="G34">
-        <v>NaN</v>
+        <v>530</v>
       </c>
       <c r="H34">
-        <v>NaN</v>
+        <v>463</v>
       </c>
       <c r="I34" t="str">
         <v>125617</v>
       </c>
       <c r="J34">
-        <v>NaN</v>
+        <v>266</v>
       </c>
       <c r="K34" t="str">
         <v>192123</v>
       </c>
       <c r="L34">
-        <v>NaN</v>
+        <v>385</v>
       </c>
       <c r="M34" t="str">
         <v>023045</v>
       </c>
       <c r="N34">
-        <v>NaN</v>
+        <v>396</v>
       </c>
       <c r="O34" t="str">
         <v>100153</v>
       </c>
       <c r="P34">
-        <v>NaN</v>
+        <v>429</v>
       </c>
       <c r="Q34" t="str">
         <v>003047</v>
       </c>
       <c r="R34">
-        <v>NaN</v>
+        <v>451</v>
       </c>
       <c r="S34" t="str">
         <v>045721</v>
       </c>
       <c r="T34">
-        <v>NaN</v>
+        <v>475</v>
       </c>
       <c r="U34" t="str">
         <v>125254</v>
       </c>
       <c r="V34">
-        <v>NaN</v>
+        <v>482</v>
       </c>
       <c r="W34" t="str">
         <v>000639</v>
       </c>
       <c r="X34">
-        <v>NaN</v>
+        <v>673</v>
       </c>
       <c r="Y34" t="str">
         <v>144212</v>
       </c>
       <c r="Z34">
-        <v>NaN</v>
+        <v>868</v>
       </c>
       <c r="AA34" t="str">
         <v>211905</v>
       </c>
       <c r="AB34">
-        <v>NaN</v>
+        <v>875</v>
       </c>
     </row>
     <row r="35">
@@ -2478,148 +2478,148 @@
         <v>23</v>
       </c>
       <c r="G35">
-        <v>NaN</v>
+        <v>212.47826086956522</v>
       </c>
       <c r="H35">
-        <v>NaN</v>
+        <v>158</v>
       </c>
       <c r="I35" t="str">
         <v>160750</v>
       </c>
       <c r="J35">
-        <v>NaN</v>
+        <v>102</v>
       </c>
       <c r="K35" t="str">
         <v>184617</v>
       </c>
       <c r="L35">
-        <v>NaN</v>
+        <v>111</v>
       </c>
       <c r="M35" t="str">
         <v>212839</v>
       </c>
       <c r="N35">
-        <v>NaN</v>
+        <v>112</v>
       </c>
       <c r="O35" t="str">
         <v>232013</v>
       </c>
       <c r="P35">
-        <v>NaN</v>
+        <v>119</v>
       </c>
       <c r="Q35" t="str">
         <v>015655</v>
       </c>
       <c r="R35">
-        <v>NaN</v>
+        <v>121</v>
       </c>
       <c r="S35" t="str">
         <v>040844</v>
       </c>
       <c r="T35">
-        <v>NaN</v>
+        <v>131</v>
       </c>
       <c r="U35" t="str">
         <v>073905</v>
       </c>
       <c r="V35">
-        <v>NaN</v>
+        <v>142</v>
       </c>
       <c r="W35" t="str">
         <v>103117</v>
       </c>
       <c r="X35">
-        <v>NaN</v>
+        <v>148</v>
       </c>
       <c r="Y35" t="str">
         <v>125355</v>
       </c>
       <c r="Z35">
-        <v>NaN</v>
+        <v>154</v>
       </c>
       <c r="AA35" t="str">
         <v>143653</v>
       </c>
       <c r="AB35">
-        <v>NaN</v>
+        <v>155</v>
       </c>
       <c r="AC35" t="str">
         <v>172031</v>
       </c>
       <c r="AD35">
-        <v>NaN</v>
+        <v>156</v>
       </c>
       <c r="AE35" t="str">
         <v>065619</v>
       </c>
       <c r="AF35">
-        <v>NaN</v>
+        <v>158</v>
       </c>
       <c r="AG35" t="str">
         <v>085612</v>
       </c>
       <c r="AH35">
-        <v>NaN</v>
+        <v>162</v>
       </c>
       <c r="AI35" t="str">
         <v>113051</v>
       </c>
       <c r="AJ35">
-        <v>NaN</v>
+        <v>163</v>
       </c>
       <c r="AK35" t="str">
         <v>162114</v>
       </c>
       <c r="AL35">
-        <v>NaN</v>
+        <v>163</v>
       </c>
       <c r="AM35" t="str">
         <v>200058</v>
       </c>
       <c r="AN35">
-        <v>NaN</v>
+        <v>171</v>
       </c>
       <c r="AO35" t="str">
         <v>231332</v>
       </c>
       <c r="AP35">
-        <v>NaN</v>
+        <v>172</v>
       </c>
       <c r="AQ35" t="str">
         <v>020518</v>
       </c>
       <c r="AR35">
-        <v>NaN</v>
+        <v>192</v>
       </c>
       <c r="AS35" t="str">
         <v>140656</v>
       </c>
       <c r="AT35">
-        <v>NaN</v>
+        <v>210</v>
       </c>
       <c r="AU35" t="str">
         <v>160841</v>
       </c>
       <c r="AV35">
-        <v>NaN</v>
+        <v>219</v>
       </c>
       <c r="AW35" t="str">
         <v>180050</v>
       </c>
       <c r="AX35">
-        <v>NaN</v>
+        <v>290</v>
       </c>
       <c r="AY35" t="str">
         <v>202919</v>
       </c>
       <c r="AZ35">
-        <v>NaN</v>
+        <v>721</v>
       </c>
       <c r="BA35" t="str">
         <v>230443</v>
       </c>
       <c r="BB35">
-        <v>NaN</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36">
@@ -2642,52 +2642,52 @@
         <v>7</v>
       </c>
       <c r="G36">
-        <v>NaN</v>
+        <v>704.4285714285714</v>
       </c>
       <c r="H36">
-        <v>NaN</v>
+        <v>394</v>
       </c>
       <c r="I36" t="str">
         <v>014515</v>
       </c>
       <c r="J36">
-        <v>NaN</v>
+        <v>1350</v>
       </c>
       <c r="K36" t="str">
         <v>051509</v>
       </c>
       <c r="L36">
-        <v>NaN</v>
+        <v>209</v>
       </c>
       <c r="M36" t="str">
         <v>034538</v>
       </c>
       <c r="N36">
-        <v>NaN</v>
+        <v>315</v>
       </c>
       <c r="O36" t="str">
         <v>090131</v>
       </c>
       <c r="P36">
-        <v>NaN</v>
+        <v>394</v>
       </c>
       <c r="Q36" t="str">
         <v>220723</v>
       </c>
       <c r="R36">
-        <v>NaN</v>
+        <v>785</v>
       </c>
       <c r="S36" t="str">
         <v>044219</v>
       </c>
       <c r="T36">
-        <v>NaN</v>
+        <v>928</v>
       </c>
       <c r="U36" t="str">
         <v>201107</v>
       </c>
       <c r="V36">
-        <v>NaN</v>
+        <v>950</v>
       </c>
     </row>
     <row r="37">
@@ -2710,46 +2710,46 @@
         <v>6</v>
       </c>
       <c r="G37">
-        <v>NaN</v>
+        <v>567.1666666666666</v>
       </c>
       <c r="H37">
-        <v>NaN</v>
+        <v>852</v>
       </c>
       <c r="I37" t="str">
         <v>042635</v>
       </c>
       <c r="J37">
-        <v>NaN</v>
+        <v>62</v>
       </c>
       <c r="K37" t="str">
         <v>052847</v>
       </c>
       <c r="L37">
-        <v>NaN</v>
+        <v>621</v>
       </c>
       <c r="M37" t="str">
         <v>190304</v>
       </c>
       <c r="N37">
-        <v>NaN</v>
+        <v>814</v>
       </c>
       <c r="O37" t="str">
         <v>052405</v>
       </c>
       <c r="P37">
-        <v>NaN</v>
+        <v>890</v>
       </c>
       <c r="Q37" t="str">
         <v>065705</v>
       </c>
       <c r="R37">
-        <v>NaN</v>
+        <v>923</v>
       </c>
       <c r="S37" t="str">
         <v>222040</v>
       </c>
       <c r="T37">
-        <v>NaN</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -2772,40 +2772,40 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>NaN</v>
+        <v>631.8</v>
       </c>
       <c r="H38">
-        <v>NaN</v>
+        <v>347</v>
       </c>
       <c r="I38" t="str">
         <v>080421</v>
       </c>
       <c r="J38">
-        <v>NaN</v>
+        <v>1215</v>
       </c>
       <c r="K38" t="str">
         <v>041959</v>
       </c>
       <c r="L38">
-        <v>NaN</v>
+        <v>175</v>
       </c>
       <c r="M38" t="str">
         <v>071510</v>
       </c>
       <c r="N38">
-        <v>NaN</v>
+        <v>347</v>
       </c>
       <c r="O38" t="str">
         <v>180511</v>
       </c>
       <c r="P38">
-        <v>NaN</v>
+        <v>650</v>
       </c>
       <c r="Q38" t="str">
         <v>065735</v>
       </c>
       <c r="R38">
-        <v>NaN</v>
+        <v>772</v>
       </c>
     </row>
     <row r="39">
@@ -2828,34 +2828,34 @@
         <v>4</v>
       </c>
       <c r="G39">
-        <v>NaN</v>
+        <v>872.5</v>
       </c>
       <c r="H39">
-        <v>NaN</v>
+        <v>545.5</v>
       </c>
       <c r="I39" t="str">
         <v>145642</v>
       </c>
       <c r="J39">
-        <v>NaN</v>
+        <v>1421</v>
       </c>
       <c r="K39" t="str">
         <v>071519</v>
       </c>
       <c r="L39">
-        <v>NaN</v>
+        <v>414</v>
       </c>
       <c r="M39" t="str">
         <v>065708</v>
       </c>
       <c r="N39">
-        <v>NaN</v>
+        <v>677</v>
       </c>
       <c r="O39" t="str">
         <v>181438</v>
       </c>
       <c r="P39">
-        <v>NaN</v>
+        <v>978</v>
       </c>
     </row>
     <row r="40">
@@ -2878,58 +2878,58 @@
         <v>8</v>
       </c>
       <c r="G40">
-        <v>NaN</v>
+        <v>359.875</v>
       </c>
       <c r="H40">
-        <v>NaN</v>
+        <v>918.5</v>
       </c>
       <c r="I40" t="str">
         <v>143419</v>
       </c>
       <c r="J40">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K40" t="str">
         <v>154131</v>
       </c>
       <c r="L40">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M40" t="str">
         <v>164355</v>
       </c>
       <c r="N40">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="O40" t="str">
         <v>023539</v>
       </c>
       <c r="P40">
-        <v>NaN</v>
+        <v>1507</v>
       </c>
       <c r="Q40" t="str">
         <v>023545</v>
       </c>
       <c r="R40">
-        <v>NaN</v>
+        <v>330</v>
       </c>
       <c r="S40" t="str">
         <v>080613</v>
       </c>
       <c r="T40">
-        <v>NaN</v>
+        <v>388</v>
       </c>
       <c r="U40" t="str">
         <v>080615</v>
       </c>
       <c r="V40">
-        <v>NaN</v>
+        <v>591</v>
       </c>
       <c r="W40" t="str">
         <v>080716</v>
       </c>
       <c r="X40">
-        <v>NaN</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
@@ -2952,16 +2952,16 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>NaN</v>
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>NaN</v>
+        <v>45</v>
       </c>
       <c r="I41" t="str">
         <v>184426</v>
       </c>
       <c r="J41">
-        <v>NaN</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -2984,76 +2984,76 @@
         <v>11</v>
       </c>
       <c r="G42">
-        <v>NaN</v>
+        <v>331.90909090909093</v>
       </c>
       <c r="H42">
-        <v>NaN</v>
+        <v>118</v>
       </c>
       <c r="I42" t="str">
         <v>214713</v>
       </c>
       <c r="J42">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K42" t="str">
         <v>222231</v>
       </c>
       <c r="L42">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M42" t="str">
         <v>222234</v>
       </c>
       <c r="N42">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="O42" t="str">
         <v>080417</v>
       </c>
       <c r="P42">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="str">
         <v>080418</v>
       </c>
       <c r="R42">
-        <v>NaN</v>
+        <v>107</v>
       </c>
       <c r="S42" t="str">
         <v>080420</v>
       </c>
       <c r="T42">
-        <v>NaN</v>
+        <v>118</v>
       </c>
       <c r="U42" t="str">
         <v>073149</v>
       </c>
       <c r="V42">
-        <v>NaN</v>
+        <v>1407</v>
       </c>
       <c r="W42" t="str">
         <v>073150</v>
       </c>
       <c r="X42">
-        <v>NaN</v>
+        <v>35</v>
       </c>
       <c r="Y42" t="str">
         <v>091900</v>
       </c>
       <c r="Z42">
-        <v>NaN</v>
+        <v>581</v>
       </c>
       <c r="AA42" t="str">
         <v>111711</v>
       </c>
       <c r="AB42">
-        <v>NaN</v>
+        <v>589</v>
       </c>
       <c r="AC42" t="str">
         <v>210622</v>
       </c>
       <c r="AD42">
-        <v>NaN</v>
+        <v>814</v>
       </c>
     </row>
     <row r="43">
@@ -3076,34 +3076,34 @@
         <v>4</v>
       </c>
       <c r="G43">
-        <v>NaN</v>
+        <v>709.5</v>
       </c>
       <c r="H43">
-        <v>NaN</v>
+        <v>1056.5</v>
       </c>
       <c r="I43" t="str">
         <v>080451</v>
       </c>
       <c r="J43">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K43" t="str">
         <v>192600</v>
       </c>
       <c r="L43">
-        <v>NaN</v>
+        <v>1432</v>
       </c>
       <c r="M43" t="str">
         <v>073123</v>
       </c>
       <c r="N43">
-        <v>NaN</v>
+        <v>681</v>
       </c>
       <c r="O43" t="str">
         <v>073126</v>
       </c>
       <c r="P43">
-        <v>NaN</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44">
@@ -3126,46 +3126,46 @@
         <v>6</v>
       </c>
       <c r="G44">
-        <v>NaN</v>
+        <v>539.8333333333334</v>
       </c>
       <c r="H44">
-        <v>NaN</v>
+        <v>1302</v>
       </c>
       <c r="I44" t="str">
         <v>052156</v>
       </c>
       <c r="J44">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K44" t="str">
         <v>070505</v>
       </c>
       <c r="L44">
-        <v>NaN</v>
+        <v>103</v>
       </c>
       <c r="M44" t="str">
         <v>145119</v>
       </c>
       <c r="N44">
-        <v>NaN</v>
+        <v>1269</v>
       </c>
       <c r="O44" t="str">
         <v>145124</v>
       </c>
       <c r="P44">
-        <v>NaN</v>
+        <v>1335</v>
       </c>
       <c r="Q44" t="str">
         <v>155743</v>
       </c>
       <c r="R44">
-        <v>NaN</v>
+        <v>466</v>
       </c>
       <c r="S44" t="str">
         <v>141257</v>
       </c>
       <c r="T44">
-        <v>NaN</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45">
@@ -3188,16 +3188,16 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>NaN</v>
+        <v>2947</v>
       </c>
       <c r="H45">
-        <v>NaN</v>
+        <v>2947</v>
       </c>
       <c r="I45" t="str">
         <v>092005</v>
       </c>
       <c r="J45">
-        <v>NaN</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="46">
@@ -3220,28 +3220,28 @@
         <v>3</v>
       </c>
       <c r="G46">
-        <v>NaN</v>
+        <v>981.6666666666666</v>
       </c>
       <c r="H46">
-        <v>NaN</v>
+        <v>1470</v>
       </c>
       <c r="I46" t="str">
         <v>084307</v>
       </c>
       <c r="J46">
-        <v>NaN</v>
+        <v>1237</v>
       </c>
       <c r="K46" t="str">
         <v>052106</v>
       </c>
       <c r="L46">
-        <v>NaN</v>
+        <v>1470</v>
       </c>
       <c r="M46" t="str">
         <v>091910</v>
       </c>
       <c r="N46">
-        <v>NaN</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47">
@@ -3264,22 +3264,22 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <v>NaN</v>
+        <v>770.5</v>
       </c>
       <c r="H47">
-        <v>NaN</v>
+        <v>770.5</v>
       </c>
       <c r="I47" t="str">
         <v>081220</v>
       </c>
       <c r="J47">
-        <v>NaN</v>
+        <v>1269</v>
       </c>
       <c r="K47" t="str">
         <v>052152</v>
       </c>
       <c r="L47">
-        <v>NaN</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48">
@@ -3302,22 +3302,22 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>NaN</v>
+        <v>2041</v>
       </c>
       <c r="H48">
-        <v>NaN</v>
+        <v>2041</v>
       </c>
       <c r="I48" t="str">
         <v>201643</v>
       </c>
       <c r="J48">
-        <v>NaN</v>
+        <v>1072</v>
       </c>
       <c r="K48" t="str">
         <v>140935</v>
       </c>
       <c r="L48">
-        <v>NaN</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="49">
@@ -3340,22 +3340,22 @@
         <v>2</v>
       </c>
       <c r="G49">
-        <v>NaN</v>
+        <v>2071</v>
       </c>
       <c r="H49">
-        <v>NaN</v>
+        <v>2071</v>
       </c>
       <c r="I49" t="str">
         <v>022520</v>
       </c>
       <c r="J49">
-        <v>NaN</v>
+        <v>3311</v>
       </c>
       <c r="K49" t="str">
         <v>161629</v>
       </c>
       <c r="L49">
-        <v>NaN</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50">
@@ -3378,16 +3378,16 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>NaN</v>
+        <v>468</v>
       </c>
       <c r="H50">
-        <v>NaN</v>
+        <v>468</v>
       </c>
       <c r="I50" t="str">
         <v>082105</v>
       </c>
       <c r="J50">
-        <v>NaN</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51">
@@ -3410,16 +3410,16 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>NaN</v>
+        <v>426</v>
       </c>
       <c r="H51">
-        <v>NaN</v>
+        <v>426</v>
       </c>
       <c r="I51" t="str">
         <v>045058</v>
       </c>
       <c r="J51">
-        <v>NaN</v>
+        <v>426</v>
       </c>
     </row>
     <row r="52">
@@ -3442,16 +3442,16 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>NaN</v>
+        <v>722</v>
       </c>
       <c r="H52">
-        <v>NaN</v>
+        <v>722</v>
       </c>
       <c r="I52" t="str">
         <v>045947</v>
       </c>
       <c r="J52">
-        <v>NaN</v>
+        <v>722</v>
       </c>
     </row>
     <row r="53">
@@ -3474,34 +3474,34 @@
         <v>4</v>
       </c>
       <c r="G53">
-        <v>NaN</v>
+        <v>1056</v>
       </c>
       <c r="H53">
-        <v>NaN</v>
+        <v>693</v>
       </c>
       <c r="I53" t="str">
         <v>043125</v>
       </c>
       <c r="J53">
-        <v>NaN</v>
+        <v>2023</v>
       </c>
       <c r="K53" t="str">
         <v>180631</v>
       </c>
       <c r="L53">
-        <v>NaN</v>
+        <v>592</v>
       </c>
       <c r="M53" t="str">
         <v>035922</v>
       </c>
       <c r="N53">
-        <v>NaN</v>
+        <v>794</v>
       </c>
       <c r="O53" t="str">
         <v>171416</v>
       </c>
       <c r="P53">
-        <v>NaN</v>
+        <v>815</v>
       </c>
     </row>
     <row r="54">
@@ -3524,82 +3524,82 @@
         <v>12</v>
       </c>
       <c r="G54">
-        <v>NaN</v>
+        <v>390.4166666666667</v>
       </c>
       <c r="H54">
-        <v>NaN</v>
+        <v>266</v>
       </c>
       <c r="I54" t="str">
         <v>202458</v>
       </c>
       <c r="J54">
-        <v>NaN</v>
+        <v>163</v>
       </c>
       <c r="K54" t="str">
         <v>045144</v>
       </c>
       <c r="L54">
-        <v>NaN</v>
+        <v>196</v>
       </c>
       <c r="M54" t="str">
         <v>171133</v>
       </c>
       <c r="N54">
-        <v>NaN</v>
+        <v>209</v>
       </c>
       <c r="O54" t="str">
         <v>224525</v>
       </c>
       <c r="P54">
-        <v>NaN</v>
+        <v>221</v>
       </c>
       <c r="Q54" t="str">
         <v>022653</v>
       </c>
       <c r="R54">
-        <v>NaN</v>
+        <v>228</v>
       </c>
       <c r="S54" t="str">
         <v>065028</v>
       </c>
       <c r="T54">
-        <v>NaN</v>
+        <v>263</v>
       </c>
       <c r="U54" t="str">
         <v>223333</v>
       </c>
       <c r="V54">
-        <v>NaN</v>
+        <v>269</v>
       </c>
       <c r="W54" t="str">
         <v>011726</v>
       </c>
       <c r="X54">
-        <v>NaN</v>
+        <v>333</v>
       </c>
       <c r="Y54" t="str">
         <v>044643</v>
       </c>
       <c r="Z54">
-        <v>NaN</v>
+        <v>506</v>
       </c>
       <c r="AA54" t="str">
         <v>150236</v>
       </c>
       <c r="AB54">
-        <v>NaN</v>
+        <v>615</v>
       </c>
       <c r="AC54" t="str">
         <v>193217</v>
       </c>
       <c r="AD54">
-        <v>NaN</v>
+        <v>739</v>
       </c>
       <c r="AE54" t="str">
         <v>224844</v>
       </c>
       <c r="AF54">
-        <v>NaN</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55">
@@ -3622,40 +3622,40 @@
         <v>5</v>
       </c>
       <c r="G55">
-        <v>NaN</v>
+        <v>382.4</v>
       </c>
       <c r="H55">
-        <v>NaN</v>
+        <v>348</v>
       </c>
       <c r="I55" t="str">
         <v>063814</v>
       </c>
       <c r="J55">
-        <v>NaN</v>
+        <v>127</v>
       </c>
       <c r="K55" t="str">
         <v>191800</v>
       </c>
       <c r="L55">
-        <v>NaN</v>
+        <v>327</v>
       </c>
       <c r="M55" t="str">
         <v>010634</v>
       </c>
       <c r="N55">
-        <v>NaN</v>
+        <v>348</v>
       </c>
       <c r="O55" t="str">
         <v>065800</v>
       </c>
       <c r="P55">
-        <v>NaN</v>
+        <v>351</v>
       </c>
       <c r="Q55" t="str">
         <v>090508</v>
       </c>
       <c r="R55">
-        <v>NaN</v>
+        <v>759</v>
       </c>
     </row>
     <row r="56">
@@ -3678,58 +3678,58 @@
         <v>8</v>
       </c>
       <c r="G56">
-        <v>NaN</v>
+        <v>481</v>
       </c>
       <c r="H56">
-        <v>NaN</v>
+        <v>380.5</v>
       </c>
       <c r="I56" t="str">
         <v>015606</v>
       </c>
       <c r="J56">
-        <v>NaN</v>
+        <v>1600</v>
       </c>
       <c r="K56" t="str">
         <v>043633</v>
       </c>
       <c r="L56">
-        <v>NaN</v>
+        <v>165</v>
       </c>
       <c r="M56" t="str">
         <v>130721</v>
       </c>
       <c r="N56">
-        <v>NaN</v>
+        <v>176</v>
       </c>
       <c r="O56" t="str">
         <v>131500</v>
       </c>
       <c r="P56">
-        <v>NaN</v>
+        <v>251</v>
       </c>
       <c r="Q56" t="str">
         <v>214506</v>
       </c>
       <c r="R56">
-        <v>NaN</v>
+        <v>510</v>
       </c>
       <c r="S56" t="str">
         <v>004128</v>
       </c>
       <c r="T56">
-        <v>NaN</v>
+        <v>510</v>
       </c>
       <c r="U56" t="str">
         <v>032641</v>
       </c>
       <c r="V56">
-        <v>NaN</v>
+        <v>629</v>
       </c>
       <c r="W56" t="str">
         <v>135547</v>
       </c>
       <c r="X56">
-        <v>NaN</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -3752,22 +3752,22 @@
         <v>2</v>
       </c>
       <c r="G57">
-        <v>NaN</v>
+        <v>1663.5</v>
       </c>
       <c r="H57">
-        <v>NaN</v>
+        <v>1663.5</v>
       </c>
       <c r="I57" t="str">
         <v>174110</v>
       </c>
       <c r="J57">
-        <v>NaN</v>
+        <v>211</v>
       </c>
       <c r="K57" t="str">
         <v>211300</v>
       </c>
       <c r="L57">
-        <v>NaN</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="58">
@@ -3790,22 +3790,22 @@
         <v>2</v>
       </c>
       <c r="G58">
-        <v>NaN</v>
+        <v>1855.5</v>
       </c>
       <c r="H58">
-        <v>NaN</v>
+        <v>1855.5</v>
       </c>
       <c r="I58" t="str">
         <v>153204</v>
       </c>
       <c r="J58">
-        <v>NaN</v>
+        <v>1581</v>
       </c>
       <c r="K58" t="str">
         <v>175403</v>
       </c>
       <c r="L58">
-        <v>NaN</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="59">
@@ -3828,28 +3828,28 @@
         <v>3</v>
       </c>
       <c r="G59">
-        <v>NaN</v>
+        <v>408</v>
       </c>
       <c r="H59">
-        <v>NaN</v>
+        <v>347</v>
       </c>
       <c r="I59" t="str">
         <v>191250</v>
       </c>
       <c r="J59">
-        <v>NaN</v>
+        <v>173</v>
       </c>
       <c r="K59" t="str">
         <v>220627</v>
       </c>
       <c r="L59">
-        <v>NaN</v>
+        <v>347</v>
       </c>
       <c r="M59" t="str">
         <v>035403</v>
       </c>
       <c r="N59">
-        <v>NaN</v>
+        <v>704</v>
       </c>
     </row>
     <row r="60">
@@ -3872,16 +3872,16 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>NaN</v>
+        <v>188</v>
       </c>
       <c r="H60">
-        <v>NaN</v>
+        <v>188</v>
       </c>
       <c r="I60" t="str">
         <v>163717</v>
       </c>
       <c r="J60">
-        <v>NaN</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61">
@@ -3904,70 +3904,70 @@
         <v>10</v>
       </c>
       <c r="G61">
-        <v>NaN</v>
+        <v>433.8</v>
       </c>
       <c r="H61">
-        <v>NaN</v>
+        <v>141.5</v>
       </c>
       <c r="I61" t="str">
         <v>190921</v>
       </c>
       <c r="J61">
-        <v>NaN</v>
+        <v>1927</v>
       </c>
       <c r="K61" t="str">
         <v>002822</v>
       </c>
       <c r="L61">
-        <v>NaN</v>
+        <v>198</v>
       </c>
       <c r="M61" t="str">
         <v>005855</v>
       </c>
       <c r="N61">
-        <v>NaN</v>
+        <v>223</v>
       </c>
       <c r="O61" t="str">
         <v>090645</v>
       </c>
       <c r="P61">
-        <v>NaN</v>
+        <v>241</v>
       </c>
       <c r="Q61" t="str">
         <v>132009</v>
       </c>
       <c r="R61">
-        <v>NaN</v>
+        <v>253</v>
       </c>
       <c r="S61" t="str">
         <v>193313</v>
       </c>
       <c r="T61">
-        <v>NaN</v>
+        <v>30</v>
       </c>
       <c r="U61" t="str">
         <v>233413</v>
       </c>
       <c r="V61">
-        <v>NaN</v>
+        <v>319</v>
       </c>
       <c r="W61" t="str">
         <v>031725</v>
       </c>
       <c r="X61">
-        <v>NaN</v>
+        <v>323</v>
       </c>
       <c r="Y61" t="str">
         <v>063558</v>
       </c>
       <c r="Z61">
-        <v>NaN</v>
+        <v>373</v>
       </c>
       <c r="AA61" t="str">
         <v>115910</v>
       </c>
       <c r="AB61">
-        <v>NaN</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62">
@@ -3990,46 +3990,46 @@
         <v>6</v>
       </c>
       <c r="G62">
-        <v>NaN</v>
+        <v>497.8333333333333</v>
       </c>
       <c r="H62">
-        <v>NaN</v>
+        <v>334.5</v>
       </c>
       <c r="I62" t="str">
         <v>011113</v>
       </c>
       <c r="J62">
-        <v>NaN</v>
+        <v>120</v>
       </c>
       <c r="K62" t="str">
         <v>063850</v>
       </c>
       <c r="L62">
-        <v>NaN</v>
+        <v>1203</v>
       </c>
       <c r="M62" t="str">
         <v>173014</v>
       </c>
       <c r="N62">
-        <v>NaN</v>
+        <v>327</v>
       </c>
       <c r="O62" t="str">
         <v>231300</v>
       </c>
       <c r="P62">
-        <v>NaN</v>
+        <v>342</v>
       </c>
       <c r="Q62" t="str">
         <v>045753</v>
       </c>
       <c r="R62">
-        <v>NaN</v>
+        <v>344</v>
       </c>
       <c r="S62" t="str">
         <v>065826</v>
       </c>
       <c r="T62">
-        <v>NaN</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63">
@@ -4052,22 +4052,22 @@
         <v>2</v>
       </c>
       <c r="G63">
-        <v>NaN</v>
+        <v>1403</v>
       </c>
       <c r="H63">
-        <v>NaN</v>
+        <v>1403</v>
       </c>
       <c r="I63" t="str">
         <v>045033</v>
       </c>
       <c r="J63">
-        <v>NaN</v>
+        <v>1275</v>
       </c>
       <c r="K63" t="str">
         <v>062153</v>
       </c>
       <c r="L63">
-        <v>NaN</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="64">
@@ -4090,64 +4090,64 @@
         <v>9</v>
       </c>
       <c r="G64">
-        <v>NaN</v>
+        <v>486.77777777777777</v>
       </c>
       <c r="H64">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="I64" t="str">
         <v>101603</v>
       </c>
       <c r="J64">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K64" t="str">
         <v>225428</v>
       </c>
       <c r="L64">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M64" t="str">
         <v>225430</v>
       </c>
       <c r="N64">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="O64" t="str">
         <v>115634</v>
       </c>
       <c r="P64">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="Q64" t="str">
         <v>115636</v>
       </c>
       <c r="R64">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="S64" t="str">
         <v>132119</v>
       </c>
       <c r="T64">
-        <v>NaN</v>
+        <v>2757</v>
       </c>
       <c r="U64" t="str">
         <v>132120</v>
       </c>
       <c r="V64">
-        <v>NaN</v>
+        <v>758</v>
       </c>
       <c r="W64" t="str">
         <v>111913</v>
       </c>
       <c r="X64">
-        <v>NaN</v>
+        <v>782</v>
       </c>
       <c r="Y64" t="str">
         <v>111915</v>
       </c>
       <c r="Z64">
-        <v>NaN</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65">
@@ -4170,196 +4170,196 @@
         <v>31</v>
       </c>
       <c r="G65">
-        <v>NaN</v>
+        <v>171.67741935483872</v>
       </c>
       <c r="H65">
-        <v>NaN</v>
+        <v>152</v>
       </c>
       <c r="I65" t="str">
         <v>085303</v>
       </c>
       <c r="J65">
-        <v>NaN</v>
+        <v>100</v>
       </c>
       <c r="K65" t="str">
         <v>110537</v>
       </c>
       <c r="L65">
-        <v>NaN</v>
+        <v>100</v>
       </c>
       <c r="M65" t="str">
         <v>135739</v>
       </c>
       <c r="N65">
-        <v>NaN</v>
+        <v>110</v>
       </c>
       <c r="O65" t="str">
         <v>162626</v>
       </c>
       <c r="P65">
-        <v>NaN</v>
+        <v>117</v>
       </c>
       <c r="Q65" t="str">
         <v>185742</v>
       </c>
       <c r="R65">
-        <v>NaN</v>
+        <v>132</v>
       </c>
       <c r="S65" t="str">
         <v>203021</v>
       </c>
       <c r="T65">
-        <v>NaN</v>
+        <v>132</v>
       </c>
       <c r="U65" t="str">
         <v>230310</v>
       </c>
       <c r="V65">
-        <v>NaN</v>
+        <v>136</v>
       </c>
       <c r="W65" t="str">
         <v>010103</v>
       </c>
       <c r="X65">
-        <v>NaN</v>
+        <v>136</v>
       </c>
       <c r="Y65" t="str">
         <v>031905</v>
       </c>
       <c r="Z65">
-        <v>NaN</v>
+        <v>136</v>
       </c>
       <c r="AA65" t="str">
         <v>043102</v>
       </c>
       <c r="AB65">
-        <v>NaN</v>
+        <v>137</v>
       </c>
       <c r="AC65" t="str">
         <v>071218</v>
       </c>
       <c r="AD65">
-        <v>NaN</v>
+        <v>138</v>
       </c>
       <c r="AE65" t="str">
         <v>112710</v>
       </c>
       <c r="AF65">
-        <v>NaN</v>
+        <v>146</v>
       </c>
       <c r="AG65" t="str">
         <v>134455</v>
       </c>
       <c r="AH65">
-        <v>NaN</v>
+        <v>148</v>
       </c>
       <c r="AI65" t="str">
         <v>155743</v>
       </c>
       <c r="AJ65">
-        <v>NaN</v>
+        <v>151</v>
       </c>
       <c r="AK65" t="str">
         <v>181358</v>
       </c>
       <c r="AL65">
-        <v>NaN</v>
+        <v>152</v>
       </c>
       <c r="AM65" t="str">
         <v>195109</v>
       </c>
       <c r="AN65">
-        <v>NaN</v>
+        <v>152</v>
       </c>
       <c r="AO65" t="str">
         <v>224053</v>
       </c>
       <c r="AP65">
-        <v>NaN</v>
+        <v>161</v>
       </c>
       <c r="AQ65" t="str">
         <v>003106</v>
       </c>
       <c r="AR65">
-        <v>NaN</v>
+        <v>169</v>
       </c>
       <c r="AS65" t="str">
         <v>014927</v>
       </c>
       <c r="AT65">
-        <v>NaN</v>
+        <v>172</v>
       </c>
       <c r="AU65" t="str">
         <v>103858</v>
       </c>
       <c r="AV65">
-        <v>NaN</v>
+        <v>183</v>
       </c>
       <c r="AW65" t="str">
         <v>183136</v>
       </c>
       <c r="AX65">
-        <v>NaN</v>
+        <v>188</v>
       </c>
       <c r="AY65" t="str">
         <v>201148</v>
       </c>
       <c r="AZ65">
-        <v>NaN</v>
+        <v>218</v>
       </c>
       <c r="BA65" t="str">
         <v>222751</v>
       </c>
       <c r="BB65">
-        <v>NaN</v>
+        <v>254</v>
       </c>
       <c r="BC65" t="str">
         <v>235843</v>
       </c>
       <c r="BD65">
-        <v>NaN</v>
+        <v>425</v>
       </c>
       <c r="BE65" t="str">
         <v>030144</v>
       </c>
       <c r="BF65">
-        <v>NaN</v>
+        <v>472</v>
       </c>
       <c r="BG65" t="str">
         <v>100724</v>
       </c>
       <c r="BH65">
-        <v>NaN</v>
+        <v>529</v>
       </c>
       <c r="BI65" t="str">
         <v>114805</v>
       </c>
       <c r="BJ65">
-        <v>NaN</v>
+        <v>71</v>
       </c>
       <c r="BK65" t="str">
         <v>152700</v>
       </c>
       <c r="BL65">
-        <v>NaN</v>
+        <v>78</v>
       </c>
       <c r="BM65" t="str">
         <v>183513</v>
       </c>
       <c r="BN65">
-        <v>NaN</v>
+        <v>90</v>
       </c>
       <c r="BO65" t="str">
         <v>210126</v>
       </c>
       <c r="BP65">
-        <v>NaN</v>
+        <v>92</v>
       </c>
       <c r="BQ65" t="str">
         <v>231726</v>
       </c>
       <c r="BR65">
-        <v>NaN</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66">
@@ -4382,16 +4382,16 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>NaN</v>
+        <v>959</v>
       </c>
       <c r="H66">
-        <v>NaN</v>
+        <v>959</v>
       </c>
       <c r="I66" t="str">
         <v>190725</v>
       </c>
       <c r="J66">
-        <v>NaN</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67">
@@ -4414,154 +4414,154 @@
         <v>24</v>
       </c>
       <c r="G67">
-        <v>NaN</v>
+        <v>157.75</v>
       </c>
       <c r="H67">
-        <v>NaN</v>
+        <v>259.5</v>
       </c>
       <c r="I67" t="str">
         <v>010427</v>
       </c>
       <c r="J67">
-        <v>NaN</v>
+        <v>10</v>
       </c>
       <c r="K67" t="str">
         <v>134628</v>
       </c>
       <c r="L67">
-        <v>NaN</v>
+        <v>107</v>
       </c>
       <c r="M67" t="str">
         <v>160456</v>
       </c>
       <c r="N67">
-        <v>NaN</v>
+        <v>11</v>
       </c>
       <c r="O67" t="str">
         <v>164922</v>
       </c>
       <c r="P67">
-        <v>NaN</v>
+        <v>138</v>
       </c>
       <c r="Q67" t="str">
         <v>170519</v>
       </c>
       <c r="R67">
-        <v>NaN</v>
+        <v>138</v>
       </c>
       <c r="S67" t="str">
         <v>175805</v>
       </c>
       <c r="T67">
-        <v>NaN</v>
+        <v>15</v>
       </c>
       <c r="U67" t="str">
         <v>182136</v>
       </c>
       <c r="V67">
-        <v>NaN</v>
+        <v>153</v>
       </c>
       <c r="W67" t="str">
         <v>185139</v>
       </c>
       <c r="X67">
-        <v>NaN</v>
+        <v>16</v>
       </c>
       <c r="Y67" t="str">
         <v>201735</v>
       </c>
       <c r="Z67">
-        <v>NaN</v>
+        <v>177</v>
       </c>
       <c r="AA67" t="str">
         <v>220525</v>
       </c>
       <c r="AB67">
-        <v>NaN</v>
+        <v>18</v>
       </c>
       <c r="AC67" t="str">
         <v>224030</v>
       </c>
       <c r="AD67">
-        <v>NaN</v>
+        <v>23</v>
       </c>
       <c r="AE67" t="str">
         <v>225658</v>
       </c>
       <c r="AF67">
-        <v>NaN</v>
+        <v>257</v>
       </c>
       <c r="AG67" t="str">
         <v>031443</v>
       </c>
       <c r="AH67">
-        <v>NaN</v>
+        <v>262</v>
       </c>
       <c r="AI67" t="str">
         <v>032522</v>
       </c>
       <c r="AJ67">
-        <v>NaN</v>
+        <v>30</v>
       </c>
       <c r="AK67" t="str">
         <v>074742</v>
       </c>
       <c r="AL67">
-        <v>NaN</v>
+        <v>349</v>
       </c>
       <c r="AM67" t="str">
         <v>075903</v>
       </c>
       <c r="AN67">
-        <v>NaN</v>
+        <v>35</v>
       </c>
       <c r="AO67" t="str">
         <v>134845</v>
       </c>
       <c r="AP67">
-        <v>NaN</v>
+        <v>420</v>
       </c>
       <c r="AQ67" t="str">
         <v>152658</v>
       </c>
       <c r="AR67">
-        <v>NaN</v>
+        <v>44</v>
       </c>
       <c r="AS67" t="str">
         <v>235029</v>
       </c>
       <c r="AT67">
-        <v>NaN</v>
+        <v>503</v>
       </c>
       <c r="AU67" t="str">
         <v>065049</v>
       </c>
       <c r="AV67">
-        <v>NaN</v>
+        <v>52</v>
       </c>
       <c r="AW67" t="str">
         <v>070928</v>
       </c>
       <c r="AX67">
-        <v>NaN</v>
+        <v>762</v>
       </c>
       <c r="AY67" t="str">
         <v>094231</v>
       </c>
       <c r="AZ67">
-        <v>NaN</v>
+        <v>83</v>
       </c>
       <c r="BA67" t="str">
         <v>123940</v>
       </c>
       <c r="BB67">
-        <v>NaN</v>
+        <v>85</v>
       </c>
       <c r="BC67" t="str">
         <v>145752</v>
       </c>
       <c r="BD67">
-        <v>NaN</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68">
@@ -4584,16 +4584,16 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>NaN</v>
+        <v>4000</v>
       </c>
       <c r="H68">
-        <v>NaN</v>
+        <v>4000</v>
       </c>
       <c r="I68" t="str">
         <v>103325</v>
       </c>
       <c r="J68">
-        <v>NaN</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="69">
@@ -4616,52 +4616,52 @@
         <v>7</v>
       </c>
       <c r="G69">
-        <v>NaN</v>
+        <v>637.8571428571429</v>
       </c>
       <c r="H69">
-        <v>NaN</v>
+        <v>213</v>
       </c>
       <c r="I69" t="str">
         <v>062211</v>
       </c>
       <c r="J69">
-        <v>NaN</v>
+        <v>1288</v>
       </c>
       <c r="K69" t="str">
         <v>061606</v>
       </c>
       <c r="L69">
-        <v>NaN</v>
+        <v>1433</v>
       </c>
       <c r="M69" t="str">
         <v>084237</v>
       </c>
       <c r="N69">
-        <v>NaN</v>
+        <v>146</v>
       </c>
       <c r="O69" t="str">
         <v>135418</v>
       </c>
       <c r="P69">
-        <v>NaN</v>
+        <v>213</v>
       </c>
       <c r="Q69" t="str">
         <v>185151</v>
       </c>
       <c r="R69">
-        <v>NaN</v>
+        <v>297</v>
       </c>
       <c r="S69" t="str">
         <v>074925</v>
       </c>
       <c r="T69">
-        <v>NaN</v>
+        <v>311</v>
       </c>
       <c r="U69" t="str">
         <v>112246</v>
       </c>
       <c r="V69">
-        <v>NaN</v>
+        <v>777</v>
       </c>
     </row>
     <row r="70">
@@ -4684,130 +4684,130 @@
         <v>20</v>
       </c>
       <c r="G70">
-        <v>NaN</v>
+        <v>237</v>
       </c>
       <c r="H70">
-        <v>NaN</v>
+        <v>352.5</v>
       </c>
       <c r="I70" t="str">
         <v>193916</v>
       </c>
       <c r="J70">
-        <v>NaN</v>
+        <v>109</v>
       </c>
       <c r="K70" t="str">
         <v>084835</v>
       </c>
       <c r="L70">
-        <v>NaN</v>
+        <v>113</v>
       </c>
       <c r="M70" t="str">
         <v>104215</v>
       </c>
       <c r="N70">
-        <v>NaN</v>
+        <v>134</v>
       </c>
       <c r="O70" t="str">
         <v>130902</v>
       </c>
       <c r="P70">
-        <v>NaN</v>
+        <v>146</v>
       </c>
       <c r="Q70" t="str">
         <v>152316</v>
       </c>
       <c r="R70">
-        <v>NaN</v>
+        <v>153</v>
       </c>
       <c r="S70" t="str">
         <v>175828</v>
       </c>
       <c r="T70">
-        <v>NaN</v>
+        <v>155</v>
       </c>
       <c r="U70" t="str">
         <v>194823</v>
       </c>
       <c r="V70">
-        <v>NaN</v>
+        <v>157</v>
       </c>
       <c r="W70" t="str">
         <v>065446</v>
       </c>
       <c r="X70">
-        <v>NaN</v>
+        <v>166</v>
       </c>
       <c r="Y70" t="str">
         <v>080406</v>
       </c>
       <c r="Z70">
-        <v>NaN</v>
+        <v>312</v>
       </c>
       <c r="AA70" t="str">
         <v>104137</v>
       </c>
       <c r="AB70">
-        <v>NaN</v>
+        <v>350</v>
       </c>
       <c r="AC70" t="str">
         <v>131458</v>
       </c>
       <c r="AD70">
-        <v>NaN</v>
+        <v>355</v>
       </c>
       <c r="AE70" t="str">
         <v>190504</v>
       </c>
       <c r="AF70">
-        <v>NaN</v>
+        <v>65</v>
       </c>
       <c r="AG70" t="str">
         <v>201012</v>
       </c>
       <c r="AH70">
-        <v>NaN</v>
+        <v>660</v>
       </c>
       <c r="AI70" t="str">
         <v>071018</v>
       </c>
       <c r="AJ70">
-        <v>NaN</v>
+        <v>666</v>
       </c>
       <c r="AK70" t="str">
         <v>095637</v>
       </c>
       <c r="AL70">
-        <v>NaN</v>
+        <v>69</v>
       </c>
       <c r="AM70" t="str">
         <v>150919</v>
       </c>
       <c r="AN70">
-        <v>NaN</v>
+        <v>74</v>
       </c>
       <c r="AO70" t="str">
         <v>163418</v>
       </c>
       <c r="AP70">
-        <v>NaN</v>
+        <v>789</v>
       </c>
       <c r="AQ70" t="str">
         <v>181120</v>
       </c>
       <c r="AR70">
-        <v>NaN</v>
+        <v>84</v>
       </c>
       <c r="AS70" t="str">
         <v>192606</v>
       </c>
       <c r="AT70">
-        <v>NaN</v>
+        <v>86</v>
       </c>
       <c r="AU70" t="str">
         <v>205229</v>
       </c>
       <c r="AV70">
-        <v>NaN</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
@@ -4830,94 +4830,94 @@
         <v>14</v>
       </c>
       <c r="G71">
-        <v>NaN</v>
+        <v>316</v>
       </c>
       <c r="H71">
-        <v>NaN</v>
+        <v>265.5</v>
       </c>
       <c r="I71" t="str">
         <v>170340</v>
       </c>
       <c r="J71">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K71" t="str">
         <v>064805</v>
       </c>
       <c r="L71">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M71" t="str">
         <v>110133</v>
       </c>
       <c r="N71">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="O71" t="str">
         <v>162702</v>
       </c>
       <c r="P71">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="Q71" t="str">
         <v>162704</v>
       </c>
       <c r="R71">
-        <v>NaN</v>
+        <v>222</v>
       </c>
       <c r="S71" t="str">
         <v>210129</v>
       </c>
       <c r="T71">
-        <v>NaN</v>
+        <v>253</v>
       </c>
       <c r="U71" t="str">
         <v>094933</v>
       </c>
       <c r="V71">
-        <v>NaN</v>
+        <v>257</v>
       </c>
       <c r="W71" t="str">
         <v>154454</v>
       </c>
       <c r="X71">
-        <v>NaN</v>
+        <v>274</v>
       </c>
       <c r="Y71" t="str">
         <v>205115</v>
       </c>
       <c r="Z71">
-        <v>NaN</v>
+        <v>306</v>
       </c>
       <c r="AA71" t="str">
         <v>105147</v>
       </c>
       <c r="AB71">
-        <v>NaN</v>
+        <v>325</v>
       </c>
       <c r="AC71" t="str">
         <v>150855</v>
       </c>
       <c r="AD71">
-        <v>NaN</v>
+        <v>355</v>
       </c>
       <c r="AE71" t="str">
         <v>150900</v>
       </c>
       <c r="AF71">
-        <v>NaN</v>
+        <v>768</v>
       </c>
       <c r="AG71" t="str">
         <v>185104</v>
       </c>
       <c r="AH71">
-        <v>NaN</v>
+        <v>824</v>
       </c>
       <c r="AI71" t="str">
         <v>185111</v>
       </c>
       <c r="AJ71">
-        <v>NaN</v>
+        <v>840</v>
       </c>
     </row>
     <row r="72">
@@ -4940,76 +4940,76 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>NaN</v>
+        <v>427.45454545454544</v>
       </c>
       <c r="H72">
-        <v>NaN</v>
+        <v>1810</v>
       </c>
       <c r="I72" t="str">
         <v>143149</v>
       </c>
       <c r="J72">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K72" t="str">
         <v>082043</v>
       </c>
       <c r="L72">
-        <v>NaN</v>
+        <v>1068</v>
       </c>
       <c r="M72" t="str">
         <v>082050</v>
       </c>
       <c r="N72">
-        <v>NaN</v>
+        <v>167</v>
       </c>
       <c r="O72" t="str">
         <v>110802</v>
       </c>
       <c r="P72">
-        <v>NaN</v>
+        <v>167</v>
       </c>
       <c r="Q72" t="str">
         <v>115327</v>
       </c>
       <c r="R72">
-        <v>NaN</v>
+        <v>181</v>
       </c>
       <c r="S72" t="str">
         <v>130933</v>
       </c>
       <c r="T72">
-        <v>NaN</v>
+        <v>1810</v>
       </c>
       <c r="U72" t="str">
         <v>155718</v>
       </c>
       <c r="V72">
-        <v>NaN</v>
+        <v>331</v>
       </c>
       <c r="W72" t="str">
         <v>061114</v>
       </c>
       <c r="X72">
-        <v>NaN</v>
+        <v>4</v>
       </c>
       <c r="Y72" t="str">
         <v>114309</v>
       </c>
       <c r="Z72">
-        <v>NaN</v>
+        <v>45</v>
       </c>
       <c r="AA72" t="str">
         <v>114717</v>
       </c>
       <c r="AB72">
-        <v>NaN</v>
+        <v>76</v>
       </c>
       <c r="AC72" t="str">
         <v>175729</v>
       </c>
       <c r="AD72">
-        <v>NaN</v>
+        <v>853</v>
       </c>
     </row>
     <row r="73">
@@ -5032,82 +5032,82 @@
         <v>12</v>
       </c>
       <c r="G73">
-        <v>NaN</v>
+        <v>383.6666666666667</v>
       </c>
       <c r="H73">
-        <v>NaN</v>
+        <v>178.5</v>
       </c>
       <c r="I73" t="str">
         <v>095600</v>
       </c>
       <c r="J73">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K73" t="str">
         <v>110435</v>
       </c>
       <c r="L73">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="M73" t="str">
         <v>142347</v>
       </c>
       <c r="N73">
-        <v>NaN</v>
+        <v>1188</v>
       </c>
       <c r="O73" t="str">
         <v>142532</v>
       </c>
       <c r="P73">
-        <v>NaN</v>
+        <v>1213</v>
       </c>
       <c r="Q73" t="str">
         <v>101430</v>
       </c>
       <c r="R73">
-        <v>NaN</v>
+        <v>150</v>
       </c>
       <c r="S73" t="str">
         <v>151917</v>
       </c>
       <c r="T73">
-        <v>NaN</v>
+        <v>169</v>
       </c>
       <c r="U73" t="str">
         <v>151921</v>
       </c>
       <c r="V73">
-        <v>NaN</v>
+        <v>188</v>
       </c>
       <c r="W73" t="str">
         <v>184632</v>
       </c>
       <c r="X73">
-        <v>NaN</v>
+        <v>199</v>
       </c>
       <c r="Y73" t="str">
         <v>100351</v>
       </c>
       <c r="Z73">
-        <v>NaN</v>
+        <v>207</v>
       </c>
       <c r="AA73" t="str">
         <v>123424</v>
       </c>
       <c r="AB73">
-        <v>NaN</v>
+        <v>304</v>
       </c>
       <c r="AC73" t="str">
         <v>152410</v>
       </c>
       <c r="AD73">
-        <v>NaN</v>
+        <v>68</v>
       </c>
       <c r="AE73" t="str">
         <v>183217</v>
       </c>
       <c r="AF73">
-        <v>NaN</v>
+        <v>917</v>
       </c>
     </row>
     <row r="74">
@@ -5130,76 +5130,76 @@
         <v>11</v>
       </c>
       <c r="G74">
-        <v>NaN</v>
+        <v>310.8181818181818</v>
       </c>
       <c r="H74">
-        <v>NaN</v>
+        <v>493</v>
       </c>
       <c r="I74" t="str">
         <v>081416</v>
       </c>
       <c r="J74">
-        <v>NaN</v>
+        <v>1106</v>
       </c>
       <c r="K74" t="str">
         <v>162747</v>
       </c>
       <c r="L74">
-        <v>NaN</v>
+        <v>1357</v>
       </c>
       <c r="M74" t="str">
         <v>105431</v>
       </c>
       <c r="N74">
-        <v>NaN</v>
+        <v>18</v>
       </c>
       <c r="O74" t="str">
         <v>093214</v>
       </c>
       <c r="P74">
-        <v>NaN</v>
+        <v>24</v>
       </c>
       <c r="Q74" t="str">
         <v>095659</v>
       </c>
       <c r="R74">
-        <v>NaN</v>
+        <v>46</v>
       </c>
       <c r="S74" t="str">
         <v>101514</v>
       </c>
       <c r="T74">
-        <v>NaN</v>
+        <v>493</v>
       </c>
       <c r="U74" t="str">
         <v>114230</v>
       </c>
       <c r="V74">
-        <v>NaN</v>
+        <v>55</v>
       </c>
       <c r="W74" t="str">
         <v>130545</v>
       </c>
       <c r="X74">
-        <v>NaN</v>
+        <v>64</v>
       </c>
       <c r="Y74" t="str">
         <v>143231</v>
       </c>
       <c r="Z74">
-        <v>NaN</v>
+        <v>83</v>
       </c>
       <c r="AA74" t="str">
         <v>151905</v>
       </c>
       <c r="AB74">
-        <v>NaN</v>
+        <v>86</v>
       </c>
       <c r="AC74" t="str">
         <v>161411</v>
       </c>
       <c r="AD74">
-        <v>NaN</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75">
@@ -5222,28 +5222,28 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>NaN</v>
+        <v>888.3333333333334</v>
       </c>
       <c r="H75">
-        <v>NaN</v>
+        <v>1360</v>
       </c>
       <c r="I75" t="str">
         <v>084649</v>
       </c>
       <c r="J75">
-        <v>NaN</v>
+        <v>1214</v>
       </c>
       <c r="K75" t="str">
         <v>101750</v>
       </c>
       <c r="L75">
-        <v>NaN</v>
+        <v>1360</v>
       </c>
       <c r="M75" t="str">
         <v>085823</v>
       </c>
       <c r="N75">
-        <v>NaN</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
@@ -5266,34 +5266,34 @@
         <v>4</v>
       </c>
       <c r="G76">
-        <v>NaN</v>
+        <v>1128.5</v>
       </c>
       <c r="H76">
-        <v>NaN</v>
+        <v>1099.5</v>
       </c>
       <c r="I76" t="str">
         <v>013018</v>
       </c>
       <c r="J76">
-        <v>NaN</v>
+        <v>1421</v>
       </c>
       <c r="K76" t="str">
         <v>162441</v>
       </c>
       <c r="L76">
-        <v>NaN</v>
+        <v>1478</v>
       </c>
       <c r="M76" t="str">
         <v>170332</v>
       </c>
       <c r="N76">
-        <v>NaN</v>
+        <v>721</v>
       </c>
       <c r="O76" t="str">
         <v>164502</v>
       </c>
       <c r="P76">
-        <v>NaN</v>
+        <v>894</v>
       </c>
     </row>
     <row r="77">
@@ -5316,76 +5316,76 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>NaN</v>
+        <v>435.6363636363636</v>
       </c>
       <c r="H77">
-        <v>NaN</v>
+        <v>373</v>
       </c>
       <c r="I77" t="str">
         <v>141402</v>
       </c>
       <c r="J77">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K77" t="str">
         <v>084418</v>
       </c>
       <c r="L77">
-        <v>NaN</v>
+        <v>1110</v>
       </c>
       <c r="M77" t="str">
         <v>142451</v>
       </c>
       <c r="N77">
-        <v>NaN</v>
+        <v>241</v>
       </c>
       <c r="O77" t="str">
         <v>203755</v>
       </c>
       <c r="P77">
-        <v>NaN</v>
+        <v>340</v>
       </c>
       <c r="Q77" t="str">
         <v>100222</v>
       </c>
       <c r="R77">
-        <v>NaN</v>
+        <v>363</v>
       </c>
       <c r="S77" t="str">
         <v>160523</v>
       </c>
       <c r="T77">
-        <v>NaN</v>
+        <v>373</v>
       </c>
       <c r="U77" t="str">
         <v>165039</v>
       </c>
       <c r="V77">
-        <v>NaN</v>
+        <v>45</v>
       </c>
       <c r="W77" t="str">
         <v>015452</v>
       </c>
       <c r="X77">
-        <v>NaN</v>
+        <v>454</v>
       </c>
       <c r="Y77" t="str">
         <v>092940</v>
       </c>
       <c r="Z77">
-        <v>NaN</v>
+        <v>518</v>
       </c>
       <c r="AA77" t="str">
         <v>180746</v>
       </c>
       <c r="AB77">
-        <v>NaN</v>
+        <v>544</v>
       </c>
       <c r="AC77" t="str">
         <v>180827</v>
       </c>
       <c r="AD77">
-        <v>NaN</v>
+        <v>804</v>
       </c>
     </row>
     <row r="78">
@@ -5408,40 +5408,40 @@
         <v>5</v>
       </c>
       <c r="G78">
-        <v>NaN</v>
+        <v>626</v>
       </c>
       <c r="H78">
-        <v>NaN</v>
+        <v>709</v>
       </c>
       <c r="I78" t="str">
         <v>101502</v>
       </c>
       <c r="J78">
-        <v>NaN</v>
+        <v>126</v>
       </c>
       <c r="K78" t="str">
         <v>232455</v>
       </c>
       <c r="L78">
-        <v>NaN</v>
+        <v>1435</v>
       </c>
       <c r="M78" t="str">
         <v>232027</v>
       </c>
       <c r="N78">
-        <v>NaN</v>
+        <v>709</v>
       </c>
       <c r="O78" t="str">
         <v>111022</v>
       </c>
       <c r="P78">
-        <v>NaN</v>
+        <v>71</v>
       </c>
       <c r="Q78" t="str">
         <v>131631</v>
       </c>
       <c r="R78">
-        <v>NaN</v>
+        <v>789</v>
       </c>
     </row>
     <row r="79">
@@ -5464,28 +5464,28 @@
         <v>3</v>
       </c>
       <c r="G79">
-        <v>NaN</v>
+        <v>941</v>
       </c>
       <c r="H79">
-        <v>NaN</v>
+        <v>135</v>
       </c>
       <c r="I79" t="str">
         <v>030056</v>
       </c>
       <c r="J79">
-        <v>NaN</v>
+        <v>1030</v>
       </c>
       <c r="K79" t="str">
         <v>063948</v>
       </c>
       <c r="L79">
-        <v>NaN</v>
+        <v>135</v>
       </c>
       <c r="M79" t="str">
         <v>085520</v>
       </c>
       <c r="N79">
-        <v>NaN</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="80">
@@ -5508,16 +5508,16 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>NaN</v>
+        <v>2314</v>
       </c>
       <c r="H80">
-        <v>NaN</v>
+        <v>2314</v>
       </c>
       <c r="I80" t="str">
         <v>182551</v>
       </c>
       <c r="J80">
-        <v>NaN</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="81">
@@ -5540,34 +5540,34 @@
         <v>4</v>
       </c>
       <c r="G81">
-        <v>NaN</v>
+        <v>873</v>
       </c>
       <c r="H81">
-        <v>NaN</v>
+        <v>424</v>
       </c>
       <c r="I81" t="str">
         <v>201644</v>
       </c>
       <c r="J81">
-        <v>NaN</v>
+        <v>1891</v>
       </c>
       <c r="K81" t="str">
         <v>034748</v>
       </c>
       <c r="L81">
-        <v>NaN</v>
+        <v>366</v>
       </c>
       <c r="M81" t="str">
         <v>095437</v>
       </c>
       <c r="N81">
-        <v>NaN</v>
+        <v>482</v>
       </c>
       <c r="O81" t="str">
         <v>175655</v>
       </c>
       <c r="P81">
-        <v>NaN</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82">
@@ -5590,16 +5590,16 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>NaN</v>
+        <v>2635</v>
       </c>
       <c r="H82">
-        <v>NaN</v>
+        <v>2635</v>
       </c>
       <c r="I82" t="str">
         <v>224953</v>
       </c>
       <c r="J82">
-        <v>NaN</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="83">
@@ -5622,22 +5622,22 @@
         <v>2</v>
       </c>
       <c r="G83">
-        <v>NaN</v>
+        <v>1947.5</v>
       </c>
       <c r="H83">
-        <v>NaN</v>
+        <v>1947.5</v>
       </c>
       <c r="I83" t="str">
         <v>143725</v>
       </c>
       <c r="J83">
-        <v>NaN</v>
+        <v>2923</v>
       </c>
       <c r="K83" t="str">
         <v>064926</v>
       </c>
       <c r="L83">
-        <v>NaN</v>
+        <v>972</v>
       </c>
     </row>
     <row r="84">
@@ -5660,22 +5660,22 @@
         <v>2</v>
       </c>
       <c r="G84">
-        <v>NaN</v>
+        <v>1683.5</v>
       </c>
       <c r="H84">
-        <v>NaN</v>
+        <v>1683.5</v>
       </c>
       <c r="I84" t="str">
         <v>195659</v>
       </c>
       <c r="J84">
-        <v>NaN</v>
+        <v>1012</v>
       </c>
       <c r="K84" t="str">
         <v>111249</v>
       </c>
       <c r="L84">
-        <v>NaN</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="85">
@@ -5698,46 +5698,46 @@
         <v>6</v>
       </c>
       <c r="G85">
-        <v>NaN</v>
+        <v>218</v>
       </c>
       <c r="H85">
-        <v>NaN</v>
+        <v>275.5</v>
       </c>
       <c r="I85" t="str">
         <v>140534</v>
       </c>
       <c r="J85">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K85" t="str">
         <v>154202</v>
       </c>
       <c r="L85">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="M85" t="str">
         <v>201005</v>
       </c>
       <c r="N85">
-        <v>NaN</v>
+        <v>268</v>
       </c>
       <c r="O85" t="str">
         <v>201010</v>
       </c>
       <c r="P85">
-        <v>NaN</v>
+        <v>283</v>
       </c>
       <c r="Q85" t="str">
         <v>201115</v>
       </c>
       <c r="R85">
-        <v>NaN</v>
+        <v>660</v>
       </c>
       <c r="S85" t="str">
         <v>071119</v>
       </c>
       <c r="T85">
-        <v>NaN</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86">
@@ -5760,58 +5760,58 @@
         <v>8</v>
       </c>
       <c r="G86">
-        <v>NaN</v>
+        <v>530</v>
       </c>
       <c r="H86">
-        <v>NaN</v>
+        <v>1234.5</v>
       </c>
       <c r="I86" t="str">
         <v>200011</v>
       </c>
       <c r="J86">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K86" t="str">
         <v>123029</v>
       </c>
       <c r="L86">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M86" t="str">
         <v>123102</v>
       </c>
       <c r="N86">
-        <v>NaN</v>
+        <v>1</v>
       </c>
       <c r="O86" t="str">
         <v>012255</v>
       </c>
       <c r="P86">
-        <v>NaN</v>
+        <v>2</v>
       </c>
       <c r="Q86" t="str">
         <v>012314</v>
       </c>
       <c r="R86">
-        <v>NaN</v>
+        <v>2467</v>
       </c>
       <c r="S86" t="str">
         <v>183029</v>
       </c>
       <c r="T86">
-        <v>NaN</v>
+        <v>771</v>
       </c>
       <c r="U86" t="str">
         <v>183137</v>
       </c>
       <c r="V86">
-        <v>NaN</v>
+        <v>9</v>
       </c>
       <c r="W86" t="str">
         <v>183415</v>
       </c>
       <c r="X86">
-        <v>NaN</v>
+        <v>990</v>
       </c>
     </row>
     <row r="87">
@@ -5834,100 +5834,100 @@
         <v>15</v>
       </c>
       <c r="G87">
-        <v>NaN</v>
+        <v>299.4</v>
       </c>
       <c r="H87">
-        <v>NaN</v>
+        <v>500</v>
       </c>
       <c r="I87" t="str">
         <v>195501</v>
       </c>
       <c r="J87">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K87" t="str">
         <v>200231</v>
       </c>
       <c r="L87">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="M87" t="str">
         <v>122651</v>
       </c>
       <c r="N87">
-        <v>NaN</v>
+        <v>259</v>
       </c>
       <c r="O87" t="str">
         <v>194917</v>
       </c>
       <c r="P87">
-        <v>NaN</v>
+        <v>262</v>
       </c>
       <c r="Q87" t="str">
         <v>195011</v>
       </c>
       <c r="R87">
-        <v>NaN</v>
+        <v>424</v>
       </c>
       <c r="S87" t="str">
         <v>195653</v>
       </c>
       <c r="T87">
-        <v>NaN</v>
+        <v>442</v>
       </c>
       <c r="U87" t="str">
         <v>044025</v>
       </c>
       <c r="V87">
-        <v>NaN</v>
+        <v>456</v>
       </c>
       <c r="W87" t="str">
         <v>121634</v>
       </c>
       <c r="X87">
-        <v>NaN</v>
+        <v>500</v>
       </c>
       <c r="Y87" t="str">
         <v>163927</v>
       </c>
       <c r="Z87">
-        <v>NaN</v>
+        <v>523</v>
       </c>
       <c r="AA87" t="str">
         <v>164534</v>
       </c>
       <c r="AB87">
-        <v>NaN</v>
+        <v>539</v>
       </c>
       <c r="AC87" t="str">
         <v>010608</v>
       </c>
       <c r="AD87">
-        <v>NaN</v>
+        <v>6</v>
       </c>
       <c r="AE87" t="str">
         <v>023001</v>
       </c>
       <c r="AF87">
-        <v>NaN</v>
+        <v>6</v>
       </c>
       <c r="AG87" t="str">
         <v>023042</v>
       </c>
       <c r="AH87">
-        <v>NaN</v>
+        <v>7</v>
       </c>
       <c r="AI87" t="str">
         <v>093533</v>
       </c>
       <c r="AJ87">
-        <v>NaN</v>
+        <v>83</v>
       </c>
       <c r="AK87" t="str">
         <v>183511</v>
       </c>
       <c r="AL87">
-        <v>NaN</v>
+        <v>984</v>
       </c>
     </row>
     <row r="88">
@@ -5950,40 +5950,40 @@
         <v>5</v>
       </c>
       <c r="G88">
-        <v>NaN</v>
+        <v>708.4</v>
       </c>
       <c r="H88">
-        <v>NaN</v>
+        <v>840</v>
       </c>
       <c r="I88" t="str">
         <v>032226</v>
       </c>
       <c r="J88">
-        <v>NaN</v>
+        <v>142</v>
       </c>
       <c r="K88" t="str">
         <v>164828</v>
       </c>
       <c r="L88">
-        <v>NaN</v>
+        <v>806</v>
       </c>
       <c r="M88" t="str">
         <v>073621</v>
       </c>
       <c r="N88">
-        <v>NaN</v>
+        <v>840</v>
       </c>
       <c r="O88" t="str">
         <v>095825</v>
       </c>
       <c r="P88">
-        <v>NaN</v>
+        <v>867</v>
       </c>
       <c r="Q88" t="str">
         <v>235835</v>
       </c>
       <c r="R88">
-        <v>NaN</v>
+        <v>887</v>
       </c>
     </row>
     <row r="89">
@@ -6006,82 +6006,82 @@
         <v>12</v>
       </c>
       <c r="G89">
-        <v>NaN</v>
+        <v>422.5833333333333</v>
       </c>
       <c r="H89">
-        <v>NaN</v>
+        <v>364</v>
       </c>
       <c r="I89" t="str">
         <v>125456</v>
       </c>
       <c r="J89">
-        <v>NaN</v>
+        <v>1203</v>
       </c>
       <c r="K89" t="str">
         <v>203303</v>
       </c>
       <c r="L89">
-        <v>NaN</v>
+        <v>165</v>
       </c>
       <c r="M89" t="str">
         <v>044408</v>
       </c>
       <c r="N89">
-        <v>NaN</v>
+        <v>228</v>
       </c>
       <c r="O89" t="str">
         <v>150033</v>
       </c>
       <c r="P89">
-        <v>NaN</v>
+        <v>324</v>
       </c>
       <c r="Q89" t="str">
         <v>212616</v>
       </c>
       <c r="R89">
-        <v>NaN</v>
+        <v>338</v>
       </c>
       <c r="S89" t="str">
         <v>060241</v>
       </c>
       <c r="T89">
-        <v>NaN</v>
+        <v>343</v>
       </c>
       <c r="U89" t="str">
         <v>095052</v>
       </c>
       <c r="V89">
-        <v>NaN</v>
+        <v>385</v>
       </c>
       <c r="W89" t="str">
         <v>055433</v>
       </c>
       <c r="X89">
-        <v>NaN</v>
+        <v>4</v>
       </c>
       <c r="Y89" t="str">
         <v>084009</v>
       </c>
       <c r="Z89">
-        <v>NaN</v>
+        <v>458</v>
       </c>
       <c r="AA89" t="str">
         <v>142334</v>
       </c>
       <c r="AB89">
-        <v>NaN</v>
+        <v>491</v>
       </c>
       <c r="AC89" t="str">
         <v>194751</v>
       </c>
       <c r="AD89">
-        <v>NaN</v>
+        <v>516</v>
       </c>
       <c r="AE89" t="str">
         <v>195241</v>
       </c>
       <c r="AF89">
-        <v>NaN</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90">
@@ -6104,100 +6104,100 @@
         <v>15</v>
       </c>
       <c r="G90">
-        <v>NaN</v>
+        <v>308.53333333333336</v>
       </c>
       <c r="H90">
-        <v>NaN</v>
+        <v>426</v>
       </c>
       <c r="I90" t="str">
         <v>151911</v>
       </c>
       <c r="J90">
-        <v>NaN</v>
+        <v>11</v>
       </c>
       <c r="K90" t="str">
         <v>030913</v>
       </c>
       <c r="L90">
-        <v>NaN</v>
+        <v>146</v>
       </c>
       <c r="M90" t="str">
         <v>031901</v>
       </c>
       <c r="N90">
-        <v>NaN</v>
+        <v>217</v>
       </c>
       <c r="O90" t="str">
         <v>081344</v>
       </c>
       <c r="P90">
-        <v>NaN</v>
+        <v>228</v>
       </c>
       <c r="Q90" t="str">
         <v>160042</v>
       </c>
       <c r="R90">
-        <v>NaN</v>
+        <v>294</v>
       </c>
       <c r="S90" t="str">
         <v>230652</v>
       </c>
       <c r="T90">
-        <v>NaN</v>
+        <v>341</v>
       </c>
       <c r="U90" t="str">
         <v>231833</v>
       </c>
       <c r="V90">
-        <v>NaN</v>
+        <v>355</v>
       </c>
       <c r="W90" t="str">
         <v>141210</v>
       </c>
       <c r="X90">
-        <v>NaN</v>
+        <v>426</v>
       </c>
       <c r="Y90" t="str">
         <v>163903</v>
       </c>
       <c r="Z90">
-        <v>NaN</v>
+        <v>464</v>
       </c>
       <c r="AA90" t="str">
         <v>164739</v>
       </c>
       <c r="AB90">
-        <v>NaN</v>
+        <v>466</v>
       </c>
       <c r="AC90" t="str">
         <v>174806</v>
       </c>
       <c r="AD90">
-        <v>NaN</v>
+        <v>60</v>
       </c>
       <c r="AE90" t="str">
         <v>212533</v>
       </c>
       <c r="AF90">
-        <v>NaN</v>
+        <v>710</v>
       </c>
       <c r="AG90" t="str">
         <v>032035</v>
       </c>
       <c r="AH90">
-        <v>NaN</v>
+        <v>8</v>
       </c>
       <c r="AI90" t="str">
         <v>110441</v>
       </c>
       <c r="AJ90">
-        <v>NaN</v>
+        <v>893</v>
       </c>
       <c r="AK90" t="str">
         <v>164605</v>
       </c>
       <c r="AL90">
-        <v>NaN</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -6220,22 +6220,22 @@
         <v>2</v>
       </c>
       <c r="G91">
-        <v>NaN</v>
+        <v>211.5</v>
       </c>
       <c r="H91">
-        <v>NaN</v>
+        <v>211.5</v>
       </c>
       <c r="I91" t="str">
         <v>131829</v>
       </c>
       <c r="J91">
-        <v>NaN</v>
+        <v>168</v>
       </c>
       <c r="K91" t="str">
         <v>160630</v>
       </c>
       <c r="L91">
-        <v>NaN</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92">
@@ -6258,46 +6258,46 @@
         <v>6</v>
       </c>
       <c r="G92">
-        <v>NaN</v>
+        <v>746.5</v>
       </c>
       <c r="H92">
-        <v>NaN</v>
+        <v>336.5</v>
       </c>
       <c r="I92" t="str">
         <v>032059</v>
       </c>
       <c r="J92">
-        <v>NaN</v>
+        <v>153</v>
       </c>
       <c r="K92" t="str">
         <v>154042</v>
       </c>
       <c r="L92">
-        <v>NaN</v>
+        <v>2108</v>
       </c>
       <c r="M92" t="str">
         <v>050642</v>
       </c>
       <c r="N92">
-        <v>NaN</v>
+        <v>275</v>
       </c>
       <c r="O92" t="str">
         <v>094232</v>
       </c>
       <c r="P92">
-        <v>NaN</v>
+        <v>398</v>
       </c>
       <c r="Q92" t="str">
         <v>205052</v>
       </c>
       <c r="R92">
-        <v>NaN</v>
+        <v>739</v>
       </c>
       <c r="S92" t="str">
         <v>232405</v>
       </c>
       <c r="T92">
-        <v>NaN</v>
+        <v>806</v>
       </c>
     </row>
     <row r="93">
@@ -6320,22 +6320,22 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <v>NaN</v>
+        <v>1229.5</v>
       </c>
       <c r="H93">
-        <v>NaN</v>
+        <v>1229.5</v>
       </c>
       <c r="I93" t="str">
         <v>225135</v>
       </c>
       <c r="J93">
-        <v>NaN</v>
+        <v>1187</v>
       </c>
       <c r="K93" t="str">
         <v>183925</v>
       </c>
       <c r="L93">
-        <v>NaN</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="94">
@@ -6358,34 +6358,34 @@
         <v>4</v>
       </c>
       <c r="G94">
-        <v>NaN</v>
+        <v>686.5</v>
       </c>
       <c r="H94">
-        <v>NaN</v>
+        <v>938.5</v>
       </c>
       <c r="I94" t="str">
         <v>223648</v>
       </c>
       <c r="J94">
-        <v>NaN</v>
+        <v>0</v>
       </c>
       <c r="K94" t="str">
         <v>223650</v>
       </c>
       <c r="L94">
-        <v>NaN</v>
+        <v>1296</v>
       </c>
       <c r="M94" t="str">
         <v>130557</v>
       </c>
       <c r="N94">
-        <v>NaN</v>
+        <v>581</v>
       </c>
       <c r="O94" t="str">
         <v>224703</v>
       </c>
       <c r="P94">
-        <v>NaN</v>
+        <v>869</v>
       </c>
     </row>
     <row r="95">
@@ -6408,34 +6408,34 @@
         <v>4</v>
       </c>
       <c r="G95">
-        <v>NaN</v>
+        <v>1059.75</v>
       </c>
       <c r="H95">
-        <v>NaN</v>
+        <v>1562</v>
       </c>
       <c r="I95" t="str">
         <v>105223</v>
       </c>
       <c r="J95">
-        <v>NaN</v>
+        <v>1107</v>
       </c>
       <c r="K95" t="str">
         <v>225132</v>
       </c>
       <c r="L95">
-        <v>NaN</v>
+        <v>2405</v>
       </c>
       <c r="M95" t="str">
         <v>225939</v>
       </c>
       <c r="N95">
-        <v>NaN</v>
+        <v>719</v>
       </c>
       <c r="O95" t="str">
         <v>150526</v>
       </c>
       <c r="P95">
-        <v>NaN</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -6458,22 +6458,22 @@
         <v>2</v>
       </c>
       <c r="G96">
-        <v>NaN</v>
+        <v>1475</v>
       </c>
       <c r="H96">
-        <v>NaN</v>
+        <v>1475</v>
       </c>
       <c r="I96" t="str">
         <v>141458</v>
       </c>
       <c r="J96">
-        <v>NaN</v>
+        <v>2110</v>
       </c>
       <c r="K96" t="str">
         <v>012554</v>
       </c>
       <c r="L96">
-        <v>NaN</v>
+        <v>840</v>
       </c>
     </row>
     <row r="97">
@@ -6496,34 +6496,34 @@
         <v>4</v>
       </c>
       <c r="G97">
-        <v>NaN</v>
+        <v>1226.5</v>
       </c>
       <c r="H97">
-        <v>NaN</v>
+        <v>581.5</v>
       </c>
       <c r="I97" t="str">
         <v>033505</v>
       </c>
       <c r="J97">
-        <v>NaN</v>
+        <v>2867</v>
       </c>
       <c r="K97" t="str">
         <v>141455</v>
       </c>
       <c r="L97">
-        <v>NaN</v>
+        <v>524</v>
       </c>
       <c r="M97" t="str">
         <v>225926</v>
       </c>
       <c r="N97">
-        <v>NaN</v>
+        <v>639</v>
       </c>
       <c r="O97" t="str">
         <v>224632</v>
       </c>
       <c r="P97">
-        <v>NaN</v>
+        <v>876</v>
       </c>
     </row>
     <row r="98">
@@ -6546,22 +6546,22 @@
         <v>2</v>
       </c>
       <c r="G98">
-        <v>NaN</v>
+        <v>483</v>
       </c>
       <c r="H98">
-        <v>NaN</v>
+        <v>483</v>
       </c>
       <c r="I98" t="str">
         <v>231454</v>
       </c>
       <c r="J98">
-        <v>NaN</v>
+        <v>120</v>
       </c>
       <c r="K98" t="str">
         <v>011541</v>
       </c>
       <c r="L98">
-        <v>NaN</v>
+        <v>846</v>
       </c>
     </row>
     <row r="99">
@@ -6584,70 +6584,70 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>NaN</v>
+        <v>503.8</v>
       </c>
       <c r="H99">
-        <v>NaN</v>
+        <v>454.5</v>
       </c>
       <c r="I99" t="str">
         <v>140941</v>
       </c>
       <c r="J99">
-        <v>NaN</v>
+        <v>109</v>
       </c>
       <c r="K99" t="str">
         <v>030926</v>
       </c>
       <c r="L99">
-        <v>NaN</v>
+        <v>174</v>
       </c>
       <c r="M99" t="str">
         <v>074203</v>
       </c>
       <c r="N99">
-        <v>NaN</v>
+        <v>179</v>
       </c>
       <c r="O99" t="str">
         <v>225158</v>
       </c>
       <c r="P99">
-        <v>NaN</v>
+        <v>272</v>
       </c>
       <c r="Q99" t="str">
         <v>045450</v>
       </c>
       <c r="R99">
-        <v>NaN</v>
+        <v>362</v>
       </c>
       <c r="S99" t="str">
         <v>075404</v>
       </c>
       <c r="T99">
-        <v>NaN</v>
+        <v>547</v>
       </c>
       <c r="U99" t="str">
         <v>094333</v>
       </c>
       <c r="V99">
-        <v>NaN</v>
+        <v>777</v>
       </c>
       <c r="W99" t="str">
         <v>224115</v>
       </c>
       <c r="X99">
-        <v>NaN</v>
+        <v>779</v>
       </c>
       <c r="Y99" t="str">
         <v>074846</v>
       </c>
       <c r="Z99">
-        <v>NaN</v>
+        <v>909</v>
       </c>
       <c r="AA99" t="str">
         <v>231901</v>
       </c>
       <c r="AB99">
-        <v>NaN</v>
+        <v>930</v>
       </c>
     </row>
     <row r="100">
@@ -6670,16 +6670,16 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>NaN</v>
+        <v>1507</v>
       </c>
       <c r="H100">
-        <v>NaN</v>
+        <v>1507</v>
       </c>
       <c r="I100" t="str">
         <v>095635</v>
       </c>
       <c r="J100">
-        <v>NaN</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="101">
@@ -6702,16 +6702,16 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>NaN</v>
+        <v>1853</v>
       </c>
       <c r="H101">
-        <v>NaN</v>
+        <v>1853</v>
       </c>
       <c r="I101" t="str">
         <v>231035</v>
       </c>
       <c r="J101">
-        <v>NaN</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="102">
@@ -6734,34 +6734,34 @@
         <v>4</v>
       </c>
       <c r="G102">
-        <v>NaN</v>
+        <v>1353.25</v>
       </c>
       <c r="H102">
-        <v>NaN</v>
+        <v>1130</v>
       </c>
       <c r="I102" t="str">
         <v>224630</v>
       </c>
       <c r="J102">
-        <v>NaN</v>
+        <v>1079</v>
       </c>
       <c r="K102" t="str">
         <v>092039</v>
       </c>
       <c r="L102">
-        <v>NaN</v>
+        <v>1080</v>
       </c>
       <c r="M102" t="str">
         <v>032033</v>
       </c>
       <c r="N102">
-        <v>NaN</v>
+        <v>1180</v>
       </c>
       <c r="O102" t="str">
         <v>230130</v>
       </c>
       <c r="P102">
-        <v>NaN</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="103">
@@ -6784,58 +6784,58 @@
         <v>8</v>
       </c>
       <c r="G103">
-        <v>NaN</v>
+        <v>609.375</v>
       </c>
       <c r="H103">
-        <v>NaN</v>
+        <v>631.5</v>
       </c>
       <c r="I103" t="str">
         <v>134504</v>
       </c>
       <c r="J103">
-        <v>NaN</v>
+        <v>267</v>
       </c>
       <c r="K103" t="str">
         <v>060503</v>
       </c>
       <c r="L103">
-        <v>NaN</v>
+        <v>348</v>
       </c>
       <c r="M103" t="str">
         <v>172324</v>
       </c>
       <c r="N103">
-        <v>NaN</v>
+        <v>549</v>
       </c>
       <c r="O103" t="str">
         <v>061631</v>
       </c>
       <c r="P103">
-        <v>NaN</v>
+        <v>585</v>
       </c>
       <c r="Q103" t="str">
         <v>160226</v>
       </c>
       <c r="R103">
-        <v>NaN</v>
+        <v>678</v>
       </c>
       <c r="S103" t="str">
         <v>215100</v>
       </c>
       <c r="T103">
-        <v>NaN</v>
+        <v>696</v>
       </c>
       <c r="U103" t="str">
         <v>092703</v>
       </c>
       <c r="V103">
-        <v>NaN</v>
+        <v>773</v>
       </c>
       <c r="W103" t="str">
         <v>135419</v>
       </c>
       <c r="X103">
-        <v>NaN</v>
+        <v>979</v>
       </c>
     </row>
     <row r="104">
@@ -6858,16 +6858,16 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>NaN</v>
+        <v>1296</v>
       </c>
       <c r="H104">
-        <v>NaN</v>
+        <v>1296</v>
       </c>
       <c r="I104" t="str">
         <v>101611</v>
       </c>
       <c r="J104">
-        <v>NaN</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="105">
@@ -6890,22 +6890,22 @@
         <v>2</v>
       </c>
       <c r="G105">
-        <v>NaN</v>
+        <v>570.5</v>
       </c>
       <c r="H105">
-        <v>NaN</v>
+        <v>570.5</v>
       </c>
       <c r="I105" t="str">
         <v>131316</v>
       </c>
       <c r="J105">
-        <v>NaN</v>
+        <v>154</v>
       </c>
       <c r="K105" t="str">
         <v>154723</v>
       </c>
       <c r="L105">
-        <v>NaN</v>
+        <v>987</v>
       </c>
     </row>
     <row r="106">
@@ -6928,22 +6928,22 @@
         <v>2</v>
       </c>
       <c r="G106">
-        <v>NaN</v>
+        <v>890</v>
       </c>
       <c r="H106">
-        <v>NaN</v>
+        <v>890</v>
       </c>
       <c r="I106" t="str">
         <v>084903</v>
       </c>
       <c r="J106">
-        <v>NaN</v>
+        <v>1593</v>
       </c>
       <c r="K106" t="str">
         <v>115617</v>
       </c>
       <c r="L106">
-        <v>NaN</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107">
@@ -6966,34 +6966,34 @@
         <v>4</v>
       </c>
       <c r="G107">
-        <v>NaN</v>
+        <v>1078</v>
       </c>
       <c r="H107">
-        <v>NaN</v>
+        <v>1175.5</v>
       </c>
       <c r="I107" t="str">
         <v>141828</v>
       </c>
       <c r="J107">
-        <v>NaN</v>
+        <v>1201</v>
       </c>
       <c r="K107" t="str">
         <v>192512</v>
       </c>
       <c r="L107">
-        <v>NaN</v>
+        <v>2045</v>
       </c>
       <c r="M107" t="str">
         <v>053100</v>
       </c>
       <c r="N107">
-        <v>NaN</v>
+        <v>306</v>
       </c>
       <c r="O107" t="str">
         <v>181111</v>
       </c>
       <c r="P107">
-        <v>NaN</v>
+        <v>760</v>
       </c>
     </row>
     <row r="108">
@@ -7016,22 +7016,22 @@
         <v>2</v>
       </c>
       <c r="G108">
-        <v>NaN</v>
+        <v>1570.5</v>
       </c>
       <c r="H108">
-        <v>NaN</v>
+        <v>1570.5</v>
       </c>
       <c r="I108" t="str">
         <v>101059</v>
       </c>
       <c r="J108">
-        <v>NaN</v>
+        <v>1547</v>
       </c>
       <c r="K108" t="str">
         <v>124503</v>
       </c>
       <c r="L108">
-        <v>NaN</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="109">
@@ -7054,28 +7054,28 @@
         <v>3</v>
       </c>
       <c r="G109">
-        <v>NaN</v>
+        <v>934.6666666666666</v>
       </c>
       <c r="H109">
-        <v>NaN</v>
+        <v>521</v>
       </c>
       <c r="I109" t="str">
         <v>132107</v>
       </c>
       <c r="J109">
-        <v>NaN</v>
+        <v>1513</v>
       </c>
       <c r="K109" t="str">
         <v>220230</v>
       </c>
       <c r="L109">
-        <v>NaN</v>
+        <v>521</v>
       </c>
       <c r="M109" t="str">
         <v>231537</v>
       </c>
       <c r="N109">
-        <v>NaN</v>
+        <v>770</v>
       </c>
     </row>
     <row r="110">
@@ -7098,34 +7098,34 @@
         <v>4</v>
       </c>
       <c r="G110">
-        <v>NaN</v>
+        <v>461.75</v>
       </c>
       <c r="H110">
-        <v>NaN</v>
+        <v>344</v>
       </c>
       <c r="I110" t="str">
         <v>174527</v>
       </c>
       <c r="J110">
-        <v>NaN</v>
+        <v>335</v>
       </c>
       <c r="K110" t="str">
         <v>233731</v>
       </c>
       <c r="L110">
-        <v>NaN</v>
+        <v>336</v>
       </c>
       <c r="M110" t="str">
         <v>051327</v>
       </c>
       <c r="N110">
-        <v>NaN</v>
+        <v>352</v>
       </c>
       <c r="O110" t="str">
         <v>104938</v>
       </c>
       <c r="P110">
-        <v>NaN</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111">
@@ -7148,34 +7148,34 @@
         <v>4</v>
       </c>
       <c r="G111">
-        <v>NaN</v>
+        <v>520.75</v>
       </c>
       <c r="H111">
-        <v>NaN</v>
+        <v>291</v>
       </c>
       <c r="I111" t="str">
         <v>144150</v>
       </c>
       <c r="J111">
-        <v>NaN</v>
+        <v>1405</v>
       </c>
       <c r="K111" t="str">
         <v>230456</v>
       </c>
       <c r="L111">
-        <v>NaN</v>
+        <v>503</v>
       </c>
       <c r="M111" t="str">
         <v>223034</v>
       </c>
       <c r="N111">
-        <v>NaN</v>
+        <v>79</v>
       </c>
       <c r="O111" t="str">
         <v>235004</v>
       </c>
       <c r="P111">
-        <v>NaN</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112">
@@ -7198,22 +7198,22 @@
         <v>2</v>
       </c>
       <c r="G112">
-        <v>NaN</v>
+        <v>711.5</v>
       </c>
       <c r="H112">
-        <v>NaN</v>
+        <v>711.5</v>
       </c>
       <c r="I112" t="str">
         <v>084609</v>
       </c>
       <c r="J112">
-        <v>NaN</v>
+        <v>122</v>
       </c>
       <c r="K112" t="str">
         <v>062807</v>
       </c>
       <c r="L112">
-        <v>NaN</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="113">
@@ -7236,40 +7236,40 @@
         <v>5</v>
       </c>
       <c r="G113">
-        <v>NaN</v>
+        <v>449</v>
       </c>
       <c r="H113">
-        <v>NaN</v>
+        <v>190</v>
       </c>
       <c r="I113" t="str">
         <v>134112</v>
       </c>
       <c r="J113">
-        <v>NaN</v>
+        <v>128</v>
       </c>
       <c r="K113" t="str">
         <v>193728</v>
       </c>
       <c r="L113">
-        <v>NaN</v>
+        <v>1796</v>
       </c>
       <c r="M113" t="str">
         <v>214603</v>
       </c>
       <c r="N113">
-        <v>NaN</v>
+        <v>190</v>
       </c>
       <c r="O113" t="str">
         <v>231204</v>
       </c>
       <c r="P113">
-        <v>NaN</v>
+        <v>45</v>
       </c>
       <c r="Q113" t="str">
         <v>235714</v>
       </c>
       <c r="R113">
-        <v>NaN</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114">
@@ -7292,28 +7292,28 @@
         <v>3</v>
       </c>
       <c r="G114">
-        <v>NaN</v>
+        <v>1353.3333333333333</v>
       </c>
       <c r="H114">
-        <v>NaN</v>
+        <v>2352</v>
       </c>
       <c r="I114" t="str">
         <v>190847</v>
       </c>
       <c r="J114">
-        <v>NaN</v>
+        <v>1417</v>
       </c>
       <c r="K114" t="str">
         <v>000044</v>
       </c>
       <c r="L114">
-        <v>NaN</v>
+        <v>2352</v>
       </c>
       <c r="M114" t="str">
         <v>233841</v>
       </c>
       <c r="N114">
-        <v>NaN</v>
+        <v>291</v>
       </c>
     </row>
     <row r="115">
@@ -7336,52 +7336,52 @@
         <v>7</v>
       </c>
       <c r="G115">
-        <v>NaN</v>
+        <v>402.14285714285717</v>
       </c>
       <c r="H115">
-        <v>NaN</v>
+        <v>491</v>
       </c>
       <c r="I115" t="str">
         <v>044109</v>
       </c>
       <c r="J115">
-        <v>NaN</v>
+        <v>169</v>
       </c>
       <c r="K115" t="str">
         <v>182431</v>
       </c>
       <c r="L115">
-        <v>NaN</v>
+        <v>400</v>
       </c>
       <c r="M115" t="str">
         <v>010528</v>
       </c>
       <c r="N115">
-        <v>NaN</v>
+        <v>44</v>
       </c>
       <c r="O115" t="str">
         <v>144817</v>
       </c>
       <c r="P115">
-        <v>NaN</v>
+        <v>491</v>
       </c>
       <c r="Q115" t="str">
         <v>155446</v>
       </c>
       <c r="R115">
-        <v>NaN</v>
+        <v>66</v>
       </c>
       <c r="S115" t="str">
         <v>184431</v>
       </c>
       <c r="T115">
-        <v>NaN</v>
+        <v>822</v>
       </c>
       <c r="U115" t="str">
         <v>025555</v>
       </c>
       <c r="V115">
-        <v>NaN</v>
+        <v>823</v>
       </c>
     </row>
     <row r="116">
@@ -7404,22 +7404,22 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <v>NaN</v>
+        <v>354</v>
       </c>
       <c r="H116">
-        <v>NaN</v>
+        <v>354</v>
       </c>
       <c r="I116" t="str">
         <v>185810</v>
       </c>
       <c r="J116">
-        <v>NaN</v>
+        <v>41</v>
       </c>
       <c r="K116" t="str">
         <v>060534</v>
       </c>
       <c r="L116">
-        <v>NaN</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117">
@@ -7442,16 +7442,16 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>NaN</v>
+        <v>118</v>
       </c>
       <c r="H117">
-        <v>NaN</v>
+        <v>118</v>
       </c>
       <c r="I117" t="str">
         <v>071615</v>
       </c>
       <c r="J117">
-        <v>NaN</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
